--- a/Documentation/Scrum-Project-Management.xlsx
+++ b/Documentation/Scrum-Project-Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroficorella/Developer/GitHub/LABAP/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAB1763-37E2-754E-9818-32F3088AE2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6793130C-51D8-D941-A43A-99FF714BA662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLANK Gantt Chart &amp; Burndown" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="163">
   <si>
     <t>SCRUM PROJECT MANAGEMENT GANTT CHART</t>
   </si>
@@ -509,6 +509,21 @@
   </si>
   <si>
     <t>Integrate front-end as docker container</t>
+  </si>
+  <si>
+    <t>Ficorella</t>
+  </si>
+  <si>
+    <t>Sisti</t>
+  </si>
+  <si>
+    <t>Turbessi</t>
+  </si>
+  <si>
+    <t>Ficorella, Sisti</t>
+  </si>
+  <si>
+    <t>Sisti, Turbessi</t>
   </si>
 </sst>
 </file>
@@ -652,7 +667,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -932,6 +947,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC75911"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF80875A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF8F00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF656699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF999A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,7 +1825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2089,6 +2128,46 @@
     <xf numFmtId="0" fontId="10" fillId="45" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="46" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="46" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2151,69 +2230,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="48" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="49" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2240,6 +2265,24 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFEB9C"/>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
       <alignment wrapText="0" shrinkToFit="0"/>
@@ -2326,14 +2369,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF999A"/>
+      <color rgb="FF656699"/>
+      <color rgb="FFBF8F00"/>
+      <color rgb="FF70AD47"/>
       <color rgb="FFC75911"/>
       <color rgb="FFFFEBEB"/>
       <color rgb="FFEBEBF1"/>
       <color rgb="FFC8C8DA"/>
       <color rgb="FFFF9999"/>
       <color rgb="FF666699"/>
-      <color rgb="FFFF7C80"/>
-      <color rgb="FF3A5851"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2442,6 +2487,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -2644,6 +2690,186 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2904,184 +3130,184 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>65</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.916666666666664</c:v>
+                  <c:v>197.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.833333333333329</c:v>
+                  <c:v>194.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.749999999999993</c:v>
+                  <c:v>190.95000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.666666666666657</c:v>
+                  <c:v>187.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.583333333333321</c:v>
+                  <c:v>184.25000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.499999999999986</c:v>
+                  <c:v>180.90000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.41666666666665</c:v>
+                  <c:v>177.55000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.333333333333314</c:v>
+                  <c:v>174.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55.249999999999979</c:v>
+                  <c:v>170.85000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.166666666666643</c:v>
+                  <c:v>167.50000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53.083333333333307</c:v>
+                  <c:v>164.15000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.999999999999972</c:v>
+                  <c:v>160.80000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.916666666666636</c:v>
+                  <c:v>157.45000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.8333333333333</c:v>
+                  <c:v>154.10000000000008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48.749999999999964</c:v>
+                  <c:v>150.75000000000009</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.666666666666629</c:v>
+                  <c:v>147.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46.583333333333293</c:v>
+                  <c:v>144.0500000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45.499999999999957</c:v>
+                  <c:v>140.7000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44.416666666666622</c:v>
+                  <c:v>137.35000000000011</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.333333333333286</c:v>
+                  <c:v>134.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42.24999999999995</c:v>
+                  <c:v>130.65000000000012</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41.166666666666615</c:v>
+                  <c:v>127.30000000000013</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40.083333333333279</c:v>
+                  <c:v>123.95000000000013</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>38.999999999999943</c:v>
+                  <c:v>120.60000000000014</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37.916666666666607</c:v>
+                  <c:v>117.25000000000014</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>36.833333333333272</c:v>
+                  <c:v>113.90000000000015</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.749999999999936</c:v>
+                  <c:v>110.55000000000015</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34.6666666666666</c:v>
+                  <c:v>107.20000000000016</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.583333333333265</c:v>
+                  <c:v>103.85000000000016</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.499999999999929</c:v>
+                  <c:v>100.50000000000017</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.416666666666597</c:v>
+                  <c:v>97.150000000000176</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>30.333333333333265</c:v>
+                  <c:v>93.800000000000182</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29.249999999999932</c:v>
+                  <c:v>90.450000000000188</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28.1666666666666</c:v>
+                  <c:v>87.100000000000193</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27.083333333333268</c:v>
+                  <c:v>83.750000000000199</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>25.999999999999936</c:v>
+                  <c:v>80.400000000000205</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24.916666666666604</c:v>
+                  <c:v>77.05000000000021</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23.833333333333272</c:v>
+                  <c:v>73.700000000000216</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>22.74999999999994</c:v>
+                  <c:v>70.350000000000222</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21.666666666666607</c:v>
+                  <c:v>67.000000000000227</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.583333333333275</c:v>
+                  <c:v>63.650000000000226</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>19.499999999999943</c:v>
+                  <c:v>60.300000000000225</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.416666666666611</c:v>
+                  <c:v>56.950000000000223</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17.333333333333279</c:v>
+                  <c:v>53.600000000000222</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>16.249999999999947</c:v>
+                  <c:v>50.25000000000022</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15.166666666666613</c:v>
+                  <c:v>46.900000000000219</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14.083333333333279</c:v>
+                  <c:v>43.550000000000217</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12.999999999999945</c:v>
+                  <c:v>40.200000000000216</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.916666666666611</c:v>
+                  <c:v>36.850000000000215</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.833333333333277</c:v>
+                  <c:v>33.500000000000213</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.7499999999999432</c:v>
+                  <c:v>30.150000000000212</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.6666666666666092</c:v>
+                  <c:v>26.80000000000021</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.5833333333332762</c:v>
+                  <c:v>23.450000000000209</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.4999999999999432</c:v>
+                  <c:v>20.100000000000207</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.4166666666666101</c:v>
+                  <c:v>16.750000000000206</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.3333333333332771</c:v>
+                  <c:v>13.400000000000206</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.249999999999944</c:v>
+                  <c:v>10.050000000000207</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.166666666666611</c:v>
+                  <c:v>6.7000000000002071</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0833333333332777</c:v>
+                  <c:v>3.350000000000207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3315,184 +3541,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>65</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>65</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>65</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>65</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>65</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>65</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>65</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>65</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>65</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>65</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>65</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>65</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>65</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>65</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>65</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>65</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>65</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>65</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>65</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>65</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>65</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>65</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>65</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>65</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>65</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>65</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>65</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>65</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>65</c:v>
+                  <c:v>-23</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>65</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>65</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>65</c:v>
+                  <c:v>-33</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>65</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>65</c:v>
+                  <c:v>-42</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>65</c:v>
+                  <c:v>-46</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>65</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>65</c:v>
+                  <c:v>-53</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>65</c:v>
+                  <c:v>-55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4149,8 +4375,8 @@
   </sheetPr>
   <dimension ref="B1:BV1025"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BL70" sqref="BL70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4263,7 +4489,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="158" t="s">
+      <c r="K3" s="128" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -4340,7 +4566,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="159"/>
+      <c r="K4" s="129"/>
       <c r="L4" s="10" t="s">
         <v>4</v>
       </c>
@@ -4415,7 +4641,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="159"/>
+      <c r="K5" s="129"/>
       <c r="L5" s="14" t="s">
         <v>5</v>
       </c>
@@ -4490,7 +4716,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="159"/>
+      <c r="K6" s="129"/>
       <c r="L6" s="16" t="s">
         <v>6</v>
       </c>
@@ -4565,7 +4791,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="159"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="18" t="s">
         <v>7</v>
       </c>
@@ -4640,7 +4866,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="160"/>
+      <c r="K8" s="130"/>
       <c r="L8" s="108" t="s">
         <v>7</v>
       </c>
@@ -4706,124 +4932,124 @@
       <c r="BT8" s="110"/>
     </row>
     <row r="9" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="163" t="s">
+      <c r="C9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="170" t="s">
+      <c r="F9" s="138"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="172" t="s">
+      <c r="I9" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="134" t="s">
+      <c r="J9" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="136" t="s">
+      <c r="K9" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="137" t="s">
+      <c r="L9" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="139" t="s">
+      <c r="M9" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="140"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="142" t="s">
+      <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="140"/>
-      <c r="T9" s="140"/>
-      <c r="U9" s="140"/>
-      <c r="V9" s="141"/>
-      <c r="W9" s="143" t="s">
+      <c r="S9" s="160"/>
+      <c r="T9" s="160"/>
+      <c r="U9" s="160"/>
+      <c r="V9" s="161"/>
+      <c r="W9" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="145"/>
-      <c r="AB9" s="146" t="s">
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="165"/>
+      <c r="AB9" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="144"/>
-      <c r="AF9" s="147"/>
-      <c r="AG9" s="148" t="s">
+      <c r="AC9" s="164"/>
+      <c r="AD9" s="164"/>
+      <c r="AE9" s="164"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="AH9" s="149"/>
-      <c r="AI9" s="149"/>
-      <c r="AJ9" s="149"/>
-      <c r="AK9" s="150"/>
-      <c r="AL9" s="148" t="s">
+      <c r="AH9" s="169"/>
+      <c r="AI9" s="169"/>
+      <c r="AJ9" s="169"/>
+      <c r="AK9" s="170"/>
+      <c r="AL9" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="AM9" s="149"/>
-      <c r="AN9" s="149"/>
-      <c r="AO9" s="149"/>
-      <c r="AP9" s="151"/>
-      <c r="AQ9" s="152" t="s">
+      <c r="AM9" s="169"/>
+      <c r="AN9" s="169"/>
+      <c r="AO9" s="169"/>
+      <c r="AP9" s="171"/>
+      <c r="AQ9" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="AR9" s="153"/>
-      <c r="AS9" s="153"/>
-      <c r="AT9" s="153"/>
-      <c r="AU9" s="154"/>
-      <c r="AV9" s="155" t="s">
+      <c r="AR9" s="173"/>
+      <c r="AS9" s="173"/>
+      <c r="AT9" s="173"/>
+      <c r="AU9" s="174"/>
+      <c r="AV9" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="AW9" s="153"/>
-      <c r="AX9" s="153"/>
-      <c r="AY9" s="153"/>
-      <c r="AZ9" s="154"/>
-      <c r="BA9" s="156" t="s">
+      <c r="AW9" s="173"/>
+      <c r="AX9" s="173"/>
+      <c r="AY9" s="173"/>
+      <c r="AZ9" s="174"/>
+      <c r="BA9" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="BB9" s="128"/>
-      <c r="BC9" s="128"/>
-      <c r="BD9" s="128"/>
-      <c r="BE9" s="157"/>
-      <c r="BF9" s="127" t="s">
+      <c r="BB9" s="148"/>
+      <c r="BC9" s="148"/>
+      <c r="BD9" s="148"/>
+      <c r="BE9" s="177"/>
+      <c r="BF9" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="BG9" s="128"/>
-      <c r="BH9" s="128"/>
-      <c r="BI9" s="128"/>
-      <c r="BJ9" s="129"/>
-      <c r="BK9" s="130" t="s">
+      <c r="BG9" s="148"/>
+      <c r="BH9" s="148"/>
+      <c r="BI9" s="148"/>
+      <c r="BJ9" s="149"/>
+      <c r="BK9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="BL9" s="131"/>
-      <c r="BM9" s="131"/>
-      <c r="BN9" s="131"/>
-      <c r="BO9" s="132"/>
-      <c r="BP9" s="130" t="s">
+      <c r="BL9" s="151"/>
+      <c r="BM9" s="151"/>
+      <c r="BN9" s="151"/>
+      <c r="BO9" s="152"/>
+      <c r="BP9" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="BQ9" s="131"/>
-      <c r="BR9" s="131"/>
-      <c r="BS9" s="131"/>
-      <c r="BT9" s="133"/>
+      <c r="BQ9" s="151"/>
+      <c r="BR9" s="151"/>
+      <c r="BS9" s="151"/>
+      <c r="BT9" s="153"/>
     </row>
     <row r="10" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="162"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="166"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="136"/>
       <c r="E10" s="20" t="s">
         <v>29</v>
       </c>
@@ -4833,11 +5059,11 @@
       <c r="G10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="171"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="138"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="158"/>
       <c r="M10" s="23" t="s">
         <v>32</v>
       </c>
@@ -5029,11 +5255,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="34">
         <f>SUM(E12:E17)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="35">
         <f>SUM(F12:F17)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" s="36">
         <f>SUM(G12:G17)</f>
@@ -5047,7 +5273,7 @@
       <c r="K11" s="40"/>
       <c r="L11" s="41">
         <f t="shared" ref="L11:L40" si="0">F11/E11</f>
-        <v>1.0714285714285714</v>
+        <v>1.064516129032258</v>
       </c>
       <c r="M11" s="42"/>
       <c r="N11" s="43"/>
@@ -5119,10 +5345,10 @@
         <v>93</v>
       </c>
       <c r="E12" s="48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" s="49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12" s="50">
         <f t="shared" ref="G12:G17" si="1">E12-F12</f>
@@ -5135,11 +5361,11 @@
         <v>44844</v>
       </c>
       <c r="J12" s="53">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="K12" s="54">
         <f t="shared" ref="K12:K17" si="2">J12-I12+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="55">
         <f t="shared" si="0"/>
@@ -5147,7 +5373,7 @@
       </c>
       <c r="M12" s="78"/>
       <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
+      <c r="O12" s="57"/>
       <c r="P12" s="57"/>
       <c r="Q12" s="57"/>
       <c r="R12" s="58"/>
@@ -5311,10 +5537,10 @@
         <v>93</v>
       </c>
       <c r="E14" s="48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="50">
         <f t="shared" si="1"/>
@@ -5335,7 +5561,7 @@
       </c>
       <c r="L14" s="55">
         <f t="shared" si="0"/>
-        <v>1.2222222222222223</v>
+        <v>1.2</v>
       </c>
       <c r="M14" s="56"/>
       <c r="N14" s="57"/>
@@ -5516,14 +5742,14 @@
         <v>1</v>
       </c>
       <c r="I16" s="53">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="J16" s="53">
         <v>44853</v>
       </c>
       <c r="K16" s="54">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="55">
         <f t="shared" si="0"/>
@@ -5535,7 +5761,7 @@
       <c r="P16" s="57"/>
       <c r="Q16" s="57"/>
       <c r="R16" s="58"/>
-      <c r="S16" s="78"/>
+      <c r="S16" s="58"/>
       <c r="T16" s="78"/>
       <c r="U16" s="58"/>
       <c r="V16" s="58"/>
@@ -5696,11 +5922,11 @@
       <c r="D18" s="63"/>
       <c r="E18" s="34">
         <f>SUM(E19:E22)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="35">
         <f>SUM(F19:F22)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="36">
         <f>SUM(G19:G22)</f>
@@ -5714,7 +5940,7 @@
       <c r="K18" s="66"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="M18" s="42"/>
       <c r="N18" s="43"/>
@@ -5799,10 +6025,10 @@
         <v>2</v>
       </c>
       <c r="I19" s="52">
-        <v>44977</v>
+        <v>44963</v>
       </c>
       <c r="J19" s="52">
-        <v>44978</v>
+        <v>44964</v>
       </c>
       <c r="K19" s="54">
         <f t="shared" ref="K19:K23" si="4">J19-I19+1</f>
@@ -5822,8 +6048,8 @@
       <c r="T19" s="58"/>
       <c r="U19" s="58"/>
       <c r="V19" s="58"/>
-      <c r="W19" s="176"/>
-      <c r="X19" s="176"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="126"/>
       <c r="Y19" s="57"/>
       <c r="Z19" s="57"/>
       <c r="AA19" s="59"/>
@@ -5895,10 +6121,10 @@
         <v>2</v>
       </c>
       <c r="I20" s="52">
-        <v>44978</v>
+        <v>44964</v>
       </c>
       <c r="J20" s="52">
-        <v>44979</v>
+        <v>44965</v>
       </c>
       <c r="K20" s="54">
         <f t="shared" si="4"/>
@@ -5919,8 +6145,8 @@
       <c r="U20" s="58"/>
       <c r="V20" s="58"/>
       <c r="W20" s="57"/>
-      <c r="X20" s="176"/>
-      <c r="Y20" s="176"/>
+      <c r="X20" s="126"/>
+      <c r="Y20" s="126"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="59"/>
       <c r="AB20" s="60"/>
@@ -5991,10 +6217,10 @@
         <v>2</v>
       </c>
       <c r="I21" s="52">
-        <v>44980</v>
+        <v>44966</v>
       </c>
       <c r="J21" s="53">
-        <v>44980</v>
+        <v>44966</v>
       </c>
       <c r="K21" s="54">
         <f t="shared" si="4"/>
@@ -6017,7 +6243,7 @@
       <c r="W21" s="57"/>
       <c r="X21" s="57"/>
       <c r="Y21" s="57"/>
-      <c r="Z21" s="176"/>
+      <c r="Z21" s="126"/>
       <c r="AA21" s="59"/>
       <c r="AB21" s="60"/>
       <c r="AC21" s="60"/>
@@ -6074,10 +6300,10 @@
         <v>93</v>
       </c>
       <c r="E22" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="50">
         <f t="shared" si="3"/>
@@ -6087,10 +6313,10 @@
         <v>2</v>
       </c>
       <c r="I22" s="52">
-        <v>44981</v>
+        <v>44967</v>
       </c>
       <c r="J22" s="52">
-        <v>44981</v>
+        <v>44967</v>
       </c>
       <c r="K22" s="54">
         <f t="shared" si="4"/>
@@ -6114,7 +6340,7 @@
       <c r="X22" s="57"/>
       <c r="Y22" s="57"/>
       <c r="Z22" s="57"/>
-      <c r="AA22" s="176"/>
+      <c r="AA22" s="126"/>
       <c r="AB22" s="60"/>
       <c r="AC22" s="60"/>
       <c r="AD22" s="60"/>
@@ -6170,10 +6396,10 @@
         <v>93</v>
       </c>
       <c r="E23" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="50">
         <f t="shared" si="3"/>
@@ -6183,10 +6409,10 @@
         <v>2</v>
       </c>
       <c r="I23" s="52">
-        <v>44981</v>
+        <v>44967</v>
       </c>
       <c r="J23" s="52">
-        <v>44981</v>
+        <v>44967</v>
       </c>
       <c r="K23" s="54">
         <f t="shared" si="4"/>
@@ -6210,7 +6436,7 @@
       <c r="X23" s="57"/>
       <c r="Y23" s="57"/>
       <c r="Z23" s="57"/>
-      <c r="AA23" s="176"/>
+      <c r="AA23" s="126"/>
       <c r="AB23" s="60"/>
       <c r="AC23" s="60"/>
       <c r="AD23" s="60"/>
@@ -6267,17 +6493,17 @@
       <c r="D24" s="63"/>
       <c r="E24" s="34">
         <f t="shared" ref="E24:G24" si="6">SUM(E25:E30)</f>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="G24" s="36">
         <f t="shared" si="6"/>
-        <v>-3</v>
-      </c>
-      <c r="H24" s="177" t="s">
+        <v>-4</v>
+      </c>
+      <c r="H24" s="127" t="s">
         <v>153</v>
       </c>
       <c r="I24" s="65"/>
@@ -6285,7 +6511,7 @@
       <c r="K24" s="66"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
-        <v>1.1875</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M24" s="42"/>
       <c r="N24" s="43"/>
@@ -6369,11 +6595,15 @@
       <c r="H25" s="51">
         <v>3</v>
       </c>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
+      <c r="I25" s="52">
+        <v>44977</v>
+      </c>
+      <c r="J25" s="52">
+        <v>44978</v>
+      </c>
       <c r="K25" s="54">
         <f t="shared" ref="K25:K30" si="8">J25-I25+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="55">
         <f t="shared" si="0"/>
@@ -6399,8 +6629,8 @@
       <c r="AD25" s="60"/>
       <c r="AE25" s="60"/>
       <c r="AF25" s="60"/>
-      <c r="AG25" s="117"/>
-      <c r="AH25" s="57"/>
+      <c r="AG25" s="178"/>
+      <c r="AH25" s="178"/>
       <c r="AI25" s="57"/>
       <c r="AJ25" s="57"/>
       <c r="AK25" s="57"/>
@@ -6461,11 +6691,15 @@
       <c r="H26" s="51">
         <v>3</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53"/>
+      <c r="I26" s="125">
+        <v>44979</v>
+      </c>
+      <c r="J26" s="125">
+        <v>44981</v>
+      </c>
       <c r="K26" s="54">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" s="55">
         <f t="shared" si="0"/>
@@ -6493,9 +6727,9 @@
       <c r="AF26" s="60"/>
       <c r="AG26" s="56"/>
       <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
+      <c r="AI26" s="178"/>
+      <c r="AJ26" s="178"/>
+      <c r="AK26" s="178"/>
       <c r="AL26" s="118"/>
       <c r="AM26" s="118"/>
       <c r="AN26" s="118"/>
@@ -6541,10 +6775,10 @@
         <v>93</v>
       </c>
       <c r="E27" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="50">
         <f t="shared" si="7"/>
@@ -6553,8 +6787,12 @@
       <c r="H27" s="51">
         <v>3</v>
       </c>
-      <c r="I27" s="52"/>
-      <c r="J27" s="53"/>
+      <c r="I27" s="125">
+        <v>44984</v>
+      </c>
+      <c r="J27" s="125">
+        <v>44984</v>
+      </c>
       <c r="K27" s="54">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -6588,7 +6826,7 @@
       <c r="AI27" s="57"/>
       <c r="AJ27" s="57"/>
       <c r="AK27" s="57"/>
-      <c r="AL27" s="118"/>
+      <c r="AL27" s="178"/>
       <c r="AM27" s="118"/>
       <c r="AN27" s="118"/>
       <c r="AO27" s="118"/>
@@ -6629,9 +6867,15 @@
       <c r="C28" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
+      <c r="D28" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="48">
+        <v>8</v>
+      </c>
+      <c r="F28" s="49">
+        <v>8</v>
+      </c>
       <c r="G28" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6639,15 +6883,19 @@
       <c r="H28" s="51">
         <v>3</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="53"/>
+      <c r="I28" s="125">
+        <v>44985</v>
+      </c>
+      <c r="J28" s="125">
+        <v>44987</v>
+      </c>
       <c r="K28" s="54">
         <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="L28" s="55">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="L28" s="55" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M28" s="56"/>
       <c r="N28" s="57"/>
@@ -6675,9 +6923,9 @@
       <c r="AJ28" s="57"/>
       <c r="AK28" s="57"/>
       <c r="AL28" s="118"/>
-      <c r="AM28" s="118"/>
-      <c r="AN28" s="118"/>
-      <c r="AO28" s="118"/>
+      <c r="AM28" s="178"/>
+      <c r="AN28" s="178"/>
+      <c r="AO28" s="178"/>
       <c r="AP28" s="118"/>
       <c r="AQ28" s="56"/>
       <c r="AR28" s="57"/>
@@ -6715,9 +6963,15 @@
       <c r="C29" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
+      <c r="D29" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="48">
+        <v>5</v>
+      </c>
+      <c r="F29" s="49">
+        <v>5</v>
+      </c>
       <c r="G29" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6725,15 +6979,19 @@
       <c r="H29" s="51">
         <v>3</v>
       </c>
-      <c r="I29" s="52"/>
-      <c r="J29" s="53"/>
+      <c r="I29" s="125">
+        <v>44985</v>
+      </c>
+      <c r="J29" s="125">
+        <v>44986</v>
+      </c>
       <c r="K29" s="54">
         <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L29" s="55">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="L29" s="55" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M29" s="56"/>
       <c r="N29" s="57"/>
@@ -6761,8 +7019,8 @@
       <c r="AJ29" s="57"/>
       <c r="AK29" s="57"/>
       <c r="AL29" s="118"/>
-      <c r="AM29" s="118"/>
-      <c r="AN29" s="118"/>
+      <c r="AM29" s="178"/>
+      <c r="AN29" s="178"/>
       <c r="AO29" s="118"/>
       <c r="AP29" s="118"/>
       <c r="AQ29" s="56"/>
@@ -6801,25 +7059,35 @@
       <c r="C30" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
+      <c r="D30" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="48">
+        <v>9</v>
+      </c>
+      <c r="F30" s="49">
+        <v>10</v>
+      </c>
       <c r="G30" s="50">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H30" s="51">
         <v>4</v>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
+      <c r="I30" s="52">
+        <v>44991</v>
+      </c>
+      <c r="J30" s="52">
+        <v>44993</v>
+      </c>
       <c r="K30" s="54">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L30" s="55" t="e">
+        <v>3</v>
+      </c>
+      <c r="L30" s="55">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="M30" s="56"/>
       <c r="N30" s="57"/>
@@ -6851,9 +7119,9 @@
       <c r="AN30" s="118"/>
       <c r="AO30" s="118"/>
       <c r="AP30" s="118"/>
-      <c r="AQ30" s="56"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
+      <c r="AQ30" s="179"/>
+      <c r="AR30" s="179"/>
+      <c r="AS30" s="179"/>
       <c r="AT30" s="57"/>
       <c r="AU30" s="57"/>
       <c r="AV30" s="61"/>
@@ -6887,25 +7155,35 @@
       <c r="C31" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
+      <c r="D31" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="48">
+        <v>9</v>
+      </c>
+      <c r="F31" s="49">
+        <v>11</v>
+      </c>
       <c r="G31" s="50">
         <f t="shared" ref="G31:G37" si="9">E31-F31</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H31" s="51">
         <v>4</v>
       </c>
-      <c r="I31" s="52"/>
-      <c r="J31" s="53"/>
+      <c r="I31" s="125">
+        <v>44994</v>
+      </c>
+      <c r="J31" s="125">
+        <v>44998</v>
+      </c>
       <c r="K31" s="54">
         <f t="shared" ref="K31:K37" si="10">J31-I31+1</f>
-        <v>1</v>
-      </c>
-      <c r="L31" s="55" t="e">
+        <v>5</v>
+      </c>
+      <c r="L31" s="55">
         <f t="shared" ref="L31:L37" si="11">F31/E31</f>
-        <v>#DIV/0!</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="M31" s="56"/>
       <c r="N31" s="57"/>
@@ -6940,9 +7218,9 @@
       <c r="AQ31" s="56"/>
       <c r="AR31" s="57"/>
       <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="57"/>
-      <c r="AV31" s="61"/>
+      <c r="AT31" s="179"/>
+      <c r="AU31" s="179"/>
+      <c r="AV31" s="179"/>
       <c r="AW31" s="61"/>
       <c r="AX31" s="61"/>
       <c r="AY31" s="61"/>
@@ -6973,9 +7251,15 @@
       <c r="C32" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
+      <c r="D32" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="48">
+        <v>5</v>
+      </c>
+      <c r="F32" s="49">
+        <v>5</v>
+      </c>
       <c r="G32" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6983,15 +7267,19 @@
       <c r="H32" s="51">
         <v>4</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="53"/>
+      <c r="I32" s="125">
+        <v>44999</v>
+      </c>
+      <c r="J32" s="125">
+        <v>45000</v>
+      </c>
       <c r="K32" s="54">
         <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L32" s="55">
+        <f t="shared" si="11"/>
         <v>1</v>
-      </c>
-      <c r="L32" s="55" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M32" s="56"/>
       <c r="N32" s="57"/>
@@ -7029,8 +7317,8 @@
       <c r="AT32" s="57"/>
       <c r="AU32" s="57"/>
       <c r="AV32" s="61"/>
-      <c r="AW32" s="61"/>
-      <c r="AX32" s="61"/>
+      <c r="AW32" s="179"/>
+      <c r="AX32" s="179"/>
       <c r="AY32" s="61"/>
       <c r="AZ32" s="61"/>
       <c r="BA32" s="57"/>
@@ -7059,9 +7347,15 @@
       <c r="C33" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
+      <c r="D33" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="48">
+        <v>5</v>
+      </c>
+      <c r="F33" s="49">
+        <v>5</v>
+      </c>
       <c r="G33" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -7069,15 +7363,19 @@
       <c r="H33" s="51">
         <v>4</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
+      <c r="I33" s="125">
+        <v>44999</v>
+      </c>
+      <c r="J33" s="125">
+        <v>45000</v>
+      </c>
       <c r="K33" s="54">
         <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L33" s="55">
+        <f t="shared" si="11"/>
         <v>1</v>
-      </c>
-      <c r="L33" s="55" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M33" s="56"/>
       <c r="N33" s="57"/>
@@ -7115,8 +7413,8 @@
       <c r="AT33" s="57"/>
       <c r="AU33" s="57"/>
       <c r="AV33" s="61"/>
-      <c r="AW33" s="61"/>
-      <c r="AX33" s="61"/>
+      <c r="AW33" s="179"/>
+      <c r="AX33" s="179"/>
       <c r="AY33" s="61"/>
       <c r="AZ33" s="61"/>
       <c r="BA33" s="57"/>
@@ -7145,9 +7443,15 @@
       <c r="C34" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
+      <c r="D34" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="48">
+        <v>5</v>
+      </c>
+      <c r="F34" s="49">
+        <v>5</v>
+      </c>
       <c r="G34" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -7155,15 +7459,19 @@
       <c r="H34" s="51">
         <v>4</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="53"/>
+      <c r="I34" s="125">
+        <v>44999</v>
+      </c>
+      <c r="J34" s="125">
+        <v>45000</v>
+      </c>
       <c r="K34" s="54">
         <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L34" s="55">
+        <f t="shared" si="11"/>
         <v>1</v>
-      </c>
-      <c r="L34" s="55" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M34" s="56"/>
       <c r="N34" s="57"/>
@@ -7201,8 +7509,8 @@
       <c r="AT34" s="57"/>
       <c r="AU34" s="57"/>
       <c r="AV34" s="61"/>
-      <c r="AW34" s="61"/>
-      <c r="AX34" s="61"/>
+      <c r="AW34" s="179"/>
+      <c r="AX34" s="179"/>
       <c r="AY34" s="61"/>
       <c r="AZ34" s="61"/>
       <c r="BA34" s="57"/>
@@ -7231,25 +7539,35 @@
       <c r="C35" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
+      <c r="D35" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="48">
+        <v>8</v>
+      </c>
+      <c r="F35" s="49">
+        <v>10</v>
+      </c>
       <c r="G35" s="50">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H35" s="51">
         <v>5</v>
       </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="53"/>
+      <c r="I35" s="52">
+        <v>45005</v>
+      </c>
+      <c r="J35" s="52">
+        <v>45007</v>
+      </c>
       <c r="K35" s="54">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="L35" s="55" t="e">
+        <v>3</v>
+      </c>
+      <c r="L35" s="55">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>1.25</v>
       </c>
       <c r="M35" s="56"/>
       <c r="N35" s="57"/>
@@ -7291,9 +7609,9 @@
       <c r="AX35" s="61"/>
       <c r="AY35" s="61"/>
       <c r="AZ35" s="61"/>
-      <c r="BA35" s="57"/>
-      <c r="BB35" s="57"/>
-      <c r="BC35" s="57"/>
+      <c r="BA35" s="180"/>
+      <c r="BB35" s="180"/>
+      <c r="BC35" s="180"/>
       <c r="BD35" s="57"/>
       <c r="BE35" s="59"/>
       <c r="BF35" s="119"/>
@@ -7317,25 +7635,35 @@
       <c r="C36" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
+      <c r="D36" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="48">
+        <v>8</v>
+      </c>
+      <c r="F36" s="49">
+        <v>11</v>
+      </c>
       <c r="G36" s="50">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H36" s="51">
         <v>5</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="53"/>
+      <c r="I36" s="125">
+        <v>45008</v>
+      </c>
+      <c r="J36" s="53">
+        <v>45012</v>
+      </c>
       <c r="K36" s="54">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="L36" s="55" t="e">
+        <v>5</v>
+      </c>
+      <c r="L36" s="55">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>1.375</v>
       </c>
       <c r="M36" s="56"/>
       <c r="N36" s="57"/>
@@ -7380,9 +7708,9 @@
       <c r="BA36" s="57"/>
       <c r="BB36" s="57"/>
       <c r="BC36" s="57"/>
-      <c r="BD36" s="57"/>
-      <c r="BE36" s="59"/>
-      <c r="BF36" s="119"/>
+      <c r="BD36" s="180"/>
+      <c r="BE36" s="180"/>
+      <c r="BF36" s="180"/>
       <c r="BG36" s="120"/>
       <c r="BH36" s="120"/>
       <c r="BI36" s="120"/>
@@ -7403,9 +7731,15 @@
       <c r="C37" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
+      <c r="D37" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="48">
+        <v>6</v>
+      </c>
+      <c r="F37" s="49">
+        <v>6</v>
+      </c>
       <c r="G37" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -7413,15 +7747,19 @@
       <c r="H37" s="51">
         <v>5</v>
       </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="53"/>
+      <c r="I37" s="53">
+        <v>45013</v>
+      </c>
+      <c r="J37" s="53">
+        <v>45015</v>
+      </c>
       <c r="K37" s="54">
         <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="L37" s="55">
+        <f t="shared" si="11"/>
         <v>1</v>
-      </c>
-      <c r="L37" s="55" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M37" s="56"/>
       <c r="N37" s="57"/>
@@ -7469,9 +7807,9 @@
       <c r="BD37" s="57"/>
       <c r="BE37" s="59"/>
       <c r="BF37" s="119"/>
-      <c r="BG37" s="120"/>
-      <c r="BH37" s="120"/>
-      <c r="BI37" s="120"/>
+      <c r="BG37" s="180"/>
+      <c r="BH37" s="180"/>
+      <c r="BI37" s="180"/>
       <c r="BJ37" s="120"/>
       <c r="BK37" s="56"/>
       <c r="BL37" s="57"/>
@@ -7494,15 +7832,15 @@
       <c r="D38" s="63"/>
       <c r="E38" s="34">
         <f>SUM(E39:E59)</f>
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="F38" s="35">
         <f>SUM(F39:F59)</f>
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="G38" s="36">
         <f>SUM(G39:G59)</f>
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="H38" s="64" t="s">
         <v>154</v>
@@ -7512,7 +7850,7 @@
       <c r="K38" s="66"/>
       <c r="L38" s="41">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>1.0884955752212389</v>
       </c>
       <c r="M38" s="42"/>
       <c r="N38" s="43"/>
@@ -7597,10 +7935,10 @@
         <v>2</v>
       </c>
       <c r="I39" s="52">
-        <v>44984</v>
-      </c>
-      <c r="J39" s="53">
-        <v>44985</v>
+        <v>44970</v>
+      </c>
+      <c r="J39" s="52">
+        <v>44971</v>
       </c>
       <c r="K39" s="54">
         <f t="shared" ref="K39:K55" si="13">J39-I39+1</f>
@@ -7625,8 +7963,8 @@
       <c r="Y39" s="57"/>
       <c r="Z39" s="57"/>
       <c r="AA39" s="59"/>
-      <c r="AB39" s="176"/>
-      <c r="AC39" s="176"/>
+      <c r="AB39" s="126"/>
+      <c r="AC39" s="126"/>
       <c r="AD39" s="60"/>
       <c r="AE39" s="60"/>
       <c r="AF39" s="60"/>
@@ -7676,12 +8014,14 @@
       <c r="C40" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="47"/>
+      <c r="D40" s="47" t="s">
+        <v>158</v>
+      </c>
       <c r="E40" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="50">
         <f t="shared" si="12"/>
@@ -7691,14 +8031,14 @@
         <v>2</v>
       </c>
       <c r="I40" s="52">
-        <v>44986</v>
+        <v>44972</v>
       </c>
       <c r="J40" s="52">
-        <v>44986</v>
+        <v>44973</v>
       </c>
       <c r="K40" s="54">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" s="55">
         <f t="shared" si="0"/>
@@ -7721,8 +8061,8 @@
       <c r="AA40" s="59"/>
       <c r="AB40" s="60"/>
       <c r="AC40" s="60"/>
-      <c r="AD40" s="176"/>
-      <c r="AE40" s="60"/>
+      <c r="AD40" s="126"/>
+      <c r="AE40" s="126"/>
       <c r="AF40" s="60"/>
       <c r="AG40" s="56"/>
       <c r="AH40" s="57"/>
@@ -7770,9 +8110,15 @@
       <c r="C41" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
+      <c r="D41" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="48">
+        <v>3</v>
+      </c>
+      <c r="F41" s="49">
+        <v>3</v>
+      </c>
       <c r="G41" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7781,18 +8127,18 @@
         <v>2</v>
       </c>
       <c r="I41" s="52">
-        <v>44986</v>
-      </c>
-      <c r="J41" s="53">
-        <v>44987</v>
+        <v>44973</v>
+      </c>
+      <c r="J41" s="52">
+        <v>44974</v>
       </c>
       <c r="K41" s="54">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="L41" s="55" t="e">
+      <c r="L41" s="55">
         <f t="shared" ref="L41:L55" si="14">F41/E41</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M41" s="56"/>
       <c r="N41" s="57"/>
@@ -7811,9 +8157,9 @@
       <c r="AA41" s="59"/>
       <c r="AB41" s="60"/>
       <c r="AC41" s="60"/>
-      <c r="AD41" s="176"/>
-      <c r="AE41" s="176"/>
-      <c r="AF41" s="60"/>
+      <c r="AD41" s="60"/>
+      <c r="AE41" s="126"/>
+      <c r="AF41" s="126"/>
       <c r="AG41" s="56"/>
       <c r="AH41" s="57"/>
       <c r="AI41" s="57"/>
@@ -7860,9 +8206,15 @@
       <c r="C42" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
+      <c r="D42" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="48">
+        <v>3</v>
+      </c>
+      <c r="F42" s="49">
+        <v>3</v>
+      </c>
       <c r="G42" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7870,15 +8222,19 @@
       <c r="H42" s="51">
         <v>2</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="53"/>
+      <c r="I42" s="52">
+        <v>44972</v>
+      </c>
+      <c r="J42" s="52">
+        <v>44973</v>
+      </c>
       <c r="K42" s="54">
         <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L42" s="55">
+        <f t="shared" si="14"/>
         <v>1</v>
-      </c>
-      <c r="L42" s="55" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M42" s="56"/>
       <c r="N42" s="57"/>
@@ -7897,8 +8253,8 @@
       <c r="AA42" s="59"/>
       <c r="AB42" s="60"/>
       <c r="AC42" s="60"/>
-      <c r="AD42" s="60"/>
-      <c r="AE42" s="60"/>
+      <c r="AD42" s="126"/>
+      <c r="AE42" s="126"/>
       <c r="AF42" s="60"/>
       <c r="AG42" s="56"/>
       <c r="AH42" s="57"/>
@@ -7946,9 +8302,15 @@
       <c r="C43" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
+      <c r="D43" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="48">
+        <v>3</v>
+      </c>
+      <c r="F43" s="49">
+        <v>3</v>
+      </c>
       <c r="G43" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7957,18 +8319,18 @@
         <v>2</v>
       </c>
       <c r="I43" s="52">
-        <v>44986</v>
+        <v>44973</v>
       </c>
       <c r="J43" s="52">
-        <v>44987</v>
+        <v>44974</v>
       </c>
       <c r="K43" s="54">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="L43" s="55" t="e">
+      <c r="L43" s="55">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M43" s="56"/>
       <c r="N43" s="57"/>
@@ -7987,9 +8349,9 @@
       <c r="AA43" s="59"/>
       <c r="AB43" s="60"/>
       <c r="AC43" s="60"/>
-      <c r="AD43" s="176"/>
-      <c r="AE43" s="176"/>
-      <c r="AF43" s="60"/>
+      <c r="AD43" s="60"/>
+      <c r="AE43" s="126"/>
+      <c r="AF43" s="126"/>
       <c r="AG43" s="56"/>
       <c r="AH43" s="57"/>
       <c r="AI43" s="57"/>
@@ -8036,29 +8398,35 @@
       <c r="C44" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
+      <c r="D44" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="48">
+        <v>5</v>
+      </c>
+      <c r="F44" s="49">
+        <v>6</v>
+      </c>
       <c r="G44" s="50">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H44" s="51">
         <v>2</v>
       </c>
       <c r="I44" s="52">
-        <v>44988</v>
-      </c>
-      <c r="J44" s="175">
-        <v>44988</v>
+        <v>44972</v>
+      </c>
+      <c r="J44" s="52">
+        <v>44974</v>
       </c>
       <c r="K44" s="54">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="L44" s="55" t="e">
+        <v>3</v>
+      </c>
+      <c r="L44" s="55">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1.2</v>
       </c>
       <c r="M44" s="56"/>
       <c r="N44" s="57"/>
@@ -8077,9 +8445,9 @@
       <c r="AA44" s="59"/>
       <c r="AB44" s="60"/>
       <c r="AC44" s="60"/>
-      <c r="AD44" s="60"/>
-      <c r="AE44" s="60"/>
-      <c r="AF44" s="176"/>
+      <c r="AD44" s="126"/>
+      <c r="AE44" s="126"/>
+      <c r="AF44" s="126"/>
       <c r="AG44" s="56"/>
       <c r="AH44" s="57"/>
       <c r="AI44" s="57"/>
@@ -8126,9 +8494,15 @@
       <c r="C45" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="49"/>
+      <c r="D45" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="48">
+        <v>3</v>
+      </c>
+      <c r="F45" s="49">
+        <v>3</v>
+      </c>
       <c r="G45" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8136,15 +8510,19 @@
       <c r="H45" s="51">
         <v>2</v>
       </c>
-      <c r="I45" s="52"/>
-      <c r="J45" s="53"/>
+      <c r="I45" s="52">
+        <v>44974</v>
+      </c>
+      <c r="J45" s="52">
+        <v>44974</v>
+      </c>
       <c r="K45" s="54">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="L45" s="55" t="e">
+      <c r="L45" s="55">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M45" s="56"/>
       <c r="N45" s="57"/>
@@ -8165,7 +8543,7 @@
       <c r="AC45" s="60"/>
       <c r="AD45" s="60"/>
       <c r="AE45" s="60"/>
-      <c r="AF45" s="60"/>
+      <c r="AF45" s="126"/>
       <c r="AG45" s="56"/>
       <c r="AH45" s="57"/>
       <c r="AI45" s="57"/>
@@ -8212,9 +8590,15 @@
       <c r="C46" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
+      <c r="D46" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="48">
+        <v>5</v>
+      </c>
+      <c r="F46" s="49">
+        <v>5</v>
+      </c>
       <c r="G46" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8222,15 +8606,19 @@
       <c r="H46" s="51">
         <v>3</v>
       </c>
-      <c r="I46" s="52"/>
-      <c r="J46" s="53"/>
+      <c r="I46" s="125">
+        <v>44987</v>
+      </c>
+      <c r="J46" s="125">
+        <v>44988</v>
+      </c>
       <c r="K46" s="54">
         <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L46" s="55">
+        <f t="shared" si="14"/>
         <v>1</v>
-      </c>
-      <c r="L46" s="55" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M46" s="56"/>
       <c r="N46" s="57"/>
@@ -8260,8 +8648,8 @@
       <c r="AL46" s="118"/>
       <c r="AM46" s="118"/>
       <c r="AN46" s="118"/>
-      <c r="AO46" s="118"/>
-      <c r="AP46" s="118"/>
+      <c r="AO46" s="178"/>
+      <c r="AP46" s="178"/>
       <c r="AQ46" s="56"/>
       <c r="AR46" s="57"/>
       <c r="AS46" s="57"/>
@@ -8298,9 +8686,15 @@
       <c r="C47" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
+      <c r="D47" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="48">
+        <v>3</v>
+      </c>
+      <c r="F47" s="49">
+        <v>3</v>
+      </c>
       <c r="G47" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8308,15 +8702,19 @@
       <c r="H47" s="51">
         <v>3</v>
       </c>
-      <c r="I47" s="52"/>
-      <c r="J47" s="53"/>
+      <c r="I47" s="125">
+        <v>44988</v>
+      </c>
+      <c r="J47" s="125">
+        <v>44988</v>
+      </c>
       <c r="K47" s="54">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="L47" s="55" t="e">
+      <c r="L47" s="55">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M47" s="56"/>
       <c r="N47" s="57"/>
@@ -8347,7 +8745,7 @@
       <c r="AM47" s="118"/>
       <c r="AN47" s="118"/>
       <c r="AO47" s="118"/>
-      <c r="AP47" s="118"/>
+      <c r="AP47" s="178"/>
       <c r="AQ47" s="56"/>
       <c r="AR47" s="57"/>
       <c r="AS47" s="57"/>
@@ -8384,9 +8782,15 @@
       <c r="C48" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
+      <c r="D48" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="48">
+        <v>5</v>
+      </c>
+      <c r="F48" s="49">
+        <v>5</v>
+      </c>
       <c r="G48" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8394,15 +8798,19 @@
       <c r="H48" s="51">
         <v>3</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="53"/>
+      <c r="I48" s="125">
+        <v>44985</v>
+      </c>
+      <c r="J48" s="125">
+        <v>44986</v>
+      </c>
       <c r="K48" s="54">
         <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L48" s="55">
+        <f t="shared" si="14"/>
         <v>1</v>
-      </c>
-      <c r="L48" s="55" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M48" s="56"/>
       <c r="N48" s="57"/>
@@ -8430,8 +8838,8 @@
       <c r="AJ48" s="57"/>
       <c r="AK48" s="57"/>
       <c r="AL48" s="118"/>
-      <c r="AM48" s="118"/>
-      <c r="AN48" s="118"/>
+      <c r="AM48" s="178"/>
+      <c r="AN48" s="178"/>
       <c r="AO48" s="118"/>
       <c r="AP48" s="118"/>
       <c r="AQ48" s="56"/>
@@ -8470,25 +8878,35 @@
       <c r="C49" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
+      <c r="D49" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="48">
+        <v>4</v>
+      </c>
+      <c r="F49" s="49">
+        <v>5</v>
+      </c>
       <c r="G49" s="50">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H49" s="51">
         <v>3</v>
       </c>
-      <c r="I49" s="52"/>
-      <c r="J49" s="53"/>
+      <c r="I49" s="125">
+        <v>44987</v>
+      </c>
+      <c r="J49" s="125">
+        <v>44988</v>
+      </c>
       <c r="K49" s="54">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="L49" s="55" t="e">
+        <v>2</v>
+      </c>
+      <c r="L49" s="55">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1.25</v>
       </c>
       <c r="M49" s="56"/>
       <c r="N49" s="57"/>
@@ -8518,8 +8936,8 @@
       <c r="AL49" s="118"/>
       <c r="AM49" s="118"/>
       <c r="AN49" s="118"/>
-      <c r="AO49" s="118"/>
-      <c r="AP49" s="118"/>
+      <c r="AO49" s="178"/>
+      <c r="AP49" s="178"/>
       <c r="AQ49" s="56"/>
       <c r="AR49" s="57"/>
       <c r="AS49" s="57"/>
@@ -8556,9 +8974,15 @@
       <c r="C50" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="49"/>
+      <c r="D50" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="48">
+        <v>7</v>
+      </c>
+      <c r="F50" s="49">
+        <v>7</v>
+      </c>
       <c r="G50" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8566,15 +8990,19 @@
       <c r="H50" s="51">
         <v>4</v>
       </c>
-      <c r="I50" s="52"/>
-      <c r="J50" s="53"/>
+      <c r="I50" s="125">
+        <v>45001</v>
+      </c>
+      <c r="J50" s="52">
+        <v>45002</v>
+      </c>
       <c r="K50" s="54">
         <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L50" s="55">
+        <f t="shared" si="14"/>
         <v>1</v>
-      </c>
-      <c r="L50" s="55" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M50" s="56"/>
       <c r="N50" s="57"/>
@@ -8614,8 +9042,8 @@
       <c r="AV50" s="61"/>
       <c r="AW50" s="61"/>
       <c r="AX50" s="61"/>
-      <c r="AY50" s="61"/>
-      <c r="AZ50" s="61"/>
+      <c r="AY50" s="179"/>
+      <c r="AZ50" s="179"/>
       <c r="BA50" s="57"/>
       <c r="BB50" s="57"/>
       <c r="BC50" s="57"/>
@@ -8642,9 +9070,15 @@
       <c r="C51" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
+      <c r="D51" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="48">
+        <v>4</v>
+      </c>
+      <c r="F51" s="49">
+        <v>4</v>
+      </c>
       <c r="G51" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8652,15 +9086,19 @@
       <c r="H51" s="51">
         <v>4</v>
       </c>
-      <c r="I51" s="52"/>
-      <c r="J51" s="53"/>
+      <c r="I51" s="125">
+        <v>45001</v>
+      </c>
+      <c r="J51" s="52">
+        <v>45002</v>
+      </c>
       <c r="K51" s="54">
-        <f t="shared" si="13"/>
+        <f>J51-I51+1</f>
+        <v>2</v>
+      </c>
+      <c r="L51" s="55">
+        <f t="shared" si="14"/>
         <v>1</v>
-      </c>
-      <c r="L51" s="55" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M51" s="56"/>
       <c r="N51" s="57"/>
@@ -8700,8 +9138,8 @@
       <c r="AV51" s="61"/>
       <c r="AW51" s="61"/>
       <c r="AX51" s="61"/>
-      <c r="AY51" s="61"/>
-      <c r="AZ51" s="61"/>
+      <c r="AY51" s="179"/>
+      <c r="AZ51" s="179"/>
       <c r="BA51" s="57"/>
       <c r="BB51" s="57"/>
       <c r="BC51" s="57"/>
@@ -8728,9 +9166,15 @@
       <c r="C52" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
+      <c r="D52" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="48">
+        <v>3</v>
+      </c>
+      <c r="F52" s="49">
+        <v>3</v>
+      </c>
       <c r="G52" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8738,15 +9182,19 @@
       <c r="H52" s="51">
         <v>5</v>
       </c>
-      <c r="I52" s="52"/>
-      <c r="J52" s="53"/>
+      <c r="I52" s="53">
+        <v>45015</v>
+      </c>
+      <c r="J52" s="53">
+        <v>45016</v>
+      </c>
       <c r="K52" s="54">
-        <f t="shared" si="13"/>
+        <f>J52-I52+1</f>
+        <v>2</v>
+      </c>
+      <c r="L52" s="55">
+        <f t="shared" si="14"/>
         <v>1</v>
-      </c>
-      <c r="L52" s="55" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M52" s="56"/>
       <c r="N52" s="57"/>
@@ -8796,8 +9244,8 @@
       <c r="BF52" s="119"/>
       <c r="BG52" s="120"/>
       <c r="BH52" s="120"/>
-      <c r="BI52" s="120"/>
-      <c r="BJ52" s="120"/>
+      <c r="BI52" s="180"/>
+      <c r="BJ52" s="180"/>
       <c r="BK52" s="56"/>
       <c r="BL52" s="57"/>
       <c r="BM52" s="57"/>
@@ -8814,9 +9262,15 @@
       <c r="C53" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="47"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
+      <c r="D53" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="48">
+        <v>2</v>
+      </c>
+      <c r="F53" s="49">
+        <v>2</v>
+      </c>
       <c r="G53" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8824,15 +9278,19 @@
       <c r="H53" s="51">
         <v>5</v>
       </c>
-      <c r="I53" s="52"/>
-      <c r="J53" s="53"/>
+      <c r="I53" s="53">
+        <v>45014</v>
+      </c>
+      <c r="J53" s="53">
+        <v>45015</v>
+      </c>
       <c r="K53" s="54">
         <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L53" s="55">
+        <f t="shared" si="14"/>
         <v>1</v>
-      </c>
-      <c r="L53" s="55" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M53" s="56"/>
       <c r="N53" s="57"/>
@@ -8881,8 +9339,8 @@
       <c r="BE53" s="59"/>
       <c r="BF53" s="119"/>
       <c r="BG53" s="120"/>
-      <c r="BH53" s="120"/>
-      <c r="BI53" s="120"/>
+      <c r="BH53" s="180"/>
+      <c r="BI53" s="180"/>
       <c r="BJ53" s="120"/>
       <c r="BK53" s="56"/>
       <c r="BL53" s="57"/>
@@ -8900,9 +9358,15 @@
       <c r="C54" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
+      <c r="D54" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="48">
+        <v>3</v>
+      </c>
+      <c r="F54" s="49">
+        <v>3</v>
+      </c>
       <c r="G54" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8910,15 +9374,19 @@
       <c r="H54" s="51">
         <v>5</v>
       </c>
-      <c r="I54" s="52"/>
-      <c r="J54" s="53"/>
+      <c r="I54" s="53">
+        <v>45015</v>
+      </c>
+      <c r="J54" s="53">
+        <v>45016</v>
+      </c>
       <c r="K54" s="54">
         <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L54" s="55">
+        <f t="shared" si="14"/>
         <v>1</v>
-      </c>
-      <c r="L54" s="55" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M54" s="56"/>
       <c r="N54" s="57"/>
@@ -8968,8 +9436,8 @@
       <c r="BF54" s="119"/>
       <c r="BG54" s="120"/>
       <c r="BH54" s="120"/>
-      <c r="BI54" s="120"/>
-      <c r="BJ54" s="120"/>
+      <c r="BI54" s="180"/>
+      <c r="BJ54" s="180"/>
       <c r="BK54" s="56"/>
       <c r="BL54" s="57"/>
       <c r="BM54" s="57"/>
@@ -8986,9 +9454,15 @@
       <c r="C55" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="49"/>
+      <c r="D55" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="48">
+        <v>10</v>
+      </c>
+      <c r="F55" s="49">
+        <v>10</v>
+      </c>
       <c r="G55" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8996,15 +9470,19 @@
       <c r="H55" s="51">
         <v>6</v>
       </c>
-      <c r="I55" s="52"/>
-      <c r="J55" s="53"/>
+      <c r="I55" s="52">
+        <v>45019</v>
+      </c>
+      <c r="J55" s="52">
+        <v>45021</v>
+      </c>
       <c r="K55" s="54">
         <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="L55" s="55">
+        <f t="shared" si="14"/>
         <v>1</v>
-      </c>
-      <c r="L55" s="55" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M55" s="56"/>
       <c r="N55" s="57"/>
@@ -9056,9 +9534,9 @@
       <c r="BH55" s="120"/>
       <c r="BI55" s="120"/>
       <c r="BJ55" s="120"/>
-      <c r="BK55" s="56"/>
-      <c r="BL55" s="57"/>
-      <c r="BM55" s="57"/>
+      <c r="BK55" s="181"/>
+      <c r="BL55" s="181"/>
+      <c r="BM55" s="181"/>
       <c r="BN55" s="57"/>
       <c r="BO55" s="57"/>
       <c r="BP55" s="122"/>
@@ -9068,7 +9546,7 @@
       <c r="BT55" s="123"/>
     </row>
     <row r="56" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="174">
+      <c r="B56" s="124">
         <v>5</v>
       </c>
       <c r="C56" s="32" t="s">
@@ -9077,15 +9555,15 @@
       <c r="D56" s="33"/>
       <c r="E56" s="34">
         <f>SUM(E57:E59)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F56" s="35">
         <f>SUM(F57:F59)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G56" s="36">
         <f>SUM(G57:G59)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H56" s="37">
         <v>6</v>
@@ -9093,9 +9571,9 @@
       <c r="I56" s="38"/>
       <c r="J56" s="39"/>
       <c r="K56" s="40"/>
-      <c r="L56" s="41" t="e">
+      <c r="L56" s="41">
         <f t="shared" ref="L56:L59" si="15">F56/E56</f>
-        <v>#DIV/0!</v>
+        <v>1.1363636363636365</v>
       </c>
       <c r="M56" s="42"/>
       <c r="N56" s="43"/>
@@ -9163,25 +9641,35 @@
       <c r="C57" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="47"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="49"/>
+      <c r="D57" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="48">
+        <v>10</v>
+      </c>
+      <c r="F57" s="49">
+        <v>13</v>
+      </c>
       <c r="G57" s="50">
         <f t="shared" ref="G57:G59" si="16">E57-F57</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H57" s="51">
         <v>6</v>
       </c>
-      <c r="I57" s="52"/>
-      <c r="J57" s="53"/>
+      <c r="I57" s="52">
+        <v>45022</v>
+      </c>
+      <c r="J57" s="125">
+        <v>45026</v>
+      </c>
       <c r="K57" s="54">
         <f t="shared" ref="K57:K59" si="17">J57-I57+1</f>
-        <v>1</v>
-      </c>
-      <c r="L57" s="55" t="e">
+        <v>5</v>
+      </c>
+      <c r="L57" s="55">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.3</v>
       </c>
       <c r="M57" s="56"/>
       <c r="N57" s="57"/>
@@ -9236,9 +9724,9 @@
       <c r="BK57" s="56"/>
       <c r="BL57" s="57"/>
       <c r="BM57" s="57"/>
-      <c r="BN57" s="57"/>
-      <c r="BO57" s="57"/>
-      <c r="BP57" s="122"/>
+      <c r="BN57" s="181"/>
+      <c r="BO57" s="181"/>
+      <c r="BP57" s="181"/>
       <c r="BQ57" s="122"/>
       <c r="BR57" s="122"/>
       <c r="BS57" s="122"/>
@@ -9249,9 +9737,15 @@
       <c r="C58" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="49"/>
+      <c r="D58" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="48">
+        <v>7</v>
+      </c>
+      <c r="F58" s="49">
+        <v>7</v>
+      </c>
       <c r="G58" s="50">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -9259,15 +9753,19 @@
       <c r="H58" s="51">
         <v>6</v>
       </c>
-      <c r="I58" s="52"/>
-      <c r="J58" s="53"/>
+      <c r="I58" s="125">
+        <v>45027</v>
+      </c>
+      <c r="J58" s="125">
+        <v>45028</v>
+      </c>
       <c r="K58" s="54">
         <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="L58" s="55">
+        <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="L58" s="55" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M58" s="56"/>
       <c r="N58" s="57"/>
@@ -9325,8 +9823,8 @@
       <c r="BN58" s="57"/>
       <c r="BO58" s="57"/>
       <c r="BP58" s="122"/>
-      <c r="BQ58" s="122"/>
-      <c r="BR58" s="122"/>
+      <c r="BQ58" s="181"/>
+      <c r="BR58" s="181"/>
       <c r="BS58" s="122"/>
       <c r="BT58" s="123"/>
     </row>
@@ -9335,9 +9833,15 @@
       <c r="C59" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D59" s="47"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="49"/>
+      <c r="D59" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="48">
+        <v>5</v>
+      </c>
+      <c r="F59" s="49">
+        <v>5</v>
+      </c>
       <c r="G59" s="50">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -9345,15 +9849,19 @@
       <c r="H59" s="51">
         <v>6</v>
       </c>
-      <c r="I59" s="52"/>
-      <c r="J59" s="53"/>
+      <c r="I59" s="125">
+        <v>45029</v>
+      </c>
+      <c r="J59" s="125">
+        <v>45030</v>
+      </c>
       <c r="K59" s="54">
         <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="L59" s="55">
+        <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="L59" s="55" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M59" s="56"/>
       <c r="N59" s="57"/>
@@ -9413,8 +9921,8 @@
       <c r="BP59" s="122"/>
       <c r="BQ59" s="122"/>
       <c r="BR59" s="122"/>
-      <c r="BS59" s="122"/>
-      <c r="BT59" s="123"/>
+      <c r="BS59" s="181"/>
+      <c r="BT59" s="181"/>
     </row>
     <row r="60" spans="2:74" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E60" s="67" t="s">
@@ -9442,22 +9950,22 @@
       </c>
       <c r="E61" s="69">
         <f>SUM(E12:E17,E19:E22,E25:E30,E39:E59)</f>
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="F61" s="69">
         <f>SUM(F12:F17,F19:F22,F25:F30,F39:F59)</f>
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="G61" s="69">
         <f>SUM(G12:G17,G19:G22,G25:G30,G39:G59)</f>
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="H61" s="69">
         <v>60</v>
       </c>
       <c r="I61" s="69">
         <f>E61/H61</f>
-        <v>1.0833333333333333</v>
+        <v>3.35</v>
       </c>
       <c r="L61" s="70" t="s">
         <v>41</v>
@@ -9655,243 +10163,243 @@
       </c>
       <c r="M62" s="73">
         <f>E61</f>
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="N62" s="74">
         <f>M62-I61</f>
-        <v>63.916666666666664</v>
+        <v>197.65</v>
       </c>
       <c r="O62" s="74">
         <f>N62-I61</f>
-        <v>62.833333333333329</v>
+        <v>194.3</v>
       </c>
       <c r="P62" s="74">
         <f>O62-I61</f>
-        <v>61.749999999999993</v>
+        <v>190.95000000000002</v>
       </c>
       <c r="Q62" s="74">
         <f>P62-I61</f>
-        <v>60.666666666666657</v>
+        <v>187.60000000000002</v>
       </c>
       <c r="R62" s="74">
         <f>Q62-I61</f>
-        <v>59.583333333333321</v>
+        <v>184.25000000000003</v>
       </c>
       <c r="S62" s="74">
         <f>R62-I61</f>
-        <v>58.499999999999986</v>
+        <v>180.90000000000003</v>
       </c>
       <c r="T62" s="74">
         <f>S62-I61</f>
-        <v>57.41666666666665</v>
+        <v>177.55000000000004</v>
       </c>
       <c r="U62" s="74">
         <f>T62-I61</f>
-        <v>56.333333333333314</v>
+        <v>174.20000000000005</v>
       </c>
       <c r="V62" s="74">
         <f>U62-I61</f>
-        <v>55.249999999999979</v>
+        <v>170.85000000000005</v>
       </c>
       <c r="W62" s="74">
         <f>V62-I61</f>
-        <v>54.166666666666643</v>
+        <v>167.50000000000006</v>
       </c>
       <c r="X62" s="74">
         <f>W62-I61</f>
-        <v>53.083333333333307</v>
+        <v>164.15000000000006</v>
       </c>
       <c r="Y62" s="74">
         <f>X62-I61</f>
-        <v>51.999999999999972</v>
+        <v>160.80000000000007</v>
       </c>
       <c r="Z62" s="74">
         <f>Y62-I61</f>
-        <v>50.916666666666636</v>
+        <v>157.45000000000007</v>
       </c>
       <c r="AA62" s="74">
         <f>Z62-I61</f>
-        <v>49.8333333333333</v>
+        <v>154.10000000000008</v>
       </c>
       <c r="AB62" s="74">
         <f>AA62-I61</f>
-        <v>48.749999999999964</v>
+        <v>150.75000000000009</v>
       </c>
       <c r="AC62" s="74">
         <f>AB62-I61</f>
-        <v>47.666666666666629</v>
+        <v>147.40000000000009</v>
       </c>
       <c r="AD62" s="74">
         <f>AC62-I61</f>
-        <v>46.583333333333293</v>
+        <v>144.0500000000001</v>
       </c>
       <c r="AE62" s="74">
         <f>AD62-I61</f>
-        <v>45.499999999999957</v>
+        <v>140.7000000000001</v>
       </c>
       <c r="AF62" s="74">
         <f>AE62-I61</f>
-        <v>44.416666666666622</v>
+        <v>137.35000000000011</v>
       </c>
       <c r="AG62" s="74">
         <f>AF62-I61</f>
-        <v>43.333333333333286</v>
+        <v>134.00000000000011</v>
       </c>
       <c r="AH62" s="74">
         <f>AG62-I61</f>
-        <v>42.24999999999995</v>
+        <v>130.65000000000012</v>
       </c>
       <c r="AI62" s="74">
         <f>AH62-I61</f>
-        <v>41.166666666666615</v>
+        <v>127.30000000000013</v>
       </c>
       <c r="AJ62" s="74">
         <f>AI62-I61</f>
-        <v>40.083333333333279</v>
+        <v>123.95000000000013</v>
       </c>
       <c r="AK62" s="74">
         <f>AJ62-I61</f>
-        <v>38.999999999999943</v>
+        <v>120.60000000000014</v>
       </c>
       <c r="AL62" s="74">
         <f>AK62-I61</f>
-        <v>37.916666666666607</v>
+        <v>117.25000000000014</v>
       </c>
       <c r="AM62" s="74">
         <f>AL62-I61</f>
-        <v>36.833333333333272</v>
+        <v>113.90000000000015</v>
       </c>
       <c r="AN62" s="74">
         <f>AM62-I61</f>
-        <v>35.749999999999936</v>
+        <v>110.55000000000015</v>
       </c>
       <c r="AO62" s="74">
         <f>AN62-I61</f>
-        <v>34.6666666666666</v>
+        <v>107.20000000000016</v>
       </c>
       <c r="AP62" s="74">
         <f>AO62-I61</f>
-        <v>33.583333333333265</v>
+        <v>103.85000000000016</v>
       </c>
       <c r="AQ62" s="74">
         <f>AP62-I61</f>
-        <v>32.499999999999929</v>
+        <v>100.50000000000017</v>
       </c>
       <c r="AR62" s="74">
         <f>AQ62-I61</f>
-        <v>31.416666666666597</v>
+        <v>97.150000000000176</v>
       </c>
       <c r="AS62" s="74">
         <f>AR62-I61</f>
-        <v>30.333333333333265</v>
+        <v>93.800000000000182</v>
       </c>
       <c r="AT62" s="74">
         <f>AS62-I61</f>
-        <v>29.249999999999932</v>
+        <v>90.450000000000188</v>
       </c>
       <c r="AU62" s="74">
         <f>AT62-I61</f>
-        <v>28.1666666666666</v>
+        <v>87.100000000000193</v>
       </c>
       <c r="AV62" s="74">
         <f>AU62-I61</f>
-        <v>27.083333333333268</v>
+        <v>83.750000000000199</v>
       </c>
       <c r="AW62" s="74">
         <f>AV62-I61</f>
-        <v>25.999999999999936</v>
+        <v>80.400000000000205</v>
       </c>
       <c r="AX62" s="74">
         <f>AW62-I61</f>
-        <v>24.916666666666604</v>
+        <v>77.05000000000021</v>
       </c>
       <c r="AY62" s="74">
         <f>AX62-I61</f>
-        <v>23.833333333333272</v>
+        <v>73.700000000000216</v>
       </c>
       <c r="AZ62" s="74">
         <f>AY62-I61</f>
-        <v>22.74999999999994</v>
+        <v>70.350000000000222</v>
       </c>
       <c r="BA62" s="74">
         <f>AZ62-I61</f>
-        <v>21.666666666666607</v>
+        <v>67.000000000000227</v>
       </c>
       <c r="BB62" s="74">
         <f>BA62-I61</f>
-        <v>20.583333333333275</v>
+        <v>63.650000000000226</v>
       </c>
       <c r="BC62" s="74">
         <f>BB62-I61</f>
-        <v>19.499999999999943</v>
+        <v>60.300000000000225</v>
       </c>
       <c r="BD62" s="74">
         <f>BC62-I61</f>
-        <v>18.416666666666611</v>
+        <v>56.950000000000223</v>
       </c>
       <c r="BE62" s="74">
         <f>BD62-I61</f>
-        <v>17.333333333333279</v>
+        <v>53.600000000000222</v>
       </c>
       <c r="BF62" s="74">
         <f>BE62-I61</f>
-        <v>16.249999999999947</v>
+        <v>50.25000000000022</v>
       </c>
       <c r="BG62" s="74">
         <f>BF62-I61</f>
-        <v>15.166666666666613</v>
+        <v>46.900000000000219</v>
       </c>
       <c r="BH62" s="74">
         <f>BG62-I61</f>
-        <v>14.083333333333279</v>
+        <v>43.550000000000217</v>
       </c>
       <c r="BI62" s="74">
         <f>BH62-I61</f>
-        <v>12.999999999999945</v>
+        <v>40.200000000000216</v>
       </c>
       <c r="BJ62" s="74">
         <f>BI62-I61</f>
-        <v>11.916666666666611</v>
+        <v>36.850000000000215</v>
       </c>
       <c r="BK62" s="74">
         <f>BJ62-I61</f>
-        <v>10.833333333333277</v>
+        <v>33.500000000000213</v>
       </c>
       <c r="BL62" s="74">
         <f>BK62-I61</f>
-        <v>9.7499999999999432</v>
+        <v>30.150000000000212</v>
       </c>
       <c r="BM62" s="74">
         <f>BL62-I61</f>
-        <v>8.6666666666666092</v>
+        <v>26.80000000000021</v>
       </c>
       <c r="BN62" s="74">
         <f>BM62-I61</f>
-        <v>7.5833333333332762</v>
+        <v>23.450000000000209</v>
       </c>
       <c r="BO62" s="74">
         <f>BN62-I61</f>
-        <v>6.4999999999999432</v>
+        <v>20.100000000000207</v>
       </c>
       <c r="BP62" s="74">
         <f>BO62-I61</f>
-        <v>5.4166666666666101</v>
+        <v>16.750000000000206</v>
       </c>
       <c r="BQ62" s="74">
         <f>BP62-I61</f>
-        <v>4.3333333333332771</v>
+        <v>13.400000000000206</v>
       </c>
       <c r="BR62" s="74">
         <f>BQ62-I61</f>
-        <v>3.249999999999944</v>
+        <v>10.050000000000207</v>
       </c>
       <c r="BS62" s="74">
         <f>BR62-I61</f>
-        <v>2.166666666666611</v>
+        <v>6.7000000000002071</v>
       </c>
       <c r="BT62" s="74">
         <f>BS62-I61</f>
-        <v>1.0833333333332777</v>
+        <v>3.350000000000207</v>
       </c>
       <c r="BV62" s="69"/>
     </row>
@@ -9901,247 +10409,247 @@
       </c>
       <c r="M63" s="73">
         <f>E61</f>
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="N63" s="73">
         <f t="shared" ref="N63:BT63" si="18">M65</f>
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="O63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="P63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="Q63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="R63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="S63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="T63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="U63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="V63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="W63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="X63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="Y63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="Z63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="AA63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="AB63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="AC63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="AD63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="AE63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="AF63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="AG63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="AH63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="AI63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AK63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="AL63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="AM63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AN63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AO63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AP63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AR63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="AS63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AT63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="AU63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AV63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AW63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AX63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AY63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AZ63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="BA63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="BB63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="BC63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="BD63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="BE63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-2</v>
       </c>
       <c r="BF63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-6</v>
       </c>
       <c r="BG63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-9</v>
       </c>
       <c r="BH63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-11</v>
       </c>
       <c r="BI63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-14</v>
       </c>
       <c r="BJ63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-20</v>
       </c>
       <c r="BK63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-23</v>
       </c>
       <c r="BL63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-26</v>
       </c>
       <c r="BM63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-30</v>
       </c>
       <c r="BN63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-33</v>
       </c>
       <c r="BO63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-38</v>
       </c>
       <c r="BP63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-42</v>
       </c>
       <c r="BQ63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-46</v>
       </c>
       <c r="BR63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-50</v>
       </c>
       <c r="BS63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-53</v>
       </c>
       <c r="BT63" s="73">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>-55</v>
       </c>
       <c r="BV63" s="69">
         <f t="shared" ref="BV63:BV65" si="19">SUM(M63:BT63)</f>
-        <v>3900</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="64" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10151,69 +10659,189 @@
       <c r="L64" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="49"/>
-      <c r="U64" s="49"/>
-      <c r="V64" s="49"/>
-      <c r="W64" s="49"/>
-      <c r="X64" s="49"/>
-      <c r="Y64" s="49"/>
-      <c r="Z64" s="49"/>
-      <c r="AA64" s="49"/>
-      <c r="AB64" s="49"/>
-      <c r="AC64" s="49"/>
-      <c r="AD64" s="49"/>
-      <c r="AE64" s="49"/>
-      <c r="AF64" s="49"/>
-      <c r="AG64" s="49"/>
-      <c r="AH64" s="49"/>
-      <c r="AI64" s="49"/>
-      <c r="AJ64" s="49"/>
-      <c r="AK64" s="49"/>
-      <c r="AL64" s="49"/>
-      <c r="AM64" s="49"/>
-      <c r="AN64" s="49"/>
-      <c r="AO64" s="49"/>
-      <c r="AP64" s="49"/>
-      <c r="AQ64" s="49"/>
-      <c r="AR64" s="49"/>
-      <c r="AS64" s="49"/>
-      <c r="AT64" s="49"/>
-      <c r="AU64" s="49"/>
-      <c r="AV64" s="49"/>
-      <c r="AW64" s="49"/>
-      <c r="AX64" s="49"/>
-      <c r="AY64" s="49"/>
-      <c r="AZ64" s="49"/>
-      <c r="BA64" s="49"/>
-      <c r="BB64" s="49"/>
-      <c r="BC64" s="49"/>
-      <c r="BD64" s="49"/>
-      <c r="BE64" s="49"/>
-      <c r="BF64" s="49"/>
-      <c r="BG64" s="49"/>
-      <c r="BH64" s="49"/>
-      <c r="BI64" s="49"/>
-      <c r="BJ64" s="49"/>
-      <c r="BK64" s="49"/>
-      <c r="BL64" s="49"/>
-      <c r="BM64" s="49"/>
-      <c r="BN64" s="49"/>
-      <c r="BO64" s="49"/>
-      <c r="BP64" s="49"/>
-      <c r="BQ64" s="49"/>
-      <c r="BR64" s="49"/>
-      <c r="BS64" s="49"/>
-      <c r="BT64" s="49"/>
+      <c r="M64" s="49">
+        <v>3</v>
+      </c>
+      <c r="N64" s="49">
+        <v>3</v>
+      </c>
+      <c r="O64" s="49">
+        <v>6</v>
+      </c>
+      <c r="P64" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q64" s="49">
+        <v>7</v>
+      </c>
+      <c r="R64" s="49">
+        <v>8</v>
+      </c>
+      <c r="S64" s="49">
+        <v>8</v>
+      </c>
+      <c r="T64" s="49">
+        <v>3</v>
+      </c>
+      <c r="U64" s="49">
+        <v>2</v>
+      </c>
+      <c r="V64" s="49">
+        <v>0</v>
+      </c>
+      <c r="W64" s="49">
+        <v>3</v>
+      </c>
+      <c r="X64" s="49">
+        <v>3</v>
+      </c>
+      <c r="Y64" s="49">
+        <v>3</v>
+      </c>
+      <c r="Z64" s="49">
+        <v>4</v>
+      </c>
+      <c r="AA64" s="49">
+        <v>6</v>
+      </c>
+      <c r="AB64" s="49">
+        <v>2</v>
+      </c>
+      <c r="AC64" s="49">
+        <v>4</v>
+      </c>
+      <c r="AD64" s="49">
+        <v>5</v>
+      </c>
+      <c r="AE64" s="49">
+        <v>7</v>
+      </c>
+      <c r="AF64" s="49">
+        <v>8</v>
+      </c>
+      <c r="AG64" s="49">
+        <v>3</v>
+      </c>
+      <c r="AH64" s="49">
+        <v>4</v>
+      </c>
+      <c r="AI64" s="49">
+        <v>3</v>
+      </c>
+      <c r="AJ64" s="49">
+        <v>4</v>
+      </c>
+      <c r="AK64" s="49">
+        <v>3</v>
+      </c>
+      <c r="AL64" s="49">
+        <v>4</v>
+      </c>
+      <c r="AM64" s="49">
+        <v>8</v>
+      </c>
+      <c r="AN64" s="49">
+        <v>7</v>
+      </c>
+      <c r="AO64" s="49">
+        <v>8</v>
+      </c>
+      <c r="AP64" s="49">
+        <v>8</v>
+      </c>
+      <c r="AQ64" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR64" s="49">
+        <v>3</v>
+      </c>
+      <c r="AS64" s="49">
+        <v>4</v>
+      </c>
+      <c r="AT64" s="49">
+        <v>3</v>
+      </c>
+      <c r="AU64" s="49">
+        <v>4</v>
+      </c>
+      <c r="AV64" s="49">
+        <v>4</v>
+      </c>
+      <c r="AW64" s="49">
+        <v>8</v>
+      </c>
+      <c r="AX64" s="49">
+        <v>7</v>
+      </c>
+      <c r="AY64" s="49">
+        <v>5</v>
+      </c>
+      <c r="AZ64" s="49">
+        <v>6</v>
+      </c>
+      <c r="BA64" s="49">
+        <v>3</v>
+      </c>
+      <c r="BB64" s="49">
+        <v>4</v>
+      </c>
+      <c r="BC64" s="49">
+        <v>3</v>
+      </c>
+      <c r="BD64" s="49">
+        <v>4</v>
+      </c>
+      <c r="BE64" s="49">
+        <v>4</v>
+      </c>
+      <c r="BF64" s="49">
+        <v>3</v>
+      </c>
+      <c r="BG64" s="49">
+        <v>2</v>
+      </c>
+      <c r="BH64" s="49">
+        <v>3</v>
+      </c>
+      <c r="BI64" s="49">
+        <v>6</v>
+      </c>
+      <c r="BJ64" s="49">
+        <v>3</v>
+      </c>
+      <c r="BK64" s="49">
+        <v>3</v>
+      </c>
+      <c r="BL64" s="49">
+        <v>4</v>
+      </c>
+      <c r="BM64" s="49">
+        <v>3</v>
+      </c>
+      <c r="BN64" s="49">
+        <v>5</v>
+      </c>
+      <c r="BO64" s="49">
+        <v>4</v>
+      </c>
+      <c r="BP64" s="49">
+        <v>4</v>
+      </c>
+      <c r="BQ64" s="49">
+        <v>4</v>
+      </c>
+      <c r="BR64" s="49">
+        <v>3</v>
+      </c>
+      <c r="BS64" s="49">
+        <v>2</v>
+      </c>
+      <c r="BT64" s="49">
+        <v>3</v>
+      </c>
       <c r="BV64" s="69">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10222,305 +10850,305 @@
       </c>
       <c r="M65" s="73">
         <f t="shared" ref="M65:BT65" si="20">M63-M64</f>
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="N65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="O65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="P65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="Q65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="R65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="S65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="T65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="U65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="V65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="W65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="X65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="Y65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="Z65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="AA65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="AB65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="AC65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="AD65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="AE65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="AF65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="AG65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="AH65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AI65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="AK65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="AL65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AM65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AN65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AO65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AP65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AQ65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="AR65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AS65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="AT65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AU65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AV65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AW65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AX65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AY65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="AZ65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="BA65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="BB65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="BC65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="BD65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-2</v>
       </c>
       <c r="BE65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-6</v>
       </c>
       <c r="BF65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-9</v>
       </c>
       <c r="BG65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-11</v>
       </c>
       <c r="BH65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-14</v>
       </c>
       <c r="BI65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-20</v>
       </c>
       <c r="BJ65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-23</v>
       </c>
       <c r="BK65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-26</v>
       </c>
       <c r="BL65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-30</v>
       </c>
       <c r="BM65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-33</v>
       </c>
       <c r="BN65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-38</v>
       </c>
       <c r="BO65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-42</v>
       </c>
       <c r="BP65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-46</v>
       </c>
       <c r="BQ65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-50</v>
       </c>
       <c r="BR65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-53</v>
       </c>
       <c r="BS65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-55</v>
       </c>
       <c r="BT65" s="73">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>-58</v>
       </c>
       <c r="BV65" s="69">
         <f t="shared" si="19"/>
-        <v>3900</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="66" spans="3:74" ht="381.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="3:74" ht="223.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="3:74" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E69" s="124" t="s">
+      <c r="E69" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="125"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="125"/>
-      <c r="J69" s="125"/>
-      <c r="K69" s="125"/>
-      <c r="L69" s="125"/>
-      <c r="M69" s="125"/>
-      <c r="N69" s="125"/>
-      <c r="O69" s="125"/>
-      <c r="P69" s="125"/>
-      <c r="Q69" s="125"/>
-      <c r="R69" s="125"/>
-      <c r="S69" s="125"/>
-      <c r="T69" s="125"/>
-      <c r="U69" s="125"/>
-      <c r="V69" s="125"/>
-      <c r="W69" s="125"/>
-      <c r="X69" s="125"/>
-      <c r="Y69" s="125"/>
-      <c r="Z69" s="125"/>
-      <c r="AA69" s="125"/>
-      <c r="AB69" s="125"/>
-      <c r="AC69" s="125"/>
-      <c r="AD69" s="125"/>
-      <c r="AE69" s="125"/>
-      <c r="AF69" s="125"/>
-      <c r="AG69" s="125"/>
-      <c r="AH69" s="125"/>
-      <c r="AI69" s="125"/>
-      <c r="AJ69" s="125"/>
-      <c r="AK69" s="125"/>
-      <c r="AL69" s="125"/>
-      <c r="AM69" s="125"/>
-      <c r="AN69" s="125"/>
-      <c r="AO69" s="125"/>
-      <c r="AP69" s="125"/>
-      <c r="AQ69" s="125"/>
-      <c r="AR69" s="125"/>
-      <c r="AS69" s="125"/>
-      <c r="AT69" s="125"/>
-      <c r="AU69" s="125"/>
-      <c r="AV69" s="125"/>
-      <c r="AW69" s="125"/>
-      <c r="AX69" s="125"/>
-      <c r="AY69" s="125"/>
-      <c r="AZ69" s="125"/>
-      <c r="BA69" s="125"/>
-      <c r="BB69" s="126"/>
+      <c r="F69" s="145"/>
+      <c r="G69" s="145"/>
+      <c r="H69" s="145"/>
+      <c r="I69" s="145"/>
+      <c r="J69" s="145"/>
+      <c r="K69" s="145"/>
+      <c r="L69" s="145"/>
+      <c r="M69" s="145"/>
+      <c r="N69" s="145"/>
+      <c r="O69" s="145"/>
+      <c r="P69" s="145"/>
+      <c r="Q69" s="145"/>
+      <c r="R69" s="145"/>
+      <c r="S69" s="145"/>
+      <c r="T69" s="145"/>
+      <c r="U69" s="145"/>
+      <c r="V69" s="145"/>
+      <c r="W69" s="145"/>
+      <c r="X69" s="145"/>
+      <c r="Y69" s="145"/>
+      <c r="Z69" s="145"/>
+      <c r="AA69" s="145"/>
+      <c r="AB69" s="145"/>
+      <c r="AC69" s="145"/>
+      <c r="AD69" s="145"/>
+      <c r="AE69" s="145"/>
+      <c r="AF69" s="145"/>
+      <c r="AG69" s="145"/>
+      <c r="AH69" s="145"/>
+      <c r="AI69" s="145"/>
+      <c r="AJ69" s="145"/>
+      <c r="AK69" s="145"/>
+      <c r="AL69" s="145"/>
+      <c r="AM69" s="145"/>
+      <c r="AN69" s="145"/>
+      <c r="AO69" s="145"/>
+      <c r="AP69" s="145"/>
+      <c r="AQ69" s="145"/>
+      <c r="AR69" s="145"/>
+      <c r="AS69" s="145"/>
+      <c r="AT69" s="145"/>
+      <c r="AU69" s="145"/>
+      <c r="AV69" s="145"/>
+      <c r="AW69" s="145"/>
+      <c r="AX69" s="145"/>
+      <c r="AY69" s="145"/>
+      <c r="AZ69" s="145"/>
+      <c r="BA69" s="145"/>
+      <c r="BB69" s="146"/>
     </row>
     <row r="70" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11483,13 +12111,6 @@
     <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
     <mergeCell ref="E69:BB69"/>
     <mergeCell ref="BF9:BJ9"/>
     <mergeCell ref="BK9:BO9"/>
@@ -11506,6 +12127,13 @@
     <mergeCell ref="AQ9:AU9"/>
     <mergeCell ref="AV9:AZ9"/>
     <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11520,7 +12148,9 @@
   </sheetPr>
   <dimension ref="B1:N1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13039,27 +13669,29 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <conditionalFormatting sqref="H4:H40">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFAFCAC4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I4:I40">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>$L$6</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I40">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>$L$5</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I40">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I40">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH(("Not Started"),(I4))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I40">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="$L$4"/>
@@ -13071,12 +13703,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L6">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH(("In Progress"),(L4))))</formula>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L6">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH(("In Progress"),(L4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="formula" val="$L$5"/>
@@ -13089,27 +13724,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>$L$6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N11">
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFAFCAC4"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H40">
-    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/Documentation/Scrum-Project-Management.xlsx
+++ b/Documentation/Scrum-Project-Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroficorella/Developer/GitHub/LABAP/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6793130C-51D8-D941-A43A-99FF714BA662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4012FEB0-CA99-A849-A641-142E50059F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="210">
   <si>
     <t>SCRUM PROJECT MANAGEMENT GANTT CHART</t>
   </si>
@@ -178,9 +178,6 @@
     <t>HRS REMAINING</t>
   </si>
   <si>
-    <t>CLICK HERE TO CREATE SCRUM PROJECT MANAGEMENT GANTT CHART TEMPLATES IN SMARTSHEET</t>
-  </si>
-  <si>
     <t>RELEASE BACKLOG</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>NOTES</t>
-  </si>
-  <si>
     <t>STATUS KEY</t>
   </si>
   <si>
@@ -524,13 +518,160 @@
   </si>
   <si>
     <t>Sisti, Turbessi</t>
+  </si>
+  <si>
+    <t>Subscribe and Login to the system</t>
+  </si>
+  <si>
+    <t>Delete account</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Delete account from the system</t>
+  </si>
+  <si>
+    <t>Discover new images</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Discover popular images</t>
+  </si>
+  <si>
+    <t>Upload and remove image</t>
+  </si>
+  <si>
+    <t>Save and like an image</t>
+  </si>
+  <si>
+    <t>Upload an image into the system</t>
+  </si>
+  <si>
+    <t>Remove an image from the system</t>
+  </si>
+  <si>
+    <t>Save an image in user profile</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Get likes notification</t>
+  </si>
+  <si>
+    <t>Get comments notification</t>
+  </si>
+  <si>
+    <t>Get follows notification</t>
+  </si>
+  <si>
+    <t>Follow users</t>
+  </si>
+  <si>
+    <t>Follow new users</t>
+  </si>
+  <si>
+    <t>Visualize published images</t>
+  </si>
+  <si>
+    <t>Visualize saved images</t>
+  </si>
+  <si>
+    <t>Access other users' profile</t>
+  </si>
+  <si>
+    <t>Visualize details</t>
+  </si>
+  <si>
+    <t>Access profile settings</t>
+  </si>
+  <si>
+    <t>Manage profile</t>
+  </si>
+  <si>
+    <t>Visualize images' details and comments</t>
+  </si>
+  <si>
+    <t>As a guest i want to register to the system so that i can create my profile</t>
+  </si>
+  <si>
+    <t>As a non-logged registered user i want to login into the system so that i can use system's services</t>
+  </si>
+  <si>
+    <t>As a logged user i want to logout from the system so that i can login as another user</t>
+  </si>
+  <si>
+    <t>As a logged user i want to delete my profile so that i can no longer access the system</t>
+  </si>
+  <si>
+    <t>As a logged user i want to access the homepage so that i can discover the most popular images</t>
+  </si>
+  <si>
+    <t>As a logged user i want to access the homepage so that i can discover images published by followed users</t>
+  </si>
+  <si>
+    <t>As a logged user i want to search for images so that i can visualize them</t>
+  </si>
+  <si>
+    <t>As a logged user i want to search for other users so that i can visualize their profile and their images</t>
+  </si>
+  <si>
+    <t>As a logged user i want to upload an image so that i can share it with other users</t>
+  </si>
+  <si>
+    <t>As a logged user i want to remove an uploaded image so that i can deny to other users to visualize it</t>
+  </si>
+  <si>
+    <t>As a logged user i want to save an image so that i can visualize it later on</t>
+  </si>
+  <si>
+    <t>As a logged user i want to like an image so that i can express my appreciation about it</t>
+  </si>
+  <si>
+    <t>As a logged user i want to get notified about new likes so that i can know if another user liked one of my images</t>
+  </si>
+  <si>
+    <t>As a logged user i want to get notified about new comments so that i can know if another user commented on one of my images</t>
+  </si>
+  <si>
+    <t>As a logged user i want to get notified about new followers so that i can know if another user followed me</t>
+  </si>
+  <si>
+    <t>As a logged user i want to follow another user so that i can stay updated about his new images</t>
+  </si>
+  <si>
+    <t>As a logged user i want to access my profile so that i can visualize all my published images</t>
+  </si>
+  <si>
+    <t>As a logged user i want to access my profile so that i can visualize all my saved images</t>
+  </si>
+  <si>
+    <t>As a logged user i want to access my profile so that i can visualize all my followers and following users</t>
+  </si>
+  <si>
+    <t>As a logged user i want to access another user's profile so that i can visualize his details</t>
+  </si>
+  <si>
+    <t>As a logged user i want to access another user's profile so that i can visualize all his published images</t>
+  </si>
+  <si>
+    <t>As a logged user i want to access another user's profile so that i can visualize all his followers and following users</t>
+  </si>
+  <si>
+    <t>As a logged user i want to access my profile settings so that i can manage my profile</t>
+  </si>
+  <si>
+    <t>As a logged user i want to visualize an image so that i can visualize its details and comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -642,13 +783,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF7B3C16"/>
       <name val="Arial"/>
@@ -667,7 +801,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="52">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,12 +854,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF558BB7"/>
         <bgColor rgb="FF558BB7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB85B22"/>
-        <bgColor rgb="FFB85B22"/>
       </patternFill>
     </fill>
     <fill>
@@ -1640,27 +1768,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFA5A5A5"/>
       </left>
@@ -1821,11 +1928,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1877,6 +2021,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1895,13 +2045,7 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="15" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="14" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1937,7 +2081,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="15" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1952,7 +2096,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1964,7 +2108,7 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="15" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="14" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1972,10 +2116,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2021,22 +2165,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2048,96 +2192,148 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="17" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="16" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="18" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="17" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="19" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="18" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="15" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="40" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="43" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="44" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="9" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="48" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="49" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2168,72 +2364,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="48" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="49" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="50" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="51" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -4373,10 +4512,10 @@
     <tabColor rgb="FF7B3C16"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:BV1025"/>
+  <dimension ref="B1:BV1024"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BL70" sqref="BL70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AA75" sqref="AA75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4489,7 +4628,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="128" t="s">
+      <c r="K3" s="160" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -4566,15 +4705,15 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="129"/>
+      <c r="K4" s="161"/>
       <c r="L4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="103"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
@@ -4641,15 +4780,15 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="129"/>
+      <c r="K5" s="161"/>
       <c r="L5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
@@ -4716,15 +4855,15 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="129"/>
+      <c r="K6" s="161"/>
       <c r="L6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="104"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="101"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
@@ -4791,15 +4930,15 @@
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="129"/>
+      <c r="K7" s="161"/>
       <c r="L7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="104"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="101"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
@@ -4825,16 +4964,16 @@
       <c r="AN7" s="11"/>
       <c r="AO7" s="11"/>
       <c r="AP7" s="11"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="106"/>
-      <c r="AS7" s="106"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="106"/>
-      <c r="AV7" s="106"/>
-      <c r="AW7" s="106"/>
-      <c r="AX7" s="106"/>
-      <c r="AY7" s="106"/>
-      <c r="AZ7" s="106"/>
+      <c r="AQ7" s="103"/>
+      <c r="AR7" s="103"/>
+      <c r="AS7" s="103"/>
+      <c r="AT7" s="103"/>
+      <c r="AU7" s="103"/>
+      <c r="AV7" s="103"/>
+      <c r="AW7" s="103"/>
+      <c r="AX7" s="103"/>
+      <c r="AY7" s="103"/>
+      <c r="AZ7" s="103"/>
       <c r="BA7" s="19"/>
       <c r="BB7" s="19"/>
       <c r="BC7" s="19"/>
@@ -4866,15 +5005,15 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="108" t="s">
+      <c r="K8" s="162"/>
+      <c r="L8" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="107"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="104"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
@@ -4910,146 +5049,146 @@
       <c r="AX8" s="11"/>
       <c r="AY8" s="11"/>
       <c r="AZ8" s="11"/>
-      <c r="BA8" s="107"/>
-      <c r="BB8" s="107"/>
-      <c r="BC8" s="107"/>
-      <c r="BD8" s="107"/>
-      <c r="BE8" s="107"/>
-      <c r="BF8" s="107"/>
-      <c r="BG8" s="107"/>
-      <c r="BH8" s="107"/>
-      <c r="BI8" s="107"/>
-      <c r="BJ8" s="107"/>
-      <c r="BK8" s="109"/>
-      <c r="BL8" s="109"/>
-      <c r="BM8" s="109"/>
-      <c r="BN8" s="109"/>
-      <c r="BO8" s="109"/>
-      <c r="BP8" s="109"/>
-      <c r="BQ8" s="109"/>
-      <c r="BR8" s="109"/>
-      <c r="BS8" s="109"/>
-      <c r="BT8" s="110"/>
+      <c r="BA8" s="104"/>
+      <c r="BB8" s="104"/>
+      <c r="BC8" s="104"/>
+      <c r="BD8" s="104"/>
+      <c r="BE8" s="104"/>
+      <c r="BF8" s="104"/>
+      <c r="BG8" s="104"/>
+      <c r="BH8" s="104"/>
+      <c r="BI8" s="104"/>
+      <c r="BJ8" s="104"/>
+      <c r="BK8" s="106"/>
+      <c r="BL8" s="106"/>
+      <c r="BM8" s="106"/>
+      <c r="BN8" s="106"/>
+      <c r="BO8" s="106"/>
+      <c r="BP8" s="106"/>
+      <c r="BQ8" s="106"/>
+      <c r="BR8" s="106"/>
+      <c r="BS8" s="106"/>
+      <c r="BT8" s="107"/>
     </row>
     <row r="9" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="138"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140" t="s">
+      <c r="F9" s="170"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="142" t="s">
+      <c r="I9" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="154" t="s">
+      <c r="J9" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="156" t="s">
+      <c r="K9" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="157" t="s">
+      <c r="L9" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="159" t="s">
+      <c r="M9" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="160"/>
-      <c r="O9" s="160"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="162" t="s">
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="161"/>
-      <c r="W9" s="163" t="s">
+      <c r="S9" s="142"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="142"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="164"/>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="164"/>
-      <c r="AA9" s="165"/>
-      <c r="AB9" s="166" t="s">
+      <c r="X9" s="146"/>
+      <c r="Y9" s="146"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="147"/>
+      <c r="AB9" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="AC9" s="164"/>
-      <c r="AD9" s="164"/>
-      <c r="AE9" s="164"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="168" t="s">
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="146"/>
+      <c r="AE9" s="146"/>
+      <c r="AF9" s="149"/>
+      <c r="AG9" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="AH9" s="169"/>
-      <c r="AI9" s="169"/>
-      <c r="AJ9" s="169"/>
-      <c r="AK9" s="170"/>
-      <c r="AL9" s="168" t="s">
+      <c r="AH9" s="151"/>
+      <c r="AI9" s="151"/>
+      <c r="AJ9" s="151"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="AM9" s="169"/>
-      <c r="AN9" s="169"/>
-      <c r="AO9" s="169"/>
-      <c r="AP9" s="171"/>
-      <c r="AQ9" s="172" t="s">
+      <c r="AM9" s="151"/>
+      <c r="AN9" s="151"/>
+      <c r="AO9" s="151"/>
+      <c r="AP9" s="153"/>
+      <c r="AQ9" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="AR9" s="173"/>
-      <c r="AS9" s="173"/>
-      <c r="AT9" s="173"/>
-      <c r="AU9" s="174"/>
-      <c r="AV9" s="175" t="s">
+      <c r="AR9" s="155"/>
+      <c r="AS9" s="155"/>
+      <c r="AT9" s="155"/>
+      <c r="AU9" s="156"/>
+      <c r="AV9" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="AW9" s="173"/>
-      <c r="AX9" s="173"/>
-      <c r="AY9" s="173"/>
-      <c r="AZ9" s="174"/>
-      <c r="BA9" s="176" t="s">
+      <c r="AW9" s="155"/>
+      <c r="AX9" s="155"/>
+      <c r="AY9" s="155"/>
+      <c r="AZ9" s="156"/>
+      <c r="BA9" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="BB9" s="148"/>
-      <c r="BC9" s="148"/>
-      <c r="BD9" s="148"/>
-      <c r="BE9" s="177"/>
-      <c r="BF9" s="147" t="s">
+      <c r="BB9" s="130"/>
+      <c r="BC9" s="130"/>
+      <c r="BD9" s="130"/>
+      <c r="BE9" s="159"/>
+      <c r="BF9" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="BG9" s="148"/>
-      <c r="BH9" s="148"/>
-      <c r="BI9" s="148"/>
-      <c r="BJ9" s="149"/>
-      <c r="BK9" s="150" t="s">
+      <c r="BG9" s="130"/>
+      <c r="BH9" s="130"/>
+      <c r="BI9" s="130"/>
+      <c r="BJ9" s="131"/>
+      <c r="BK9" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="BL9" s="151"/>
-      <c r="BM9" s="151"/>
-      <c r="BN9" s="151"/>
-      <c r="BO9" s="152"/>
-      <c r="BP9" s="150" t="s">
+      <c r="BL9" s="133"/>
+      <c r="BM9" s="133"/>
+      <c r="BN9" s="133"/>
+      <c r="BO9" s="134"/>
+      <c r="BP9" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="BQ9" s="151"/>
-      <c r="BR9" s="151"/>
-      <c r="BS9" s="151"/>
-      <c r="BT9" s="153"/>
+      <c r="BQ9" s="133"/>
+      <c r="BR9" s="133"/>
+      <c r="BS9" s="133"/>
+      <c r="BT9" s="135"/>
     </row>
     <row r="10" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="132"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="136"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="168"/>
       <c r="E10" s="20" t="s">
         <v>29</v>
       </c>
@@ -5059,11 +5198,11 @@
       <c r="G10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="141"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="158"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="140"/>
       <c r="M10" s="23" t="s">
         <v>32</v>
       </c>
@@ -5184,64 +5323,64 @@
       <c r="AZ10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="BA10" s="111" t="s">
+      <c r="BA10" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="BB10" s="111" t="s">
+      <c r="BB10" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="BC10" s="111" t="s">
+      <c r="BC10" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="BD10" s="111" t="s">
+      <c r="BD10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="BE10" s="112" t="s">
+      <c r="BE10" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="BF10" s="113" t="s">
+      <c r="BF10" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="BG10" s="114" t="s">
+      <c r="BG10" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="BH10" s="114" t="s">
+      <c r="BH10" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="BI10" s="114" t="s">
+      <c r="BI10" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="BJ10" s="114" t="s">
+      <c r="BJ10" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="BK10" s="115" t="s">
+      <c r="BK10" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="BL10" s="115" t="s">
+      <c r="BL10" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="BM10" s="115" t="s">
+      <c r="BM10" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="BN10" s="115" t="s">
+      <c r="BN10" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="BO10" s="115" t="s">
+      <c r="BO10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="BP10" s="115" t="s">
+      <c r="BP10" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="BQ10" s="115" t="s">
+      <c r="BQ10" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="BR10" s="115" t="s">
+      <c r="BR10" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="BS10" s="115" t="s">
+      <c r="BS10" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="BT10" s="116" t="s">
+      <c r="BT10" s="113" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5250,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="34">
@@ -5339,10 +5478,10 @@
     <row r="12" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="45"/>
       <c r="C12" s="46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" s="48">
         <v>6</v>
@@ -5396,11 +5535,11 @@
       <c r="AI12" s="57"/>
       <c r="AJ12" s="57"/>
       <c r="AK12" s="57"/>
-      <c r="AL12" s="118"/>
-      <c r="AM12" s="118"/>
-      <c r="AN12" s="118"/>
-      <c r="AO12" s="118"/>
-      <c r="AP12" s="118"/>
+      <c r="AL12" s="115"/>
+      <c r="AM12" s="115"/>
+      <c r="AN12" s="115"/>
+      <c r="AO12" s="115"/>
+      <c r="AP12" s="115"/>
       <c r="AQ12" s="56"/>
       <c r="AR12" s="57"/>
       <c r="AS12" s="57"/>
@@ -5416,29 +5555,29 @@
       <c r="BC12" s="57"/>
       <c r="BD12" s="57"/>
       <c r="BE12" s="59"/>
-      <c r="BF12" s="119"/>
-      <c r="BG12" s="120"/>
-      <c r="BH12" s="120"/>
-      <c r="BI12" s="120"/>
-      <c r="BJ12" s="120"/>
+      <c r="BF12" s="116"/>
+      <c r="BG12" s="117"/>
+      <c r="BH12" s="117"/>
+      <c r="BI12" s="117"/>
+      <c r="BJ12" s="117"/>
       <c r="BK12" s="56"/>
       <c r="BL12" s="57"/>
       <c r="BM12" s="57"/>
       <c r="BN12" s="57"/>
       <c r="BO12" s="57"/>
-      <c r="BP12" s="122"/>
-      <c r="BQ12" s="122"/>
-      <c r="BR12" s="122"/>
-      <c r="BS12" s="122"/>
-      <c r="BT12" s="123"/>
+      <c r="BP12" s="119"/>
+      <c r="BQ12" s="119"/>
+      <c r="BR12" s="119"/>
+      <c r="BS12" s="119"/>
+      <c r="BT12" s="120"/>
     </row>
     <row r="13" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="45"/>
       <c r="C13" s="46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13" s="48">
         <v>6</v>
@@ -5492,11 +5631,11 @@
       <c r="AI13" s="57"/>
       <c r="AJ13" s="57"/>
       <c r="AK13" s="57"/>
-      <c r="AL13" s="118"/>
-      <c r="AM13" s="118"/>
-      <c r="AN13" s="118"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="118"/>
+      <c r="AL13" s="115"/>
+      <c r="AM13" s="115"/>
+      <c r="AN13" s="115"/>
+      <c r="AO13" s="115"/>
+      <c r="AP13" s="115"/>
       <c r="AQ13" s="56"/>
       <c r="AR13" s="57"/>
       <c r="AS13" s="57"/>
@@ -5512,29 +5651,29 @@
       <c r="BC13" s="57"/>
       <c r="BD13" s="57"/>
       <c r="BE13" s="59"/>
-      <c r="BF13" s="119"/>
-      <c r="BG13" s="120"/>
-      <c r="BH13" s="120"/>
-      <c r="BI13" s="120"/>
-      <c r="BJ13" s="120"/>
+      <c r="BF13" s="116"/>
+      <c r="BG13" s="117"/>
+      <c r="BH13" s="117"/>
+      <c r="BI13" s="117"/>
+      <c r="BJ13" s="117"/>
       <c r="BK13" s="56"/>
       <c r="BL13" s="57"/>
       <c r="BM13" s="57"/>
       <c r="BN13" s="57"/>
       <c r="BO13" s="57"/>
-      <c r="BP13" s="122"/>
-      <c r="BQ13" s="122"/>
-      <c r="BR13" s="122"/>
-      <c r="BS13" s="122"/>
-      <c r="BT13" s="123"/>
+      <c r="BP13" s="119"/>
+      <c r="BQ13" s="119"/>
+      <c r="BR13" s="119"/>
+      <c r="BS13" s="119"/>
+      <c r="BT13" s="120"/>
     </row>
     <row r="14" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="45"/>
       <c r="C14" s="46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E14" s="48">
         <v>10</v>
@@ -5588,11 +5727,11 @@
       <c r="AI14" s="57"/>
       <c r="AJ14" s="57"/>
       <c r="AK14" s="57"/>
-      <c r="AL14" s="118"/>
-      <c r="AM14" s="118"/>
-      <c r="AN14" s="118"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
+      <c r="AL14" s="115"/>
+      <c r="AM14" s="115"/>
+      <c r="AN14" s="115"/>
+      <c r="AO14" s="115"/>
+      <c r="AP14" s="115"/>
       <c r="AQ14" s="56"/>
       <c r="AR14" s="57"/>
       <c r="AS14" s="57"/>
@@ -5608,29 +5747,29 @@
       <c r="BC14" s="57"/>
       <c r="BD14" s="57"/>
       <c r="BE14" s="59"/>
-      <c r="BF14" s="119"/>
-      <c r="BG14" s="120"/>
-      <c r="BH14" s="120"/>
-      <c r="BI14" s="120"/>
-      <c r="BJ14" s="120"/>
+      <c r="BF14" s="116"/>
+      <c r="BG14" s="117"/>
+      <c r="BH14" s="117"/>
+      <c r="BI14" s="117"/>
+      <c r="BJ14" s="117"/>
       <c r="BK14" s="56"/>
       <c r="BL14" s="57"/>
       <c r="BM14" s="57"/>
       <c r="BN14" s="57"/>
       <c r="BO14" s="57"/>
-      <c r="BP14" s="122"/>
-      <c r="BQ14" s="122"/>
-      <c r="BR14" s="122"/>
-      <c r="BS14" s="122"/>
-      <c r="BT14" s="123"/>
+      <c r="BP14" s="119"/>
+      <c r="BQ14" s="119"/>
+      <c r="BR14" s="119"/>
+      <c r="BS14" s="119"/>
+      <c r="BT14" s="120"/>
     </row>
     <row r="15" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="45"/>
       <c r="C15" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="48">
         <v>4</v>
@@ -5684,11 +5823,11 @@
       <c r="AI15" s="57"/>
       <c r="AJ15" s="57"/>
       <c r="AK15" s="57"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
+      <c r="AL15" s="115"/>
+      <c r="AM15" s="115"/>
+      <c r="AN15" s="115"/>
+      <c r="AO15" s="115"/>
+      <c r="AP15" s="115"/>
       <c r="AQ15" s="56"/>
       <c r="AR15" s="57"/>
       <c r="AS15" s="57"/>
@@ -5704,29 +5843,29 @@
       <c r="BC15" s="57"/>
       <c r="BD15" s="57"/>
       <c r="BE15" s="59"/>
-      <c r="BF15" s="119"/>
-      <c r="BG15" s="120"/>
-      <c r="BH15" s="120"/>
-      <c r="BI15" s="120"/>
-      <c r="BJ15" s="120"/>
+      <c r="BF15" s="116"/>
+      <c r="BG15" s="117"/>
+      <c r="BH15" s="117"/>
+      <c r="BI15" s="117"/>
+      <c r="BJ15" s="117"/>
       <c r="BK15" s="56"/>
       <c r="BL15" s="57"/>
       <c r="BM15" s="57"/>
       <c r="BN15" s="57"/>
       <c r="BO15" s="57"/>
-      <c r="BP15" s="122"/>
-      <c r="BQ15" s="122"/>
-      <c r="BR15" s="122"/>
-      <c r="BS15" s="122"/>
-      <c r="BT15" s="123"/>
+      <c r="BP15" s="119"/>
+      <c r="BQ15" s="119"/>
+      <c r="BR15" s="119"/>
+      <c r="BS15" s="119"/>
+      <c r="BT15" s="120"/>
     </row>
     <row r="16" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="45"/>
       <c r="C16" s="46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E16" s="48">
         <v>3</v>
@@ -5780,11 +5919,11 @@
       <c r="AI16" s="57"/>
       <c r="AJ16" s="57"/>
       <c r="AK16" s="57"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="118"/>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
+      <c r="AL16" s="115"/>
+      <c r="AM16" s="115"/>
+      <c r="AN16" s="115"/>
+      <c r="AO16" s="115"/>
+      <c r="AP16" s="115"/>
       <c r="AQ16" s="56"/>
       <c r="AR16" s="57"/>
       <c r="AS16" s="57"/>
@@ -5800,29 +5939,29 @@
       <c r="BC16" s="57"/>
       <c r="BD16" s="57"/>
       <c r="BE16" s="59"/>
-      <c r="BF16" s="119"/>
-      <c r="BG16" s="120"/>
-      <c r="BH16" s="120"/>
-      <c r="BI16" s="120"/>
-      <c r="BJ16" s="120"/>
+      <c r="BF16" s="116"/>
+      <c r="BG16" s="117"/>
+      <c r="BH16" s="117"/>
+      <c r="BI16" s="117"/>
+      <c r="BJ16" s="117"/>
       <c r="BK16" s="56"/>
       <c r="BL16" s="57"/>
       <c r="BM16" s="57"/>
       <c r="BN16" s="57"/>
       <c r="BO16" s="57"/>
-      <c r="BP16" s="122"/>
-      <c r="BQ16" s="122"/>
-      <c r="BR16" s="122"/>
-      <c r="BS16" s="122"/>
-      <c r="BT16" s="123"/>
+      <c r="BP16" s="119"/>
+      <c r="BQ16" s="119"/>
+      <c r="BR16" s="119"/>
+      <c r="BS16" s="119"/>
+      <c r="BT16" s="120"/>
     </row>
     <row r="17" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="45"/>
       <c r="C17" s="46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17" s="48">
         <v>2</v>
@@ -5876,11 +6015,11 @@
       <c r="AI17" s="57"/>
       <c r="AJ17" s="57"/>
       <c r="AK17" s="57"/>
-      <c r="AL17" s="118"/>
-      <c r="AM17" s="118"/>
-      <c r="AN17" s="118"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
+      <c r="AL17" s="115"/>
+      <c r="AM17" s="115"/>
+      <c r="AN17" s="115"/>
+      <c r="AO17" s="115"/>
+      <c r="AP17" s="115"/>
       <c r="AQ17" s="56"/>
       <c r="AR17" s="57"/>
       <c r="AS17" s="57"/>
@@ -5896,28 +6035,28 @@
       <c r="BC17" s="57"/>
       <c r="BD17" s="57"/>
       <c r="BE17" s="59"/>
-      <c r="BF17" s="119"/>
-      <c r="BG17" s="120"/>
-      <c r="BH17" s="120"/>
-      <c r="BI17" s="120"/>
-      <c r="BJ17" s="120"/>
+      <c r="BF17" s="116"/>
+      <c r="BG17" s="117"/>
+      <c r="BH17" s="117"/>
+      <c r="BI17" s="117"/>
+      <c r="BJ17" s="117"/>
       <c r="BK17" s="56"/>
       <c r="BL17" s="57"/>
       <c r="BM17" s="57"/>
       <c r="BN17" s="57"/>
       <c r="BO17" s="57"/>
-      <c r="BP17" s="122"/>
-      <c r="BQ17" s="122"/>
-      <c r="BR17" s="122"/>
-      <c r="BS17" s="122"/>
-      <c r="BT17" s="123"/>
+      <c r="BP17" s="119"/>
+      <c r="BQ17" s="119"/>
+      <c r="BR17" s="119"/>
+      <c r="BS17" s="119"/>
+      <c r="BT17" s="120"/>
     </row>
     <row r="18" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="45">
         <v>2</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D18" s="63"/>
       <c r="E18" s="34">
@@ -6006,10 +6145,10 @@
     <row r="19" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="45"/>
       <c r="C19" s="46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E19" s="48">
         <v>4</v>
@@ -6048,8 +6187,8 @@
       <c r="T19" s="58"/>
       <c r="U19" s="58"/>
       <c r="V19" s="58"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="126"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="123"/>
       <c r="Y19" s="57"/>
       <c r="Z19" s="57"/>
       <c r="AA19" s="59"/>
@@ -6063,11 +6202,11 @@
       <c r="AI19" s="57"/>
       <c r="AJ19" s="57"/>
       <c r="AK19" s="57"/>
-      <c r="AL19" s="118"/>
-      <c r="AM19" s="118"/>
-      <c r="AN19" s="118"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="118"/>
+      <c r="AL19" s="115"/>
+      <c r="AM19" s="115"/>
+      <c r="AN19" s="115"/>
+      <c r="AO19" s="115"/>
+      <c r="AP19" s="115"/>
       <c r="AQ19" s="56"/>
       <c r="AR19" s="57"/>
       <c r="AS19" s="57"/>
@@ -6083,29 +6222,29 @@
       <c r="BC19" s="57"/>
       <c r="BD19" s="57"/>
       <c r="BE19" s="59"/>
-      <c r="BF19" s="119"/>
-      <c r="BG19" s="120"/>
-      <c r="BH19" s="120"/>
-      <c r="BI19" s="120"/>
-      <c r="BJ19" s="120"/>
+      <c r="BF19" s="116"/>
+      <c r="BG19" s="117"/>
+      <c r="BH19" s="117"/>
+      <c r="BI19" s="117"/>
+      <c r="BJ19" s="117"/>
       <c r="BK19" s="56"/>
       <c r="BL19" s="57"/>
       <c r="BM19" s="57"/>
       <c r="BN19" s="57"/>
       <c r="BO19" s="57"/>
-      <c r="BP19" s="122"/>
-      <c r="BQ19" s="122"/>
-      <c r="BR19" s="122"/>
-      <c r="BS19" s="122"/>
-      <c r="BT19" s="123"/>
+      <c r="BP19" s="119"/>
+      <c r="BQ19" s="119"/>
+      <c r="BR19" s="119"/>
+      <c r="BS19" s="119"/>
+      <c r="BT19" s="120"/>
     </row>
     <row r="20" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="45"/>
       <c r="C20" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E20" s="48">
         <v>6</v>
@@ -6145,8 +6284,8 @@
       <c r="U20" s="58"/>
       <c r="V20" s="58"/>
       <c r="W20" s="57"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="126"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="123"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="59"/>
       <c r="AB20" s="60"/>
@@ -6159,11 +6298,11 @@
       <c r="AI20" s="57"/>
       <c r="AJ20" s="57"/>
       <c r="AK20" s="57"/>
-      <c r="AL20" s="118"/>
-      <c r="AM20" s="118"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
+      <c r="AL20" s="115"/>
+      <c r="AM20" s="115"/>
+      <c r="AN20" s="115"/>
+      <c r="AO20" s="115"/>
+      <c r="AP20" s="115"/>
       <c r="AQ20" s="56"/>
       <c r="AR20" s="57"/>
       <c r="AS20" s="57"/>
@@ -6179,29 +6318,29 @@
       <c r="BC20" s="57"/>
       <c r="BD20" s="57"/>
       <c r="BE20" s="59"/>
-      <c r="BF20" s="119"/>
-      <c r="BG20" s="120"/>
-      <c r="BH20" s="120"/>
-      <c r="BI20" s="120"/>
-      <c r="BJ20" s="120"/>
+      <c r="BF20" s="116"/>
+      <c r="BG20" s="117"/>
+      <c r="BH20" s="117"/>
+      <c r="BI20" s="117"/>
+      <c r="BJ20" s="117"/>
       <c r="BK20" s="56"/>
       <c r="BL20" s="57"/>
       <c r="BM20" s="57"/>
       <c r="BN20" s="57"/>
       <c r="BO20" s="57"/>
-      <c r="BP20" s="122"/>
-      <c r="BQ20" s="122"/>
-      <c r="BR20" s="122"/>
-      <c r="BS20" s="122"/>
-      <c r="BT20" s="123"/>
+      <c r="BP20" s="119"/>
+      <c r="BQ20" s="119"/>
+      <c r="BR20" s="119"/>
+      <c r="BS20" s="119"/>
+      <c r="BT20" s="120"/>
     </row>
     <row r="21" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="45"/>
       <c r="C21" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="48">
         <v>4</v>
@@ -6243,7 +6382,7 @@
       <c r="W21" s="57"/>
       <c r="X21" s="57"/>
       <c r="Y21" s="57"/>
-      <c r="Z21" s="126"/>
+      <c r="Z21" s="123"/>
       <c r="AA21" s="59"/>
       <c r="AB21" s="60"/>
       <c r="AC21" s="60"/>
@@ -6255,11 +6394,11 @@
       <c r="AI21" s="57"/>
       <c r="AJ21" s="57"/>
       <c r="AK21" s="57"/>
-      <c r="AL21" s="118"/>
-      <c r="AM21" s="118"/>
-      <c r="AN21" s="118"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="118"/>
+      <c r="AL21" s="115"/>
+      <c r="AM21" s="115"/>
+      <c r="AN21" s="115"/>
+      <c r="AO21" s="115"/>
+      <c r="AP21" s="115"/>
       <c r="AQ21" s="56"/>
       <c r="AR21" s="57"/>
       <c r="AS21" s="57"/>
@@ -6275,29 +6414,29 @@
       <c r="BC21" s="57"/>
       <c r="BD21" s="57"/>
       <c r="BE21" s="59"/>
-      <c r="BF21" s="119"/>
-      <c r="BG21" s="120"/>
-      <c r="BH21" s="120"/>
-      <c r="BI21" s="120"/>
-      <c r="BJ21" s="120"/>
+      <c r="BF21" s="116"/>
+      <c r="BG21" s="117"/>
+      <c r="BH21" s="117"/>
+      <c r="BI21" s="117"/>
+      <c r="BJ21" s="117"/>
       <c r="BK21" s="56"/>
       <c r="BL21" s="57"/>
       <c r="BM21" s="57"/>
       <c r="BN21" s="57"/>
       <c r="BO21" s="57"/>
-      <c r="BP21" s="122"/>
-      <c r="BQ21" s="122"/>
-      <c r="BR21" s="122"/>
-      <c r="BS21" s="122"/>
-      <c r="BT21" s="123"/>
+      <c r="BP21" s="119"/>
+      <c r="BQ21" s="119"/>
+      <c r="BR21" s="119"/>
+      <c r="BS21" s="119"/>
+      <c r="BT21" s="120"/>
     </row>
     <row r="22" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="45"/>
       <c r="C22" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E22" s="48">
         <v>3</v>
@@ -6340,7 +6479,7 @@
       <c r="X22" s="57"/>
       <c r="Y22" s="57"/>
       <c r="Z22" s="57"/>
-      <c r="AA22" s="126"/>
+      <c r="AA22" s="123"/>
       <c r="AB22" s="60"/>
       <c r="AC22" s="60"/>
       <c r="AD22" s="60"/>
@@ -6351,11 +6490,11 @@
       <c r="AI22" s="57"/>
       <c r="AJ22" s="57"/>
       <c r="AK22" s="57"/>
-      <c r="AL22" s="118"/>
-      <c r="AM22" s="118"/>
-      <c r="AN22" s="118"/>
-      <c r="AO22" s="118"/>
-      <c r="AP22" s="118"/>
+      <c r="AL22" s="115"/>
+      <c r="AM22" s="115"/>
+      <c r="AN22" s="115"/>
+      <c r="AO22" s="115"/>
+      <c r="AP22" s="115"/>
       <c r="AQ22" s="56"/>
       <c r="AR22" s="57"/>
       <c r="AS22" s="57"/>
@@ -6371,29 +6510,29 @@
       <c r="BC22" s="57"/>
       <c r="BD22" s="57"/>
       <c r="BE22" s="59"/>
-      <c r="BF22" s="119"/>
-      <c r="BG22" s="120"/>
-      <c r="BH22" s="120"/>
-      <c r="BI22" s="120"/>
-      <c r="BJ22" s="120"/>
+      <c r="BF22" s="116"/>
+      <c r="BG22" s="117"/>
+      <c r="BH22" s="117"/>
+      <c r="BI22" s="117"/>
+      <c r="BJ22" s="117"/>
       <c r="BK22" s="56"/>
       <c r="BL22" s="57"/>
       <c r="BM22" s="57"/>
       <c r="BN22" s="57"/>
       <c r="BO22" s="57"/>
-      <c r="BP22" s="122"/>
-      <c r="BQ22" s="122"/>
-      <c r="BR22" s="122"/>
-      <c r="BS22" s="122"/>
-      <c r="BT22" s="123"/>
+      <c r="BP22" s="119"/>
+      <c r="BQ22" s="119"/>
+      <c r="BR22" s="119"/>
+      <c r="BS22" s="119"/>
+      <c r="BT22" s="120"/>
     </row>
     <row r="23" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="45"/>
       <c r="C23" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="48">
         <v>3</v>
@@ -6436,23 +6575,23 @@
       <c r="X23" s="57"/>
       <c r="Y23" s="57"/>
       <c r="Z23" s="57"/>
-      <c r="AA23" s="126"/>
+      <c r="AA23" s="123"/>
       <c r="AB23" s="60"/>
       <c r="AC23" s="60"/>
       <c r="AD23" s="60"/>
       <c r="AE23" s="60"/>
       <c r="AF23" s="60"/>
-      <c r="AG23" s="117"/>
+      <c r="AG23" s="114"/>
       <c r="AH23" s="57"/>
       <c r="AI23" s="57"/>
       <c r="AJ23" s="57"/>
       <c r="AK23" s="57"/>
-      <c r="AL23" s="118"/>
-      <c r="AM23" s="118"/>
-      <c r="AN23" s="118"/>
-      <c r="AO23" s="118"/>
-      <c r="AP23" s="118"/>
-      <c r="AQ23" s="117"/>
+      <c r="AL23" s="115"/>
+      <c r="AM23" s="115"/>
+      <c r="AN23" s="115"/>
+      <c r="AO23" s="115"/>
+      <c r="AP23" s="115"/>
+      <c r="AQ23" s="114"/>
       <c r="AR23" s="57"/>
       <c r="AS23" s="57"/>
       <c r="AT23" s="57"/>
@@ -6467,28 +6606,28 @@
       <c r="BC23" s="57"/>
       <c r="BD23" s="57"/>
       <c r="BE23" s="59"/>
-      <c r="BF23" s="119"/>
-      <c r="BG23" s="120"/>
-      <c r="BH23" s="120"/>
-      <c r="BI23" s="120"/>
-      <c r="BJ23" s="120"/>
-      <c r="BK23" s="117"/>
+      <c r="BF23" s="116"/>
+      <c r="BG23" s="117"/>
+      <c r="BH23" s="117"/>
+      <c r="BI23" s="117"/>
+      <c r="BJ23" s="117"/>
+      <c r="BK23" s="114"/>
       <c r="BL23" s="57"/>
       <c r="BM23" s="57"/>
       <c r="BN23" s="57"/>
       <c r="BO23" s="57"/>
-      <c r="BP23" s="122"/>
-      <c r="BQ23" s="122"/>
-      <c r="BR23" s="122"/>
-      <c r="BS23" s="122"/>
-      <c r="BT23" s="123"/>
+      <c r="BP23" s="119"/>
+      <c r="BQ23" s="119"/>
+      <c r="BR23" s="119"/>
+      <c r="BS23" s="119"/>
+      <c r="BT23" s="120"/>
     </row>
     <row r="24" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="45">
         <v>3</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D24" s="63"/>
       <c r="E24" s="34">
@@ -6503,8 +6642,8 @@
         <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-      <c r="H24" s="127" t="s">
-        <v>153</v>
+      <c r="H24" s="124" t="s">
+        <v>151</v>
       </c>
       <c r="I24" s="65"/>
       <c r="J24" s="66"/>
@@ -6577,10 +6716,10 @@
     <row r="25" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="45"/>
       <c r="C25" s="46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="48">
         <v>7</v>
@@ -6629,17 +6768,17 @@
       <c r="AD25" s="60"/>
       <c r="AE25" s="60"/>
       <c r="AF25" s="60"/>
-      <c r="AG25" s="178"/>
-      <c r="AH25" s="178"/>
+      <c r="AG25" s="125"/>
+      <c r="AH25" s="125"/>
       <c r="AI25" s="57"/>
       <c r="AJ25" s="57"/>
       <c r="AK25" s="57"/>
-      <c r="AL25" s="118"/>
-      <c r="AM25" s="118"/>
-      <c r="AN25" s="118"/>
-      <c r="AO25" s="118"/>
-      <c r="AP25" s="118"/>
-      <c r="AQ25" s="117"/>
+      <c r="AL25" s="115"/>
+      <c r="AM25" s="115"/>
+      <c r="AN25" s="115"/>
+      <c r="AO25" s="115"/>
+      <c r="AP25" s="115"/>
+      <c r="AQ25" s="114"/>
       <c r="AR25" s="57"/>
       <c r="AS25" s="57"/>
       <c r="AT25" s="57"/>
@@ -6654,29 +6793,29 @@
       <c r="BC25" s="57"/>
       <c r="BD25" s="57"/>
       <c r="BE25" s="59"/>
-      <c r="BF25" s="119"/>
-      <c r="BG25" s="120"/>
-      <c r="BH25" s="120"/>
-      <c r="BI25" s="120"/>
-      <c r="BJ25" s="120"/>
-      <c r="BK25" s="117"/>
+      <c r="BF25" s="116"/>
+      <c r="BG25" s="117"/>
+      <c r="BH25" s="117"/>
+      <c r="BI25" s="117"/>
+      <c r="BJ25" s="117"/>
+      <c r="BK25" s="114"/>
       <c r="BL25" s="57"/>
       <c r="BM25" s="57"/>
       <c r="BN25" s="57"/>
       <c r="BO25" s="57"/>
-      <c r="BP25" s="122"/>
-      <c r="BQ25" s="122"/>
-      <c r="BR25" s="122"/>
-      <c r="BS25" s="122"/>
-      <c r="BT25" s="123"/>
+      <c r="BP25" s="119"/>
+      <c r="BQ25" s="119"/>
+      <c r="BR25" s="119"/>
+      <c r="BS25" s="119"/>
+      <c r="BT25" s="120"/>
     </row>
     <row r="26" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="45"/>
       <c r="C26" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E26" s="48">
         <v>7</v>
@@ -6691,10 +6830,10 @@
       <c r="H26" s="51">
         <v>3</v>
       </c>
-      <c r="I26" s="125">
+      <c r="I26" s="122">
         <v>44979</v>
       </c>
-      <c r="J26" s="125">
+      <c r="J26" s="122">
         <v>44981</v>
       </c>
       <c r="K26" s="54">
@@ -6727,14 +6866,14 @@
       <c r="AF26" s="60"/>
       <c r="AG26" s="56"/>
       <c r="AH26" s="57"/>
-      <c r="AI26" s="178"/>
-      <c r="AJ26" s="178"/>
-      <c r="AK26" s="178"/>
-      <c r="AL26" s="118"/>
-      <c r="AM26" s="118"/>
-      <c r="AN26" s="118"/>
-      <c r="AO26" s="118"/>
-      <c r="AP26" s="118"/>
+      <c r="AI26" s="125"/>
+      <c r="AJ26" s="125"/>
+      <c r="AK26" s="125"/>
+      <c r="AL26" s="115"/>
+      <c r="AM26" s="115"/>
+      <c r="AN26" s="115"/>
+      <c r="AO26" s="115"/>
+      <c r="AP26" s="115"/>
       <c r="AQ26" s="56"/>
       <c r="AR26" s="57"/>
       <c r="AS26" s="57"/>
@@ -6750,29 +6889,29 @@
       <c r="BC26" s="57"/>
       <c r="BD26" s="57"/>
       <c r="BE26" s="59"/>
-      <c r="BF26" s="119"/>
-      <c r="BG26" s="120"/>
-      <c r="BH26" s="120"/>
-      <c r="BI26" s="120"/>
-      <c r="BJ26" s="120"/>
+      <c r="BF26" s="116"/>
+      <c r="BG26" s="117"/>
+      <c r="BH26" s="117"/>
+      <c r="BI26" s="117"/>
+      <c r="BJ26" s="117"/>
       <c r="BK26" s="56"/>
       <c r="BL26" s="57"/>
       <c r="BM26" s="57"/>
       <c r="BN26" s="57"/>
       <c r="BO26" s="57"/>
-      <c r="BP26" s="122"/>
-      <c r="BQ26" s="122"/>
-      <c r="BR26" s="122"/>
-      <c r="BS26" s="122"/>
-      <c r="BT26" s="123"/>
+      <c r="BP26" s="119"/>
+      <c r="BQ26" s="119"/>
+      <c r="BR26" s="119"/>
+      <c r="BS26" s="119"/>
+      <c r="BT26" s="120"/>
     </row>
     <row r="27" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="45"/>
       <c r="C27" s="46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E27" s="48">
         <v>4</v>
@@ -6787,10 +6926,10 @@
       <c r="H27" s="51">
         <v>3</v>
       </c>
-      <c r="I27" s="125">
+      <c r="I27" s="122">
         <v>44984</v>
       </c>
-      <c r="J27" s="125">
+      <c r="J27" s="122">
         <v>44984</v>
       </c>
       <c r="K27" s="54">
@@ -6826,11 +6965,11 @@
       <c r="AI27" s="57"/>
       <c r="AJ27" s="57"/>
       <c r="AK27" s="57"/>
-      <c r="AL27" s="178"/>
-      <c r="AM27" s="118"/>
-      <c r="AN27" s="118"/>
-      <c r="AO27" s="118"/>
-      <c r="AP27" s="118"/>
+      <c r="AL27" s="125"/>
+      <c r="AM27" s="115"/>
+      <c r="AN27" s="115"/>
+      <c r="AO27" s="115"/>
+      <c r="AP27" s="115"/>
       <c r="AQ27" s="56"/>
       <c r="AR27" s="57"/>
       <c r="AS27" s="57"/>
@@ -6846,29 +6985,29 @@
       <c r="BC27" s="57"/>
       <c r="BD27" s="57"/>
       <c r="BE27" s="59"/>
-      <c r="BF27" s="119"/>
-      <c r="BG27" s="120"/>
-      <c r="BH27" s="120"/>
-      <c r="BI27" s="120"/>
-      <c r="BJ27" s="120"/>
+      <c r="BF27" s="116"/>
+      <c r="BG27" s="117"/>
+      <c r="BH27" s="117"/>
+      <c r="BI27" s="117"/>
+      <c r="BJ27" s="117"/>
       <c r="BK27" s="56"/>
       <c r="BL27" s="57"/>
       <c r="BM27" s="57"/>
       <c r="BN27" s="57"/>
       <c r="BO27" s="57"/>
-      <c r="BP27" s="122"/>
-      <c r="BQ27" s="122"/>
-      <c r="BR27" s="122"/>
-      <c r="BS27" s="122"/>
-      <c r="BT27" s="123"/>
+      <c r="BP27" s="119"/>
+      <c r="BQ27" s="119"/>
+      <c r="BR27" s="119"/>
+      <c r="BS27" s="119"/>
+      <c r="BT27" s="120"/>
     </row>
     <row r="28" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="45"/>
       <c r="C28" s="46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E28" s="48">
         <v>8</v>
@@ -6883,10 +7022,10 @@
       <c r="H28" s="51">
         <v>3</v>
       </c>
-      <c r="I28" s="125">
+      <c r="I28" s="122">
         <v>44985</v>
       </c>
-      <c r="J28" s="125">
+      <c r="J28" s="122">
         <v>44987</v>
       </c>
       <c r="K28" s="54">
@@ -6922,11 +7061,11 @@
       <c r="AI28" s="57"/>
       <c r="AJ28" s="57"/>
       <c r="AK28" s="57"/>
-      <c r="AL28" s="118"/>
-      <c r="AM28" s="178"/>
-      <c r="AN28" s="178"/>
-      <c r="AO28" s="178"/>
-      <c r="AP28" s="118"/>
+      <c r="AL28" s="115"/>
+      <c r="AM28" s="125"/>
+      <c r="AN28" s="125"/>
+      <c r="AO28" s="125"/>
+      <c r="AP28" s="115"/>
       <c r="AQ28" s="56"/>
       <c r="AR28" s="57"/>
       <c r="AS28" s="57"/>
@@ -6942,29 +7081,29 @@
       <c r="BC28" s="57"/>
       <c r="BD28" s="57"/>
       <c r="BE28" s="59"/>
-      <c r="BF28" s="119"/>
-      <c r="BG28" s="120"/>
-      <c r="BH28" s="120"/>
-      <c r="BI28" s="120"/>
-      <c r="BJ28" s="120"/>
+      <c r="BF28" s="116"/>
+      <c r="BG28" s="117"/>
+      <c r="BH28" s="117"/>
+      <c r="BI28" s="117"/>
+      <c r="BJ28" s="117"/>
       <c r="BK28" s="56"/>
       <c r="BL28" s="57"/>
       <c r="BM28" s="57"/>
       <c r="BN28" s="57"/>
       <c r="BO28" s="57"/>
-      <c r="BP28" s="122"/>
-      <c r="BQ28" s="122"/>
-      <c r="BR28" s="122"/>
-      <c r="BS28" s="122"/>
-      <c r="BT28" s="123"/>
+      <c r="BP28" s="119"/>
+      <c r="BQ28" s="119"/>
+      <c r="BR28" s="119"/>
+      <c r="BS28" s="119"/>
+      <c r="BT28" s="120"/>
     </row>
     <row r="29" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="45"/>
       <c r="C29" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E29" s="48">
         <v>5</v>
@@ -6979,10 +7118,10 @@
       <c r="H29" s="51">
         <v>3</v>
       </c>
-      <c r="I29" s="125">
+      <c r="I29" s="122">
         <v>44985</v>
       </c>
-      <c r="J29" s="125">
+      <c r="J29" s="122">
         <v>44986</v>
       </c>
       <c r="K29" s="54">
@@ -7018,11 +7157,11 @@
       <c r="AI29" s="57"/>
       <c r="AJ29" s="57"/>
       <c r="AK29" s="57"/>
-      <c r="AL29" s="118"/>
-      <c r="AM29" s="178"/>
-      <c r="AN29" s="178"/>
-      <c r="AO29" s="118"/>
-      <c r="AP29" s="118"/>
+      <c r="AL29" s="115"/>
+      <c r="AM29" s="125"/>
+      <c r="AN29" s="125"/>
+      <c r="AO29" s="115"/>
+      <c r="AP29" s="115"/>
       <c r="AQ29" s="56"/>
       <c r="AR29" s="57"/>
       <c r="AS29" s="57"/>
@@ -7038,29 +7177,29 @@
       <c r="BC29" s="57"/>
       <c r="BD29" s="57"/>
       <c r="BE29" s="59"/>
-      <c r="BF29" s="119"/>
-      <c r="BG29" s="120"/>
-      <c r="BH29" s="120"/>
-      <c r="BI29" s="120"/>
-      <c r="BJ29" s="120"/>
+      <c r="BF29" s="116"/>
+      <c r="BG29" s="117"/>
+      <c r="BH29" s="117"/>
+      <c r="BI29" s="117"/>
+      <c r="BJ29" s="117"/>
       <c r="BK29" s="56"/>
       <c r="BL29" s="57"/>
       <c r="BM29" s="57"/>
       <c r="BN29" s="57"/>
       <c r="BO29" s="57"/>
-      <c r="BP29" s="122"/>
-      <c r="BQ29" s="122"/>
-      <c r="BR29" s="122"/>
-      <c r="BS29" s="122"/>
-      <c r="BT29" s="123"/>
+      <c r="BP29" s="119"/>
+      <c r="BQ29" s="119"/>
+      <c r="BR29" s="119"/>
+      <c r="BS29" s="119"/>
+      <c r="BT29" s="120"/>
     </row>
     <row r="30" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="45"/>
       <c r="C30" s="46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E30" s="48">
         <v>9</v>
@@ -7114,14 +7253,14 @@
       <c r="AI30" s="57"/>
       <c r="AJ30" s="57"/>
       <c r="AK30" s="57"/>
-      <c r="AL30" s="118"/>
-      <c r="AM30" s="118"/>
-      <c r="AN30" s="118"/>
-      <c r="AO30" s="118"/>
-      <c r="AP30" s="118"/>
-      <c r="AQ30" s="179"/>
-      <c r="AR30" s="179"/>
-      <c r="AS30" s="179"/>
+      <c r="AL30" s="115"/>
+      <c r="AM30" s="115"/>
+      <c r="AN30" s="115"/>
+      <c r="AO30" s="115"/>
+      <c r="AP30" s="115"/>
+      <c r="AQ30" s="126"/>
+      <c r="AR30" s="126"/>
+      <c r="AS30" s="126"/>
       <c r="AT30" s="57"/>
       <c r="AU30" s="57"/>
       <c r="AV30" s="61"/>
@@ -7134,29 +7273,29 @@
       <c r="BC30" s="57"/>
       <c r="BD30" s="57"/>
       <c r="BE30" s="59"/>
-      <c r="BF30" s="119"/>
-      <c r="BG30" s="120"/>
-      <c r="BH30" s="120"/>
-      <c r="BI30" s="120"/>
-      <c r="BJ30" s="120"/>
+      <c r="BF30" s="116"/>
+      <c r="BG30" s="117"/>
+      <c r="BH30" s="117"/>
+      <c r="BI30" s="117"/>
+      <c r="BJ30" s="117"/>
       <c r="BK30" s="56"/>
       <c r="BL30" s="57"/>
       <c r="BM30" s="57"/>
       <c r="BN30" s="57"/>
       <c r="BO30" s="57"/>
-      <c r="BP30" s="122"/>
-      <c r="BQ30" s="122"/>
-      <c r="BR30" s="122"/>
-      <c r="BS30" s="122"/>
-      <c r="BT30" s="123"/>
+      <c r="BP30" s="119"/>
+      <c r="BQ30" s="119"/>
+      <c r="BR30" s="119"/>
+      <c r="BS30" s="119"/>
+      <c r="BT30" s="120"/>
     </row>
     <row r="31" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="45"/>
       <c r="C31" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E31" s="48">
         <v>9</v>
@@ -7171,10 +7310,10 @@
       <c r="H31" s="51">
         <v>4</v>
       </c>
-      <c r="I31" s="125">
+      <c r="I31" s="122">
         <v>44994</v>
       </c>
-      <c r="J31" s="125">
+      <c r="J31" s="122">
         <v>44998</v>
       </c>
       <c r="K31" s="54">
@@ -7210,17 +7349,17 @@
       <c r="AI31" s="57"/>
       <c r="AJ31" s="57"/>
       <c r="AK31" s="57"/>
-      <c r="AL31" s="118"/>
-      <c r="AM31" s="118"/>
-      <c r="AN31" s="118"/>
-      <c r="AO31" s="118"/>
-      <c r="AP31" s="118"/>
+      <c r="AL31" s="115"/>
+      <c r="AM31" s="115"/>
+      <c r="AN31" s="115"/>
+      <c r="AO31" s="115"/>
+      <c r="AP31" s="115"/>
       <c r="AQ31" s="56"/>
       <c r="AR31" s="57"/>
       <c r="AS31" s="57"/>
-      <c r="AT31" s="179"/>
-      <c r="AU31" s="179"/>
-      <c r="AV31" s="179"/>
+      <c r="AT31" s="126"/>
+      <c r="AU31" s="126"/>
+      <c r="AV31" s="126"/>
       <c r="AW31" s="61"/>
       <c r="AX31" s="61"/>
       <c r="AY31" s="61"/>
@@ -7230,29 +7369,29 @@
       <c r="BC31" s="57"/>
       <c r="BD31" s="57"/>
       <c r="BE31" s="59"/>
-      <c r="BF31" s="119"/>
-      <c r="BG31" s="120"/>
-      <c r="BH31" s="120"/>
-      <c r="BI31" s="120"/>
-      <c r="BJ31" s="120"/>
+      <c r="BF31" s="116"/>
+      <c r="BG31" s="117"/>
+      <c r="BH31" s="117"/>
+      <c r="BI31" s="117"/>
+      <c r="BJ31" s="117"/>
       <c r="BK31" s="56"/>
       <c r="BL31" s="57"/>
       <c r="BM31" s="57"/>
       <c r="BN31" s="57"/>
       <c r="BO31" s="57"/>
-      <c r="BP31" s="122"/>
-      <c r="BQ31" s="122"/>
-      <c r="BR31" s="122"/>
-      <c r="BS31" s="122"/>
-      <c r="BT31" s="123"/>
+      <c r="BP31" s="119"/>
+      <c r="BQ31" s="119"/>
+      <c r="BR31" s="119"/>
+      <c r="BS31" s="119"/>
+      <c r="BT31" s="120"/>
     </row>
     <row r="32" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="101"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="46" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E32" s="48">
         <v>5</v>
@@ -7267,10 +7406,10 @@
       <c r="H32" s="51">
         <v>4</v>
       </c>
-      <c r="I32" s="125">
+      <c r="I32" s="122">
         <v>44999</v>
       </c>
-      <c r="J32" s="125">
+      <c r="J32" s="122">
         <v>45000</v>
       </c>
       <c r="K32" s="54">
@@ -7306,19 +7445,19 @@
       <c r="AI32" s="57"/>
       <c r="AJ32" s="57"/>
       <c r="AK32" s="57"/>
-      <c r="AL32" s="118"/>
-      <c r="AM32" s="118"/>
-      <c r="AN32" s="118"/>
-      <c r="AO32" s="118"/>
-      <c r="AP32" s="118"/>
+      <c r="AL32" s="115"/>
+      <c r="AM32" s="115"/>
+      <c r="AN32" s="115"/>
+      <c r="AO32" s="115"/>
+      <c r="AP32" s="115"/>
       <c r="AQ32" s="56"/>
       <c r="AR32" s="57"/>
       <c r="AS32" s="57"/>
       <c r="AT32" s="57"/>
       <c r="AU32" s="57"/>
       <c r="AV32" s="61"/>
-      <c r="AW32" s="179"/>
-      <c r="AX32" s="179"/>
+      <c r="AW32" s="126"/>
+      <c r="AX32" s="126"/>
       <c r="AY32" s="61"/>
       <c r="AZ32" s="61"/>
       <c r="BA32" s="57"/>
@@ -7326,29 +7465,29 @@
       <c r="BC32" s="57"/>
       <c r="BD32" s="57"/>
       <c r="BE32" s="59"/>
-      <c r="BF32" s="119"/>
-      <c r="BG32" s="120"/>
-      <c r="BH32" s="120"/>
-      <c r="BI32" s="120"/>
-      <c r="BJ32" s="120"/>
+      <c r="BF32" s="116"/>
+      <c r="BG32" s="117"/>
+      <c r="BH32" s="117"/>
+      <c r="BI32" s="117"/>
+      <c r="BJ32" s="117"/>
       <c r="BK32" s="56"/>
       <c r="BL32" s="57"/>
       <c r="BM32" s="57"/>
       <c r="BN32" s="57"/>
       <c r="BO32" s="57"/>
-      <c r="BP32" s="122"/>
-      <c r="BQ32" s="122"/>
-      <c r="BR32" s="122"/>
-      <c r="BS32" s="122"/>
-      <c r="BT32" s="123"/>
+      <c r="BP32" s="119"/>
+      <c r="BQ32" s="119"/>
+      <c r="BR32" s="119"/>
+      <c r="BS32" s="119"/>
+      <c r="BT32" s="120"/>
     </row>
     <row r="33" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="101"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E33" s="48">
         <v>5</v>
@@ -7363,10 +7502,10 @@
       <c r="H33" s="51">
         <v>4</v>
       </c>
-      <c r="I33" s="125">
+      <c r="I33" s="122">
         <v>44999</v>
       </c>
-      <c r="J33" s="125">
+      <c r="J33" s="122">
         <v>45000</v>
       </c>
       <c r="K33" s="54">
@@ -7402,19 +7541,19 @@
       <c r="AI33" s="57"/>
       <c r="AJ33" s="57"/>
       <c r="AK33" s="57"/>
-      <c r="AL33" s="118"/>
-      <c r="AM33" s="118"/>
-      <c r="AN33" s="118"/>
-      <c r="AO33" s="118"/>
-      <c r="AP33" s="118"/>
+      <c r="AL33" s="115"/>
+      <c r="AM33" s="115"/>
+      <c r="AN33" s="115"/>
+      <c r="AO33" s="115"/>
+      <c r="AP33" s="115"/>
       <c r="AQ33" s="56"/>
       <c r="AR33" s="57"/>
       <c r="AS33" s="57"/>
       <c r="AT33" s="57"/>
       <c r="AU33" s="57"/>
       <c r="AV33" s="61"/>
-      <c r="AW33" s="179"/>
-      <c r="AX33" s="179"/>
+      <c r="AW33" s="126"/>
+      <c r="AX33" s="126"/>
       <c r="AY33" s="61"/>
       <c r="AZ33" s="61"/>
       <c r="BA33" s="57"/>
@@ -7422,29 +7561,29 @@
       <c r="BC33" s="57"/>
       <c r="BD33" s="57"/>
       <c r="BE33" s="59"/>
-      <c r="BF33" s="119"/>
-      <c r="BG33" s="120"/>
-      <c r="BH33" s="120"/>
-      <c r="BI33" s="120"/>
-      <c r="BJ33" s="120"/>
+      <c r="BF33" s="116"/>
+      <c r="BG33" s="117"/>
+      <c r="BH33" s="117"/>
+      <c r="BI33" s="117"/>
+      <c r="BJ33" s="117"/>
       <c r="BK33" s="56"/>
       <c r="BL33" s="57"/>
       <c r="BM33" s="57"/>
       <c r="BN33" s="57"/>
       <c r="BO33" s="57"/>
-      <c r="BP33" s="122"/>
-      <c r="BQ33" s="122"/>
-      <c r="BR33" s="122"/>
-      <c r="BS33" s="122"/>
-      <c r="BT33" s="123"/>
+      <c r="BP33" s="119"/>
+      <c r="BQ33" s="119"/>
+      <c r="BR33" s="119"/>
+      <c r="BS33" s="119"/>
+      <c r="BT33" s="120"/>
     </row>
     <row r="34" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="101"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E34" s="48">
         <v>5</v>
@@ -7459,10 +7598,10 @@
       <c r="H34" s="51">
         <v>4</v>
       </c>
-      <c r="I34" s="125">
+      <c r="I34" s="122">
         <v>44999</v>
       </c>
-      <c r="J34" s="125">
+      <c r="J34" s="122">
         <v>45000</v>
       </c>
       <c r="K34" s="54">
@@ -7498,19 +7637,19 @@
       <c r="AI34" s="57"/>
       <c r="AJ34" s="57"/>
       <c r="AK34" s="57"/>
-      <c r="AL34" s="118"/>
-      <c r="AM34" s="118"/>
-      <c r="AN34" s="118"/>
-      <c r="AO34" s="118"/>
-      <c r="AP34" s="118"/>
+      <c r="AL34" s="115"/>
+      <c r="AM34" s="115"/>
+      <c r="AN34" s="115"/>
+      <c r="AO34" s="115"/>
+      <c r="AP34" s="115"/>
       <c r="AQ34" s="56"/>
       <c r="AR34" s="57"/>
       <c r="AS34" s="57"/>
       <c r="AT34" s="57"/>
       <c r="AU34" s="57"/>
       <c r="AV34" s="61"/>
-      <c r="AW34" s="179"/>
-      <c r="AX34" s="179"/>
+      <c r="AW34" s="126"/>
+      <c r="AX34" s="126"/>
       <c r="AY34" s="61"/>
       <c r="AZ34" s="61"/>
       <c r="BA34" s="57"/>
@@ -7518,29 +7657,29 @@
       <c r="BC34" s="57"/>
       <c r="BD34" s="57"/>
       <c r="BE34" s="59"/>
-      <c r="BF34" s="119"/>
-      <c r="BG34" s="120"/>
-      <c r="BH34" s="120"/>
-      <c r="BI34" s="120"/>
-      <c r="BJ34" s="120"/>
+      <c r="BF34" s="116"/>
+      <c r="BG34" s="117"/>
+      <c r="BH34" s="117"/>
+      <c r="BI34" s="117"/>
+      <c r="BJ34" s="117"/>
       <c r="BK34" s="56"/>
       <c r="BL34" s="57"/>
       <c r="BM34" s="57"/>
       <c r="BN34" s="57"/>
       <c r="BO34" s="57"/>
-      <c r="BP34" s="122"/>
-      <c r="BQ34" s="122"/>
-      <c r="BR34" s="122"/>
-      <c r="BS34" s="122"/>
-      <c r="BT34" s="123"/>
+      <c r="BP34" s="119"/>
+      <c r="BQ34" s="119"/>
+      <c r="BR34" s="119"/>
+      <c r="BS34" s="119"/>
+      <c r="BT34" s="120"/>
     </row>
     <row r="35" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="101"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E35" s="48">
         <v>8</v>
@@ -7594,11 +7733,11 @@
       <c r="AI35" s="57"/>
       <c r="AJ35" s="57"/>
       <c r="AK35" s="57"/>
-      <c r="AL35" s="118"/>
-      <c r="AM35" s="118"/>
-      <c r="AN35" s="118"/>
-      <c r="AO35" s="118"/>
-      <c r="AP35" s="118"/>
+      <c r="AL35" s="115"/>
+      <c r="AM35" s="115"/>
+      <c r="AN35" s="115"/>
+      <c r="AO35" s="115"/>
+      <c r="AP35" s="115"/>
       <c r="AQ35" s="56"/>
       <c r="AR35" s="57"/>
       <c r="AS35" s="57"/>
@@ -7609,34 +7748,34 @@
       <c r="AX35" s="61"/>
       <c r="AY35" s="61"/>
       <c r="AZ35" s="61"/>
-      <c r="BA35" s="180"/>
-      <c r="BB35" s="180"/>
-      <c r="BC35" s="180"/>
+      <c r="BA35" s="127"/>
+      <c r="BB35" s="127"/>
+      <c r="BC35" s="127"/>
       <c r="BD35" s="57"/>
       <c r="BE35" s="59"/>
-      <c r="BF35" s="119"/>
-      <c r="BG35" s="120"/>
-      <c r="BH35" s="120"/>
-      <c r="BI35" s="120"/>
-      <c r="BJ35" s="120"/>
+      <c r="BF35" s="116"/>
+      <c r="BG35" s="117"/>
+      <c r="BH35" s="117"/>
+      <c r="BI35" s="117"/>
+      <c r="BJ35" s="117"/>
       <c r="BK35" s="56"/>
       <c r="BL35" s="57"/>
       <c r="BM35" s="57"/>
       <c r="BN35" s="57"/>
       <c r="BO35" s="57"/>
-      <c r="BP35" s="122"/>
-      <c r="BQ35" s="122"/>
-      <c r="BR35" s="122"/>
-      <c r="BS35" s="122"/>
-      <c r="BT35" s="123"/>
+      <c r="BP35" s="119"/>
+      <c r="BQ35" s="119"/>
+      <c r="BR35" s="119"/>
+      <c r="BS35" s="119"/>
+      <c r="BT35" s="120"/>
     </row>
     <row r="36" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="101"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E36" s="48">
         <v>8</v>
@@ -7651,7 +7790,7 @@
       <c r="H36" s="51">
         <v>5</v>
       </c>
-      <c r="I36" s="125">
+      <c r="I36" s="122">
         <v>45008</v>
       </c>
       <c r="J36" s="53">
@@ -7690,11 +7829,11 @@
       <c r="AI36" s="57"/>
       <c r="AJ36" s="57"/>
       <c r="AK36" s="57"/>
-      <c r="AL36" s="118"/>
-      <c r="AM36" s="118"/>
-      <c r="AN36" s="118"/>
-      <c r="AO36" s="118"/>
-      <c r="AP36" s="118"/>
+      <c r="AL36" s="115"/>
+      <c r="AM36" s="115"/>
+      <c r="AN36" s="115"/>
+      <c r="AO36" s="115"/>
+      <c r="AP36" s="115"/>
       <c r="AQ36" s="56"/>
       <c r="AR36" s="57"/>
       <c r="AS36" s="57"/>
@@ -7708,31 +7847,31 @@
       <c r="BA36" s="57"/>
       <c r="BB36" s="57"/>
       <c r="BC36" s="57"/>
-      <c r="BD36" s="180"/>
-      <c r="BE36" s="180"/>
-      <c r="BF36" s="180"/>
-      <c r="BG36" s="120"/>
-      <c r="BH36" s="120"/>
-      <c r="BI36" s="120"/>
-      <c r="BJ36" s="120"/>
+      <c r="BD36" s="127"/>
+      <c r="BE36" s="127"/>
+      <c r="BF36" s="127"/>
+      <c r="BG36" s="117"/>
+      <c r="BH36" s="117"/>
+      <c r="BI36" s="117"/>
+      <c r="BJ36" s="117"/>
       <c r="BK36" s="56"/>
       <c r="BL36" s="57"/>
       <c r="BM36" s="57"/>
       <c r="BN36" s="57"/>
       <c r="BO36" s="57"/>
-      <c r="BP36" s="122"/>
-      <c r="BQ36" s="122"/>
-      <c r="BR36" s="122"/>
-      <c r="BS36" s="122"/>
-      <c r="BT36" s="123"/>
+      <c r="BP36" s="119"/>
+      <c r="BQ36" s="119"/>
+      <c r="BR36" s="119"/>
+      <c r="BS36" s="119"/>
+      <c r="BT36" s="120"/>
     </row>
     <row r="37" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="101"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E37" s="48">
         <v>6</v>
@@ -7786,11 +7925,11 @@
       <c r="AI37" s="57"/>
       <c r="AJ37" s="57"/>
       <c r="AK37" s="57"/>
-      <c r="AL37" s="118"/>
-      <c r="AM37" s="118"/>
-      <c r="AN37" s="118"/>
-      <c r="AO37" s="118"/>
-      <c r="AP37" s="118"/>
+      <c r="AL37" s="115"/>
+      <c r="AM37" s="115"/>
+      <c r="AN37" s="115"/>
+      <c r="AO37" s="115"/>
+      <c r="AP37" s="115"/>
       <c r="AQ37" s="56"/>
       <c r="AR37" s="57"/>
       <c r="AS37" s="57"/>
@@ -7806,28 +7945,28 @@
       <c r="BC37" s="57"/>
       <c r="BD37" s="57"/>
       <c r="BE37" s="59"/>
-      <c r="BF37" s="119"/>
-      <c r="BG37" s="180"/>
-      <c r="BH37" s="180"/>
-      <c r="BI37" s="180"/>
-      <c r="BJ37" s="120"/>
+      <c r="BF37" s="116"/>
+      <c r="BG37" s="127"/>
+      <c r="BH37" s="127"/>
+      <c r="BI37" s="127"/>
+      <c r="BJ37" s="117"/>
       <c r="BK37" s="56"/>
       <c r="BL37" s="57"/>
       <c r="BM37" s="57"/>
       <c r="BN37" s="57"/>
       <c r="BO37" s="57"/>
-      <c r="BP37" s="122"/>
-      <c r="BQ37" s="122"/>
-      <c r="BR37" s="122"/>
-      <c r="BS37" s="122"/>
-      <c r="BT37" s="123"/>
+      <c r="BP37" s="119"/>
+      <c r="BQ37" s="119"/>
+      <c r="BR37" s="119"/>
+      <c r="BS37" s="119"/>
+      <c r="BT37" s="120"/>
     </row>
     <row r="38" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="45">
         <v>4</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D38" s="63"/>
       <c r="E38" s="34">
@@ -7843,7 +7982,7 @@
         <v>-10</v>
       </c>
       <c r="H38" s="64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I38" s="65"/>
       <c r="J38" s="66"/>
@@ -7916,10 +8055,10 @@
     <row r="39" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="45"/>
       <c r="C39" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E39" s="48">
         <v>4</v>
@@ -7963,8 +8102,8 @@
       <c r="Y39" s="57"/>
       <c r="Z39" s="57"/>
       <c r="AA39" s="59"/>
-      <c r="AB39" s="126"/>
-      <c r="AC39" s="126"/>
+      <c r="AB39" s="123"/>
+      <c r="AC39" s="123"/>
       <c r="AD39" s="60"/>
       <c r="AE39" s="60"/>
       <c r="AF39" s="60"/>
@@ -7973,11 +8112,11 @@
       <c r="AI39" s="57"/>
       <c r="AJ39" s="57"/>
       <c r="AK39" s="57"/>
-      <c r="AL39" s="118"/>
-      <c r="AM39" s="118"/>
-      <c r="AN39" s="118"/>
-      <c r="AO39" s="118"/>
-      <c r="AP39" s="118"/>
+      <c r="AL39" s="115"/>
+      <c r="AM39" s="115"/>
+      <c r="AN39" s="115"/>
+      <c r="AO39" s="115"/>
+      <c r="AP39" s="115"/>
       <c r="AQ39" s="56"/>
       <c r="AR39" s="57"/>
       <c r="AS39" s="57"/>
@@ -7993,29 +8132,29 @@
       <c r="BC39" s="57"/>
       <c r="BD39" s="57"/>
       <c r="BE39" s="59"/>
-      <c r="BF39" s="121"/>
-      <c r="BG39" s="120"/>
-      <c r="BH39" s="120"/>
-      <c r="BI39" s="120"/>
-      <c r="BJ39" s="120"/>
+      <c r="BF39" s="118"/>
+      <c r="BG39" s="117"/>
+      <c r="BH39" s="117"/>
+      <c r="BI39" s="117"/>
+      <c r="BJ39" s="117"/>
       <c r="BK39" s="56"/>
       <c r="BL39" s="57"/>
       <c r="BM39" s="57"/>
       <c r="BN39" s="57"/>
       <c r="BO39" s="57"/>
-      <c r="BP39" s="122"/>
-      <c r="BQ39" s="122"/>
-      <c r="BR39" s="122"/>
-      <c r="BS39" s="122"/>
-      <c r="BT39" s="123"/>
+      <c r="BP39" s="119"/>
+      <c r="BQ39" s="119"/>
+      <c r="BR39" s="119"/>
+      <c r="BS39" s="119"/>
+      <c r="BT39" s="120"/>
     </row>
     <row r="40" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="45"/>
       <c r="C40" s="46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E40" s="48">
         <v>2</v>
@@ -8061,19 +8200,19 @@
       <c r="AA40" s="59"/>
       <c r="AB40" s="60"/>
       <c r="AC40" s="60"/>
-      <c r="AD40" s="126"/>
-      <c r="AE40" s="126"/>
+      <c r="AD40" s="123"/>
+      <c r="AE40" s="123"/>
       <c r="AF40" s="60"/>
       <c r="AG40" s="56"/>
       <c r="AH40" s="57"/>
       <c r="AI40" s="57"/>
       <c r="AJ40" s="57"/>
       <c r="AK40" s="57"/>
-      <c r="AL40" s="118"/>
-      <c r="AM40" s="118"/>
-      <c r="AN40" s="118"/>
-      <c r="AO40" s="118"/>
-      <c r="AP40" s="118"/>
+      <c r="AL40" s="115"/>
+      <c r="AM40" s="115"/>
+      <c r="AN40" s="115"/>
+      <c r="AO40" s="115"/>
+      <c r="AP40" s="115"/>
       <c r="AQ40" s="56"/>
       <c r="AR40" s="57"/>
       <c r="AS40" s="57"/>
@@ -8089,29 +8228,29 @@
       <c r="BC40" s="57"/>
       <c r="BD40" s="57"/>
       <c r="BE40" s="59"/>
-      <c r="BF40" s="119"/>
-      <c r="BG40" s="120"/>
-      <c r="BH40" s="120"/>
-      <c r="BI40" s="120"/>
-      <c r="BJ40" s="120"/>
+      <c r="BF40" s="116"/>
+      <c r="BG40" s="117"/>
+      <c r="BH40" s="117"/>
+      <c r="BI40" s="117"/>
+      <c r="BJ40" s="117"/>
       <c r="BK40" s="56"/>
       <c r="BL40" s="57"/>
       <c r="BM40" s="57"/>
       <c r="BN40" s="57"/>
       <c r="BO40" s="57"/>
-      <c r="BP40" s="122"/>
-      <c r="BQ40" s="122"/>
-      <c r="BR40" s="122"/>
-      <c r="BS40" s="122"/>
-      <c r="BT40" s="123"/>
+      <c r="BP40" s="119"/>
+      <c r="BQ40" s="119"/>
+      <c r="BR40" s="119"/>
+      <c r="BS40" s="119"/>
+      <c r="BT40" s="120"/>
     </row>
     <row r="41" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="45"/>
       <c r="C41" s="46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E41" s="48">
         <v>3</v>
@@ -8158,18 +8297,18 @@
       <c r="AB41" s="60"/>
       <c r="AC41" s="60"/>
       <c r="AD41" s="60"/>
-      <c r="AE41" s="126"/>
-      <c r="AF41" s="126"/>
+      <c r="AE41" s="123"/>
+      <c r="AF41" s="123"/>
       <c r="AG41" s="56"/>
       <c r="AH41" s="57"/>
       <c r="AI41" s="57"/>
       <c r="AJ41" s="57"/>
       <c r="AK41" s="57"/>
-      <c r="AL41" s="118"/>
-      <c r="AM41" s="118"/>
-      <c r="AN41" s="118"/>
-      <c r="AO41" s="118"/>
-      <c r="AP41" s="118"/>
+      <c r="AL41" s="115"/>
+      <c r="AM41" s="115"/>
+      <c r="AN41" s="115"/>
+      <c r="AO41" s="115"/>
+      <c r="AP41" s="115"/>
       <c r="AQ41" s="56"/>
       <c r="AR41" s="57"/>
       <c r="AS41" s="57"/>
@@ -8185,29 +8324,29 @@
       <c r="BC41" s="57"/>
       <c r="BD41" s="57"/>
       <c r="BE41" s="59"/>
-      <c r="BF41" s="119"/>
-      <c r="BG41" s="120"/>
-      <c r="BH41" s="120"/>
-      <c r="BI41" s="120"/>
-      <c r="BJ41" s="120"/>
+      <c r="BF41" s="116"/>
+      <c r="BG41" s="117"/>
+      <c r="BH41" s="117"/>
+      <c r="BI41" s="117"/>
+      <c r="BJ41" s="117"/>
       <c r="BK41" s="56"/>
       <c r="BL41" s="57"/>
       <c r="BM41" s="57"/>
       <c r="BN41" s="57"/>
       <c r="BO41" s="57"/>
-      <c r="BP41" s="122"/>
-      <c r="BQ41" s="122"/>
-      <c r="BR41" s="122"/>
-      <c r="BS41" s="122"/>
-      <c r="BT41" s="123"/>
+      <c r="BP41" s="119"/>
+      <c r="BQ41" s="119"/>
+      <c r="BR41" s="119"/>
+      <c r="BS41" s="119"/>
+      <c r="BT41" s="120"/>
     </row>
     <row r="42" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="101"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E42" s="48">
         <v>3</v>
@@ -8253,19 +8392,19 @@
       <c r="AA42" s="59"/>
       <c r="AB42" s="60"/>
       <c r="AC42" s="60"/>
-      <c r="AD42" s="126"/>
-      <c r="AE42" s="126"/>
+      <c r="AD42" s="123"/>
+      <c r="AE42" s="123"/>
       <c r="AF42" s="60"/>
       <c r="AG42" s="56"/>
       <c r="AH42" s="57"/>
       <c r="AI42" s="57"/>
       <c r="AJ42" s="57"/>
       <c r="AK42" s="57"/>
-      <c r="AL42" s="118"/>
-      <c r="AM42" s="118"/>
-      <c r="AN42" s="118"/>
-      <c r="AO42" s="118"/>
-      <c r="AP42" s="118"/>
+      <c r="AL42" s="115"/>
+      <c r="AM42" s="115"/>
+      <c r="AN42" s="115"/>
+      <c r="AO42" s="115"/>
+      <c r="AP42" s="115"/>
       <c r="AQ42" s="56"/>
       <c r="AR42" s="57"/>
       <c r="AS42" s="57"/>
@@ -8281,29 +8420,29 @@
       <c r="BC42" s="57"/>
       <c r="BD42" s="57"/>
       <c r="BE42" s="59"/>
-      <c r="BF42" s="119"/>
-      <c r="BG42" s="120"/>
-      <c r="BH42" s="120"/>
-      <c r="BI42" s="120"/>
-      <c r="BJ42" s="120"/>
+      <c r="BF42" s="116"/>
+      <c r="BG42" s="117"/>
+      <c r="BH42" s="117"/>
+      <c r="BI42" s="117"/>
+      <c r="BJ42" s="117"/>
       <c r="BK42" s="56"/>
       <c r="BL42" s="57"/>
       <c r="BM42" s="57"/>
       <c r="BN42" s="57"/>
       <c r="BO42" s="57"/>
-      <c r="BP42" s="122"/>
-      <c r="BQ42" s="122"/>
-      <c r="BR42" s="122"/>
-      <c r="BS42" s="122"/>
-      <c r="BT42" s="123"/>
+      <c r="BP42" s="119"/>
+      <c r="BQ42" s="119"/>
+      <c r="BR42" s="119"/>
+      <c r="BS42" s="119"/>
+      <c r="BT42" s="120"/>
     </row>
     <row r="43" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="101"/>
+      <c r="B43" s="98"/>
       <c r="C43" s="46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E43" s="48">
         <v>3</v>
@@ -8350,18 +8489,18 @@
       <c r="AB43" s="60"/>
       <c r="AC43" s="60"/>
       <c r="AD43" s="60"/>
-      <c r="AE43" s="126"/>
-      <c r="AF43" s="126"/>
+      <c r="AE43" s="123"/>
+      <c r="AF43" s="123"/>
       <c r="AG43" s="56"/>
       <c r="AH43" s="57"/>
       <c r="AI43" s="57"/>
       <c r="AJ43" s="57"/>
       <c r="AK43" s="57"/>
-      <c r="AL43" s="118"/>
-      <c r="AM43" s="118"/>
-      <c r="AN43" s="118"/>
-      <c r="AO43" s="118"/>
-      <c r="AP43" s="118"/>
+      <c r="AL43" s="115"/>
+      <c r="AM43" s="115"/>
+      <c r="AN43" s="115"/>
+      <c r="AO43" s="115"/>
+      <c r="AP43" s="115"/>
       <c r="AQ43" s="56"/>
       <c r="AR43" s="57"/>
       <c r="AS43" s="57"/>
@@ -8377,29 +8516,29 @@
       <c r="BC43" s="57"/>
       <c r="BD43" s="57"/>
       <c r="BE43" s="59"/>
-      <c r="BF43" s="119"/>
-      <c r="BG43" s="120"/>
-      <c r="BH43" s="120"/>
-      <c r="BI43" s="120"/>
-      <c r="BJ43" s="120"/>
+      <c r="BF43" s="116"/>
+      <c r="BG43" s="117"/>
+      <c r="BH43" s="117"/>
+      <c r="BI43" s="117"/>
+      <c r="BJ43" s="117"/>
       <c r="BK43" s="56"/>
       <c r="BL43" s="57"/>
       <c r="BM43" s="57"/>
       <c r="BN43" s="57"/>
       <c r="BO43" s="57"/>
-      <c r="BP43" s="122"/>
-      <c r="BQ43" s="122"/>
-      <c r="BR43" s="122"/>
-      <c r="BS43" s="122"/>
-      <c r="BT43" s="123"/>
+      <c r="BP43" s="119"/>
+      <c r="BQ43" s="119"/>
+      <c r="BR43" s="119"/>
+      <c r="BS43" s="119"/>
+      <c r="BT43" s="120"/>
     </row>
     <row r="44" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="101"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E44" s="48">
         <v>5</v>
@@ -8445,19 +8584,19 @@
       <c r="AA44" s="59"/>
       <c r="AB44" s="60"/>
       <c r="AC44" s="60"/>
-      <c r="AD44" s="126"/>
-      <c r="AE44" s="126"/>
-      <c r="AF44" s="126"/>
+      <c r="AD44" s="123"/>
+      <c r="AE44" s="123"/>
+      <c r="AF44" s="123"/>
       <c r="AG44" s="56"/>
       <c r="AH44" s="57"/>
       <c r="AI44" s="57"/>
       <c r="AJ44" s="57"/>
       <c r="AK44" s="57"/>
-      <c r="AL44" s="118"/>
-      <c r="AM44" s="118"/>
-      <c r="AN44" s="118"/>
-      <c r="AO44" s="118"/>
-      <c r="AP44" s="118"/>
+      <c r="AL44" s="115"/>
+      <c r="AM44" s="115"/>
+      <c r="AN44" s="115"/>
+      <c r="AO44" s="115"/>
+      <c r="AP44" s="115"/>
       <c r="AQ44" s="56"/>
       <c r="AR44" s="57"/>
       <c r="AS44" s="57"/>
@@ -8473,29 +8612,29 @@
       <c r="BC44" s="57"/>
       <c r="BD44" s="57"/>
       <c r="BE44" s="59"/>
-      <c r="BF44" s="119"/>
-      <c r="BG44" s="120"/>
-      <c r="BH44" s="120"/>
-      <c r="BI44" s="120"/>
-      <c r="BJ44" s="120"/>
+      <c r="BF44" s="116"/>
+      <c r="BG44" s="117"/>
+      <c r="BH44" s="117"/>
+      <c r="BI44" s="117"/>
+      <c r="BJ44" s="117"/>
       <c r="BK44" s="56"/>
       <c r="BL44" s="57"/>
       <c r="BM44" s="57"/>
       <c r="BN44" s="57"/>
       <c r="BO44" s="57"/>
-      <c r="BP44" s="122"/>
-      <c r="BQ44" s="122"/>
-      <c r="BR44" s="122"/>
-      <c r="BS44" s="122"/>
-      <c r="BT44" s="123"/>
+      <c r="BP44" s="119"/>
+      <c r="BQ44" s="119"/>
+      <c r="BR44" s="119"/>
+      <c r="BS44" s="119"/>
+      <c r="BT44" s="120"/>
     </row>
     <row r="45" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="101"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E45" s="48">
         <v>3</v>
@@ -8543,17 +8682,17 @@
       <c r="AC45" s="60"/>
       <c r="AD45" s="60"/>
       <c r="AE45" s="60"/>
-      <c r="AF45" s="126"/>
+      <c r="AF45" s="123"/>
       <c r="AG45" s="56"/>
       <c r="AH45" s="57"/>
       <c r="AI45" s="57"/>
       <c r="AJ45" s="57"/>
       <c r="AK45" s="57"/>
-      <c r="AL45" s="118"/>
-      <c r="AM45" s="118"/>
-      <c r="AN45" s="118"/>
-      <c r="AO45" s="118"/>
-      <c r="AP45" s="118"/>
+      <c r="AL45" s="115"/>
+      <c r="AM45" s="115"/>
+      <c r="AN45" s="115"/>
+      <c r="AO45" s="115"/>
+      <c r="AP45" s="115"/>
       <c r="AQ45" s="56"/>
       <c r="AR45" s="57"/>
       <c r="AS45" s="57"/>
@@ -8569,29 +8708,29 @@
       <c r="BC45" s="57"/>
       <c r="BD45" s="57"/>
       <c r="BE45" s="59"/>
-      <c r="BF45" s="119"/>
-      <c r="BG45" s="120"/>
-      <c r="BH45" s="120"/>
-      <c r="BI45" s="120"/>
-      <c r="BJ45" s="120"/>
+      <c r="BF45" s="116"/>
+      <c r="BG45" s="117"/>
+      <c r="BH45" s="117"/>
+      <c r="BI45" s="117"/>
+      <c r="BJ45" s="117"/>
       <c r="BK45" s="56"/>
       <c r="BL45" s="57"/>
       <c r="BM45" s="57"/>
       <c r="BN45" s="57"/>
       <c r="BO45" s="57"/>
-      <c r="BP45" s="122"/>
-      <c r="BQ45" s="122"/>
-      <c r="BR45" s="122"/>
-      <c r="BS45" s="122"/>
-      <c r="BT45" s="123"/>
+      <c r="BP45" s="119"/>
+      <c r="BQ45" s="119"/>
+      <c r="BR45" s="119"/>
+      <c r="BS45" s="119"/>
+      <c r="BT45" s="120"/>
     </row>
     <row r="46" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="101"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E46" s="48">
         <v>5</v>
@@ -8606,10 +8745,10 @@
       <c r="H46" s="51">
         <v>3</v>
       </c>
-      <c r="I46" s="125">
+      <c r="I46" s="122">
         <v>44987</v>
       </c>
-      <c r="J46" s="125">
+      <c r="J46" s="122">
         <v>44988</v>
       </c>
       <c r="K46" s="54">
@@ -8645,11 +8784,11 @@
       <c r="AI46" s="57"/>
       <c r="AJ46" s="57"/>
       <c r="AK46" s="57"/>
-      <c r="AL46" s="118"/>
-      <c r="AM46" s="118"/>
-      <c r="AN46" s="118"/>
-      <c r="AO46" s="178"/>
-      <c r="AP46" s="178"/>
+      <c r="AL46" s="115"/>
+      <c r="AM46" s="115"/>
+      <c r="AN46" s="115"/>
+      <c r="AO46" s="125"/>
+      <c r="AP46" s="125"/>
       <c r="AQ46" s="56"/>
       <c r="AR46" s="57"/>
       <c r="AS46" s="57"/>
@@ -8665,29 +8804,29 @@
       <c r="BC46" s="57"/>
       <c r="BD46" s="57"/>
       <c r="BE46" s="59"/>
-      <c r="BF46" s="119"/>
-      <c r="BG46" s="120"/>
-      <c r="BH46" s="120"/>
-      <c r="BI46" s="120"/>
-      <c r="BJ46" s="120"/>
+      <c r="BF46" s="116"/>
+      <c r="BG46" s="117"/>
+      <c r="BH46" s="117"/>
+      <c r="BI46" s="117"/>
+      <c r="BJ46" s="117"/>
       <c r="BK46" s="56"/>
       <c r="BL46" s="57"/>
       <c r="BM46" s="57"/>
       <c r="BN46" s="57"/>
       <c r="BO46" s="57"/>
-      <c r="BP46" s="122"/>
-      <c r="BQ46" s="122"/>
-      <c r="BR46" s="122"/>
-      <c r="BS46" s="122"/>
-      <c r="BT46" s="123"/>
+      <c r="BP46" s="119"/>
+      <c r="BQ46" s="119"/>
+      <c r="BR46" s="119"/>
+      <c r="BS46" s="119"/>
+      <c r="BT46" s="120"/>
     </row>
     <row r="47" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="101"/>
+      <c r="B47" s="98"/>
       <c r="C47" s="46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E47" s="48">
         <v>3</v>
@@ -8702,10 +8841,10 @@
       <c r="H47" s="51">
         <v>3</v>
       </c>
-      <c r="I47" s="125">
+      <c r="I47" s="122">
         <v>44988</v>
       </c>
-      <c r="J47" s="125">
+      <c r="J47" s="122">
         <v>44988</v>
       </c>
       <c r="K47" s="54">
@@ -8741,11 +8880,11 @@
       <c r="AI47" s="57"/>
       <c r="AJ47" s="57"/>
       <c r="AK47" s="57"/>
-      <c r="AL47" s="118"/>
-      <c r="AM47" s="118"/>
-      <c r="AN47" s="118"/>
-      <c r="AO47" s="118"/>
-      <c r="AP47" s="178"/>
+      <c r="AL47" s="115"/>
+      <c r="AM47" s="115"/>
+      <c r="AN47" s="115"/>
+      <c r="AO47" s="115"/>
+      <c r="AP47" s="125"/>
       <c r="AQ47" s="56"/>
       <c r="AR47" s="57"/>
       <c r="AS47" s="57"/>
@@ -8761,29 +8900,29 @@
       <c r="BC47" s="57"/>
       <c r="BD47" s="57"/>
       <c r="BE47" s="59"/>
-      <c r="BF47" s="119"/>
-      <c r="BG47" s="120"/>
-      <c r="BH47" s="120"/>
-      <c r="BI47" s="120"/>
-      <c r="BJ47" s="120"/>
+      <c r="BF47" s="116"/>
+      <c r="BG47" s="117"/>
+      <c r="BH47" s="117"/>
+      <c r="BI47" s="117"/>
+      <c r="BJ47" s="117"/>
       <c r="BK47" s="56"/>
       <c r="BL47" s="57"/>
       <c r="BM47" s="57"/>
       <c r="BN47" s="57"/>
       <c r="BO47" s="57"/>
-      <c r="BP47" s="122"/>
-      <c r="BQ47" s="122"/>
-      <c r="BR47" s="122"/>
-      <c r="BS47" s="122"/>
-      <c r="BT47" s="123"/>
+      <c r="BP47" s="119"/>
+      <c r="BQ47" s="119"/>
+      <c r="BR47" s="119"/>
+      <c r="BS47" s="119"/>
+      <c r="BT47" s="120"/>
     </row>
     <row r="48" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="101"/>
+      <c r="B48" s="98"/>
       <c r="C48" s="46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E48" s="48">
         <v>5</v>
@@ -8798,10 +8937,10 @@
       <c r="H48" s="51">
         <v>3</v>
       </c>
-      <c r="I48" s="125">
+      <c r="I48" s="122">
         <v>44985</v>
       </c>
-      <c r="J48" s="125">
+      <c r="J48" s="122">
         <v>44986</v>
       </c>
       <c r="K48" s="54">
@@ -8837,11 +8976,11 @@
       <c r="AI48" s="57"/>
       <c r="AJ48" s="57"/>
       <c r="AK48" s="57"/>
-      <c r="AL48" s="118"/>
-      <c r="AM48" s="178"/>
-      <c r="AN48" s="178"/>
-      <c r="AO48" s="118"/>
-      <c r="AP48" s="118"/>
+      <c r="AL48" s="115"/>
+      <c r="AM48" s="125"/>
+      <c r="AN48" s="125"/>
+      <c r="AO48" s="115"/>
+      <c r="AP48" s="115"/>
       <c r="AQ48" s="56"/>
       <c r="AR48" s="57"/>
       <c r="AS48" s="57"/>
@@ -8857,29 +8996,29 @@
       <c r="BC48" s="57"/>
       <c r="BD48" s="57"/>
       <c r="BE48" s="59"/>
-      <c r="BF48" s="119"/>
-      <c r="BG48" s="120"/>
-      <c r="BH48" s="120"/>
-      <c r="BI48" s="120"/>
-      <c r="BJ48" s="120"/>
+      <c r="BF48" s="116"/>
+      <c r="BG48" s="117"/>
+      <c r="BH48" s="117"/>
+      <c r="BI48" s="117"/>
+      <c r="BJ48" s="117"/>
       <c r="BK48" s="56"/>
       <c r="BL48" s="57"/>
       <c r="BM48" s="57"/>
       <c r="BN48" s="57"/>
       <c r="BO48" s="57"/>
-      <c r="BP48" s="122"/>
-      <c r="BQ48" s="122"/>
-      <c r="BR48" s="122"/>
-      <c r="BS48" s="122"/>
-      <c r="BT48" s="123"/>
+      <c r="BP48" s="119"/>
+      <c r="BQ48" s="119"/>
+      <c r="BR48" s="119"/>
+      <c r="BS48" s="119"/>
+      <c r="BT48" s="120"/>
     </row>
     <row r="49" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="101"/>
+      <c r="B49" s="98"/>
       <c r="C49" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E49" s="48">
         <v>4</v>
@@ -8894,10 +9033,10 @@
       <c r="H49" s="51">
         <v>3</v>
       </c>
-      <c r="I49" s="125">
+      <c r="I49" s="122">
         <v>44987</v>
       </c>
-      <c r="J49" s="125">
+      <c r="J49" s="122">
         <v>44988</v>
       </c>
       <c r="K49" s="54">
@@ -8933,11 +9072,11 @@
       <c r="AI49" s="57"/>
       <c r="AJ49" s="57"/>
       <c r="AK49" s="57"/>
-      <c r="AL49" s="118"/>
-      <c r="AM49" s="118"/>
-      <c r="AN49" s="118"/>
-      <c r="AO49" s="178"/>
-      <c r="AP49" s="178"/>
+      <c r="AL49" s="115"/>
+      <c r="AM49" s="115"/>
+      <c r="AN49" s="115"/>
+      <c r="AO49" s="125"/>
+      <c r="AP49" s="125"/>
       <c r="AQ49" s="56"/>
       <c r="AR49" s="57"/>
       <c r="AS49" s="57"/>
@@ -8953,29 +9092,29 @@
       <c r="BC49" s="57"/>
       <c r="BD49" s="57"/>
       <c r="BE49" s="59"/>
-      <c r="BF49" s="119"/>
-      <c r="BG49" s="120"/>
-      <c r="BH49" s="120"/>
-      <c r="BI49" s="120"/>
-      <c r="BJ49" s="120"/>
+      <c r="BF49" s="116"/>
+      <c r="BG49" s="117"/>
+      <c r="BH49" s="117"/>
+      <c r="BI49" s="117"/>
+      <c r="BJ49" s="117"/>
       <c r="BK49" s="56"/>
       <c r="BL49" s="57"/>
       <c r="BM49" s="57"/>
       <c r="BN49" s="57"/>
       <c r="BO49" s="57"/>
-      <c r="BP49" s="122"/>
-      <c r="BQ49" s="122"/>
-      <c r="BR49" s="122"/>
-      <c r="BS49" s="122"/>
-      <c r="BT49" s="123"/>
+      <c r="BP49" s="119"/>
+      <c r="BQ49" s="119"/>
+      <c r="BR49" s="119"/>
+      <c r="BS49" s="119"/>
+      <c r="BT49" s="120"/>
     </row>
     <row r="50" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="101"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E50" s="48">
         <v>7</v>
@@ -8990,7 +9129,7 @@
       <c r="H50" s="51">
         <v>4</v>
       </c>
-      <c r="I50" s="125">
+      <c r="I50" s="122">
         <v>45001</v>
       </c>
       <c r="J50" s="52">
@@ -9029,11 +9168,11 @@
       <c r="AI50" s="57"/>
       <c r="AJ50" s="57"/>
       <c r="AK50" s="57"/>
-      <c r="AL50" s="118"/>
-      <c r="AM50" s="118"/>
-      <c r="AN50" s="118"/>
-      <c r="AO50" s="118"/>
-      <c r="AP50" s="118"/>
+      <c r="AL50" s="115"/>
+      <c r="AM50" s="115"/>
+      <c r="AN50" s="115"/>
+      <c r="AO50" s="115"/>
+      <c r="AP50" s="115"/>
       <c r="AQ50" s="56"/>
       <c r="AR50" s="57"/>
       <c r="AS50" s="57"/>
@@ -9042,36 +9181,36 @@
       <c r="AV50" s="61"/>
       <c r="AW50" s="61"/>
       <c r="AX50" s="61"/>
-      <c r="AY50" s="179"/>
-      <c r="AZ50" s="179"/>
+      <c r="AY50" s="126"/>
+      <c r="AZ50" s="126"/>
       <c r="BA50" s="57"/>
       <c r="BB50" s="57"/>
       <c r="BC50" s="57"/>
       <c r="BD50" s="57"/>
       <c r="BE50" s="59"/>
-      <c r="BF50" s="119"/>
-      <c r="BG50" s="120"/>
-      <c r="BH50" s="120"/>
-      <c r="BI50" s="120"/>
-      <c r="BJ50" s="120"/>
+      <c r="BF50" s="116"/>
+      <c r="BG50" s="117"/>
+      <c r="BH50" s="117"/>
+      <c r="BI50" s="117"/>
+      <c r="BJ50" s="117"/>
       <c r="BK50" s="56"/>
       <c r="BL50" s="57"/>
       <c r="BM50" s="57"/>
       <c r="BN50" s="57"/>
       <c r="BO50" s="57"/>
-      <c r="BP50" s="122"/>
-      <c r="BQ50" s="122"/>
-      <c r="BR50" s="122"/>
-      <c r="BS50" s="122"/>
-      <c r="BT50" s="123"/>
+      <c r="BP50" s="119"/>
+      <c r="BQ50" s="119"/>
+      <c r="BR50" s="119"/>
+      <c r="BS50" s="119"/>
+      <c r="BT50" s="120"/>
     </row>
     <row r="51" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="101"/>
+      <c r="B51" s="98"/>
       <c r="C51" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E51" s="48">
         <v>4</v>
@@ -9086,7 +9225,7 @@
       <c r="H51" s="51">
         <v>4</v>
       </c>
-      <c r="I51" s="125">
+      <c r="I51" s="122">
         <v>45001</v>
       </c>
       <c r="J51" s="52">
@@ -9125,11 +9264,11 @@
       <c r="AI51" s="57"/>
       <c r="AJ51" s="57"/>
       <c r="AK51" s="57"/>
-      <c r="AL51" s="118"/>
-      <c r="AM51" s="118"/>
-      <c r="AN51" s="118"/>
-      <c r="AO51" s="118"/>
-      <c r="AP51" s="118"/>
+      <c r="AL51" s="115"/>
+      <c r="AM51" s="115"/>
+      <c r="AN51" s="115"/>
+      <c r="AO51" s="115"/>
+      <c r="AP51" s="115"/>
       <c r="AQ51" s="56"/>
       <c r="AR51" s="57"/>
       <c r="AS51" s="57"/>
@@ -9138,36 +9277,36 @@
       <c r="AV51" s="61"/>
       <c r="AW51" s="61"/>
       <c r="AX51" s="61"/>
-      <c r="AY51" s="179"/>
-      <c r="AZ51" s="179"/>
+      <c r="AY51" s="126"/>
+      <c r="AZ51" s="126"/>
       <c r="BA51" s="57"/>
       <c r="BB51" s="57"/>
       <c r="BC51" s="57"/>
       <c r="BD51" s="57"/>
       <c r="BE51" s="59"/>
-      <c r="BF51" s="119"/>
-      <c r="BG51" s="120"/>
-      <c r="BH51" s="120"/>
-      <c r="BI51" s="120"/>
-      <c r="BJ51" s="120"/>
+      <c r="BF51" s="116"/>
+      <c r="BG51" s="117"/>
+      <c r="BH51" s="117"/>
+      <c r="BI51" s="117"/>
+      <c r="BJ51" s="117"/>
       <c r="BK51" s="56"/>
       <c r="BL51" s="57"/>
       <c r="BM51" s="57"/>
       <c r="BN51" s="57"/>
       <c r="BO51" s="57"/>
-      <c r="BP51" s="122"/>
-      <c r="BQ51" s="122"/>
-      <c r="BR51" s="122"/>
-      <c r="BS51" s="122"/>
-      <c r="BT51" s="123"/>
+      <c r="BP51" s="119"/>
+      <c r="BQ51" s="119"/>
+      <c r="BR51" s="119"/>
+      <c r="BS51" s="119"/>
+      <c r="BT51" s="120"/>
     </row>
     <row r="52" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="101"/>
+      <c r="B52" s="98"/>
       <c r="C52" s="46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E52" s="48">
         <v>3</v>
@@ -9221,11 +9360,11 @@
       <c r="AI52" s="57"/>
       <c r="AJ52" s="57"/>
       <c r="AK52" s="57"/>
-      <c r="AL52" s="118"/>
-      <c r="AM52" s="118"/>
-      <c r="AN52" s="118"/>
-      <c r="AO52" s="118"/>
-      <c r="AP52" s="118"/>
+      <c r="AL52" s="115"/>
+      <c r="AM52" s="115"/>
+      <c r="AN52" s="115"/>
+      <c r="AO52" s="115"/>
+      <c r="AP52" s="115"/>
       <c r="AQ52" s="56"/>
       <c r="AR52" s="57"/>
       <c r="AS52" s="57"/>
@@ -9241,29 +9380,29 @@
       <c r="BC52" s="57"/>
       <c r="BD52" s="57"/>
       <c r="BE52" s="59"/>
-      <c r="BF52" s="119"/>
-      <c r="BG52" s="120"/>
-      <c r="BH52" s="120"/>
-      <c r="BI52" s="180"/>
-      <c r="BJ52" s="180"/>
+      <c r="BF52" s="116"/>
+      <c r="BG52" s="117"/>
+      <c r="BH52" s="117"/>
+      <c r="BI52" s="127"/>
+      <c r="BJ52" s="127"/>
       <c r="BK52" s="56"/>
       <c r="BL52" s="57"/>
       <c r="BM52" s="57"/>
       <c r="BN52" s="57"/>
       <c r="BO52" s="57"/>
-      <c r="BP52" s="122"/>
-      <c r="BQ52" s="122"/>
-      <c r="BR52" s="122"/>
-      <c r="BS52" s="122"/>
-      <c r="BT52" s="123"/>
+      <c r="BP52" s="119"/>
+      <c r="BQ52" s="119"/>
+      <c r="BR52" s="119"/>
+      <c r="BS52" s="119"/>
+      <c r="BT52" s="120"/>
     </row>
     <row r="53" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="101"/>
+      <c r="B53" s="98"/>
       <c r="C53" s="46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E53" s="48">
         <v>2</v>
@@ -9317,11 +9456,11 @@
       <c r="AI53" s="57"/>
       <c r="AJ53" s="57"/>
       <c r="AK53" s="57"/>
-      <c r="AL53" s="118"/>
-      <c r="AM53" s="118"/>
-      <c r="AN53" s="118"/>
-      <c r="AO53" s="118"/>
-      <c r="AP53" s="118"/>
+      <c r="AL53" s="115"/>
+      <c r="AM53" s="115"/>
+      <c r="AN53" s="115"/>
+      <c r="AO53" s="115"/>
+      <c r="AP53" s="115"/>
       <c r="AQ53" s="56"/>
       <c r="AR53" s="57"/>
       <c r="AS53" s="57"/>
@@ -9337,29 +9476,29 @@
       <c r="BC53" s="57"/>
       <c r="BD53" s="57"/>
       <c r="BE53" s="59"/>
-      <c r="BF53" s="119"/>
-      <c r="BG53" s="120"/>
-      <c r="BH53" s="180"/>
-      <c r="BI53" s="180"/>
-      <c r="BJ53" s="120"/>
+      <c r="BF53" s="116"/>
+      <c r="BG53" s="117"/>
+      <c r="BH53" s="127"/>
+      <c r="BI53" s="127"/>
+      <c r="BJ53" s="117"/>
       <c r="BK53" s="56"/>
       <c r="BL53" s="57"/>
       <c r="BM53" s="57"/>
       <c r="BN53" s="57"/>
       <c r="BO53" s="57"/>
-      <c r="BP53" s="122"/>
-      <c r="BQ53" s="122"/>
-      <c r="BR53" s="122"/>
-      <c r="BS53" s="122"/>
-      <c r="BT53" s="123"/>
+      <c r="BP53" s="119"/>
+      <c r="BQ53" s="119"/>
+      <c r="BR53" s="119"/>
+      <c r="BS53" s="119"/>
+      <c r="BT53" s="120"/>
     </row>
     <row r="54" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="101"/>
+      <c r="B54" s="98"/>
       <c r="C54" s="46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E54" s="48">
         <v>3</v>
@@ -9413,11 +9552,11 @@
       <c r="AI54" s="57"/>
       <c r="AJ54" s="57"/>
       <c r="AK54" s="57"/>
-      <c r="AL54" s="118"/>
-      <c r="AM54" s="118"/>
-      <c r="AN54" s="118"/>
-      <c r="AO54" s="118"/>
-      <c r="AP54" s="118"/>
+      <c r="AL54" s="115"/>
+      <c r="AM54" s="115"/>
+      <c r="AN54" s="115"/>
+      <c r="AO54" s="115"/>
+      <c r="AP54" s="115"/>
       <c r="AQ54" s="56"/>
       <c r="AR54" s="57"/>
       <c r="AS54" s="57"/>
@@ -9433,29 +9572,29 @@
       <c r="BC54" s="57"/>
       <c r="BD54" s="57"/>
       <c r="BE54" s="59"/>
-      <c r="BF54" s="119"/>
-      <c r="BG54" s="120"/>
-      <c r="BH54" s="120"/>
-      <c r="BI54" s="180"/>
-      <c r="BJ54" s="180"/>
+      <c r="BF54" s="116"/>
+      <c r="BG54" s="117"/>
+      <c r="BH54" s="117"/>
+      <c r="BI54" s="127"/>
+      <c r="BJ54" s="127"/>
       <c r="BK54" s="56"/>
       <c r="BL54" s="57"/>
       <c r="BM54" s="57"/>
       <c r="BN54" s="57"/>
       <c r="BO54" s="57"/>
-      <c r="BP54" s="122"/>
-      <c r="BQ54" s="122"/>
-      <c r="BR54" s="122"/>
-      <c r="BS54" s="122"/>
-      <c r="BT54" s="123"/>
+      <c r="BP54" s="119"/>
+      <c r="BQ54" s="119"/>
+      <c r="BR54" s="119"/>
+      <c r="BS54" s="119"/>
+      <c r="BT54" s="120"/>
     </row>
     <row r="55" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="101"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E55" s="48">
         <v>10</v>
@@ -9509,11 +9648,11 @@
       <c r="AI55" s="57"/>
       <c r="AJ55" s="57"/>
       <c r="AK55" s="57"/>
-      <c r="AL55" s="118"/>
-      <c r="AM55" s="118"/>
-      <c r="AN55" s="118"/>
-      <c r="AO55" s="118"/>
-      <c r="AP55" s="118"/>
+      <c r="AL55" s="115"/>
+      <c r="AM55" s="115"/>
+      <c r="AN55" s="115"/>
+      <c r="AO55" s="115"/>
+      <c r="AP55" s="115"/>
       <c r="AQ55" s="56"/>
       <c r="AR55" s="57"/>
       <c r="AS55" s="57"/>
@@ -9529,28 +9668,28 @@
       <c r="BC55" s="57"/>
       <c r="BD55" s="57"/>
       <c r="BE55" s="59"/>
-      <c r="BF55" s="119"/>
-      <c r="BG55" s="120"/>
-      <c r="BH55" s="120"/>
-      <c r="BI55" s="120"/>
-      <c r="BJ55" s="120"/>
-      <c r="BK55" s="181"/>
-      <c r="BL55" s="181"/>
-      <c r="BM55" s="181"/>
+      <c r="BF55" s="116"/>
+      <c r="BG55" s="117"/>
+      <c r="BH55" s="117"/>
+      <c r="BI55" s="117"/>
+      <c r="BJ55" s="117"/>
+      <c r="BK55" s="128"/>
+      <c r="BL55" s="128"/>
+      <c r="BM55" s="128"/>
       <c r="BN55" s="57"/>
       <c r="BO55" s="57"/>
-      <c r="BP55" s="122"/>
-      <c r="BQ55" s="122"/>
-      <c r="BR55" s="122"/>
-      <c r="BS55" s="122"/>
-      <c r="BT55" s="123"/>
+      <c r="BP55" s="119"/>
+      <c r="BQ55" s="119"/>
+      <c r="BR55" s="119"/>
+      <c r="BS55" s="119"/>
+      <c r="BT55" s="120"/>
     </row>
     <row r="56" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="124">
+      <c r="B56" s="121">
         <v>5</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="34">
@@ -9637,12 +9776,12 @@
       <c r="BT56" s="44"/>
     </row>
     <row r="57" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="101"/>
+      <c r="B57" s="98"/>
       <c r="C57" s="46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E57" s="48">
         <v>10</v>
@@ -9660,7 +9799,7 @@
       <c r="I57" s="52">
         <v>45022</v>
       </c>
-      <c r="J57" s="125">
+      <c r="J57" s="122">
         <v>45026</v>
       </c>
       <c r="K57" s="54">
@@ -9696,11 +9835,11 @@
       <c r="AI57" s="57"/>
       <c r="AJ57" s="57"/>
       <c r="AK57" s="57"/>
-      <c r="AL57" s="118"/>
-      <c r="AM57" s="118"/>
-      <c r="AN57" s="118"/>
-      <c r="AO57" s="118"/>
-      <c r="AP57" s="118"/>
+      <c r="AL57" s="115"/>
+      <c r="AM57" s="115"/>
+      <c r="AN57" s="115"/>
+      <c r="AO57" s="115"/>
+      <c r="AP57" s="115"/>
       <c r="AQ57" s="56"/>
       <c r="AR57" s="57"/>
       <c r="AS57" s="57"/>
@@ -9716,29 +9855,29 @@
       <c r="BC57" s="57"/>
       <c r="BD57" s="57"/>
       <c r="BE57" s="59"/>
-      <c r="BF57" s="119"/>
-      <c r="BG57" s="120"/>
-      <c r="BH57" s="120"/>
-      <c r="BI57" s="120"/>
-      <c r="BJ57" s="120"/>
+      <c r="BF57" s="116"/>
+      <c r="BG57" s="117"/>
+      <c r="BH57" s="117"/>
+      <c r="BI57" s="117"/>
+      <c r="BJ57" s="117"/>
       <c r="BK57" s="56"/>
       <c r="BL57" s="57"/>
       <c r="BM57" s="57"/>
-      <c r="BN57" s="181"/>
-      <c r="BO57" s="181"/>
-      <c r="BP57" s="181"/>
-      <c r="BQ57" s="122"/>
-      <c r="BR57" s="122"/>
-      <c r="BS57" s="122"/>
-      <c r="BT57" s="123"/>
+      <c r="BN57" s="128"/>
+      <c r="BO57" s="128"/>
+      <c r="BP57" s="128"/>
+      <c r="BQ57" s="119"/>
+      <c r="BR57" s="119"/>
+      <c r="BS57" s="119"/>
+      <c r="BT57" s="120"/>
     </row>
     <row r="58" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="101"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E58" s="48">
         <v>7</v>
@@ -9753,10 +9892,10 @@
       <c r="H58" s="51">
         <v>6</v>
       </c>
-      <c r="I58" s="125">
+      <c r="I58" s="122">
         <v>45027</v>
       </c>
-      <c r="J58" s="125">
+      <c r="J58" s="122">
         <v>45028</v>
       </c>
       <c r="K58" s="54">
@@ -9792,11 +9931,11 @@
       <c r="AI58" s="57"/>
       <c r="AJ58" s="57"/>
       <c r="AK58" s="57"/>
-      <c r="AL58" s="118"/>
-      <c r="AM58" s="118"/>
-      <c r="AN58" s="118"/>
-      <c r="AO58" s="118"/>
-      <c r="AP58" s="118"/>
+      <c r="AL58" s="115"/>
+      <c r="AM58" s="115"/>
+      <c r="AN58" s="115"/>
+      <c r="AO58" s="115"/>
+      <c r="AP58" s="115"/>
       <c r="AQ58" s="56"/>
       <c r="AR58" s="57"/>
       <c r="AS58" s="57"/>
@@ -9812,29 +9951,29 @@
       <c r="BC58" s="57"/>
       <c r="BD58" s="57"/>
       <c r="BE58" s="59"/>
-      <c r="BF58" s="119"/>
-      <c r="BG58" s="120"/>
-      <c r="BH58" s="120"/>
-      <c r="BI58" s="120"/>
-      <c r="BJ58" s="120"/>
+      <c r="BF58" s="116"/>
+      <c r="BG58" s="117"/>
+      <c r="BH58" s="117"/>
+      <c r="BI58" s="117"/>
+      <c r="BJ58" s="117"/>
       <c r="BK58" s="56"/>
       <c r="BL58" s="57"/>
       <c r="BM58" s="57"/>
       <c r="BN58" s="57"/>
       <c r="BO58" s="57"/>
-      <c r="BP58" s="122"/>
-      <c r="BQ58" s="181"/>
-      <c r="BR58" s="181"/>
-      <c r="BS58" s="122"/>
-      <c r="BT58" s="123"/>
+      <c r="BP58" s="119"/>
+      <c r="BQ58" s="128"/>
+      <c r="BR58" s="128"/>
+      <c r="BS58" s="119"/>
+      <c r="BT58" s="120"/>
     </row>
     <row r="59" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="45"/>
       <c r="C59" s="46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E59" s="48">
         <v>5</v>
@@ -9849,10 +9988,10 @@
       <c r="H59" s="51">
         <v>6</v>
       </c>
-      <c r="I59" s="125">
+      <c r="I59" s="122">
         <v>45029</v>
       </c>
-      <c r="J59" s="125">
+      <c r="J59" s="122">
         <v>45030</v>
       </c>
       <c r="K59" s="54">
@@ -9883,17 +10022,17 @@
       <c r="AD59" s="60"/>
       <c r="AE59" s="60"/>
       <c r="AF59" s="60"/>
-      <c r="AG59" s="117"/>
+      <c r="AG59" s="114"/>
       <c r="AH59" s="57"/>
       <c r="AI59" s="57"/>
       <c r="AJ59" s="57"/>
       <c r="AK59" s="57"/>
-      <c r="AL59" s="118"/>
-      <c r="AM59" s="118"/>
-      <c r="AN59" s="118"/>
-      <c r="AO59" s="118"/>
-      <c r="AP59" s="118"/>
-      <c r="AQ59" s="117"/>
+      <c r="AL59" s="115"/>
+      <c r="AM59" s="115"/>
+      <c r="AN59" s="115"/>
+      <c r="AO59" s="115"/>
+      <c r="AP59" s="115"/>
+      <c r="AQ59" s="114"/>
       <c r="AR59" s="57"/>
       <c r="AS59" s="57"/>
       <c r="AT59" s="57"/>
@@ -9908,21 +10047,21 @@
       <c r="BC59" s="57"/>
       <c r="BD59" s="57"/>
       <c r="BE59" s="59"/>
-      <c r="BF59" s="119"/>
-      <c r="BG59" s="120"/>
-      <c r="BH59" s="120"/>
-      <c r="BI59" s="120"/>
-      <c r="BJ59" s="120"/>
-      <c r="BK59" s="117"/>
+      <c r="BF59" s="116"/>
+      <c r="BG59" s="117"/>
+      <c r="BH59" s="117"/>
+      <c r="BI59" s="117"/>
+      <c r="BJ59" s="117"/>
+      <c r="BK59" s="114"/>
       <c r="BL59" s="57"/>
       <c r="BM59" s="57"/>
       <c r="BN59" s="57"/>
       <c r="BO59" s="57"/>
-      <c r="BP59" s="122"/>
-      <c r="BQ59" s="122"/>
-      <c r="BR59" s="122"/>
-      <c r="BS59" s="181"/>
-      <c r="BT59" s="181"/>
+      <c r="BP59" s="119"/>
+      <c r="BQ59" s="119"/>
+      <c r="BR59" s="119"/>
+      <c r="BS59" s="128"/>
+      <c r="BT59" s="128"/>
     </row>
     <row r="60" spans="2:74" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E60" s="67" t="s">
@@ -11096,68 +11235,15 @@
     <row r="66" spans="3:74" ht="381.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="3:74" ht="223.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="3:74" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E69" s="144" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="145"/>
-      <c r="G69" s="145"/>
-      <c r="H69" s="145"/>
-      <c r="I69" s="145"/>
-      <c r="J69" s="145"/>
-      <c r="K69" s="145"/>
-      <c r="L69" s="145"/>
-      <c r="M69" s="145"/>
-      <c r="N69" s="145"/>
-      <c r="O69" s="145"/>
-      <c r="P69" s="145"/>
-      <c r="Q69" s="145"/>
-      <c r="R69" s="145"/>
-      <c r="S69" s="145"/>
-      <c r="T69" s="145"/>
-      <c r="U69" s="145"/>
-      <c r="V69" s="145"/>
-      <c r="W69" s="145"/>
-      <c r="X69" s="145"/>
-      <c r="Y69" s="145"/>
-      <c r="Z69" s="145"/>
-      <c r="AA69" s="145"/>
-      <c r="AB69" s="145"/>
-      <c r="AC69" s="145"/>
-      <c r="AD69" s="145"/>
-      <c r="AE69" s="145"/>
-      <c r="AF69" s="145"/>
-      <c r="AG69" s="145"/>
-      <c r="AH69" s="145"/>
-      <c r="AI69" s="145"/>
-      <c r="AJ69" s="145"/>
-      <c r="AK69" s="145"/>
-      <c r="AL69" s="145"/>
-      <c r="AM69" s="145"/>
-      <c r="AN69" s="145"/>
-      <c r="AO69" s="145"/>
-      <c r="AP69" s="145"/>
-      <c r="AQ69" s="145"/>
-      <c r="AR69" s="145"/>
-      <c r="AS69" s="145"/>
-      <c r="AT69" s="145"/>
-      <c r="AU69" s="145"/>
-      <c r="AV69" s="145"/>
-      <c r="AW69" s="145"/>
-      <c r="AX69" s="145"/>
-      <c r="AY69" s="145"/>
-      <c r="AZ69" s="145"/>
-      <c r="BA69" s="145"/>
-      <c r="BB69" s="146"/>
-    </row>
+    <row r="69" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="3:74" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
+    <row r="73" spans="3:74" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
     </row>
+    <row r="74" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="3:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12108,10 +12194,15 @@
     <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="E69:BB69"/>
+  <mergeCells count="22">
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="BF9:BJ9"/>
     <mergeCell ref="BK9:BO9"/>
     <mergeCell ref="BP9:BT9"/>
@@ -12127,13 +12218,6 @@
     <mergeCell ref="AQ9:AU9"/>
     <mergeCell ref="AV9:AZ9"/>
     <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12146,10 +12230,10 @@
     <tabColor rgb="FFDD8047"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:N1000"/>
+  <dimension ref="B1:M1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12163,15 +12247,14 @@
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="39.1640625" customWidth="1"/>
-    <col min="11" max="11" width="3" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="26" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="25" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12183,11 +12266,10 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -12197,375 +12279,627 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="80" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="80" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="81" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="K3" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="83" t="s">
-        <v>52</v>
+      <c r="M3" s="83" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86"/>
+      <c r="C4" s="85">
+        <v>3</v>
+      </c>
+      <c r="D4" s="176" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>91</v>
+      </c>
       <c r="H4" s="87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="L4" s="90" t="s">
+      <c r="K4" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="84"/>
+      <c r="C5" s="85">
+        <v>3</v>
+      </c>
+      <c r="D5" s="177"/>
+      <c r="E5" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="87">
+        <v>4</v>
+      </c>
+      <c r="I5" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="91">
-        <v>1</v>
+      <c r="K5" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="90">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="84"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87">
+    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="84"/>
+      <c r="C6" s="85">
+        <v>3</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="87">
         <v>2</v>
       </c>
-      <c r="I5" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="89"/>
-      <c r="L5" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="91">
+      <c r="I6" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="84"/>
+      <c r="C7" s="85">
+        <v>3</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="87">
         <v>2</v>
       </c>
+      <c r="I7" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="90">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87">
-        <v>8</v>
-      </c>
-      <c r="I6" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="89"/>
-      <c r="L6" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87">
-        <v>8</v>
-      </c>
-      <c r="I7" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="89"/>
-      <c r="N7" s="91">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
+      <c r="C8" s="85">
+        <v>3</v>
+      </c>
+      <c r="D8" s="176" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="86" t="s">
+        <v>91</v>
+      </c>
       <c r="H8" s="87">
         <v>4</v>
       </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="89"/>
-      <c r="N8" s="91">
+      <c r="I8" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="90">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
+      <c r="C9" s="85">
+        <v>3</v>
+      </c>
+      <c r="D9" s="177"/>
+      <c r="E9" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="86" t="s">
+        <v>91</v>
+      </c>
       <c r="H9" s="87">
-        <v>80</v>
-      </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="89"/>
-      <c r="N9" s="91">
+        <v>4</v>
+      </c>
+      <c r="I9" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="90">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
+      <c r="C10" s="85">
+        <v>4</v>
+      </c>
+      <c r="D10" s="176" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>91</v>
+      </c>
       <c r="H10" s="87">
         <v>16</v>
       </c>
-      <c r="I10" s="88"/>
-      <c r="J10" s="89"/>
-      <c r="N10" s="91">
+      <c r="I10" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="90">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="C11" s="85">
+        <v>4</v>
+      </c>
+      <c r="D11" s="177"/>
+      <c r="E11" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="86" t="s">
+        <v>91</v>
+      </c>
       <c r="H11" s="87">
         <v>8</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
-      <c r="N11" s="95">
+      <c r="I11" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="93">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
+      <c r="C12" s="85">
+        <v>3</v>
+      </c>
+      <c r="D12" s="176" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="86" t="s">
+        <v>91</v>
+      </c>
       <c r="H12" s="87">
-        <v>4</v>
-      </c>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="C13" s="85">
+        <v>3</v>
+      </c>
+      <c r="D13" s="177"/>
+      <c r="E13" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="86" t="s">
+        <v>91</v>
+      </c>
       <c r="H13" s="87">
         <v>2</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
+      <c r="I13" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
+      <c r="C14" s="85">
+        <v>4</v>
+      </c>
+      <c r="D14" s="176" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="86" t="s">
+        <v>91</v>
+      </c>
       <c r="H14" s="87">
-        <v>24</v>
-      </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
+      <c r="C15" s="85">
+        <v>4</v>
+      </c>
+      <c r="D15" s="177"/>
+      <c r="E15" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="86" t="s">
+        <v>91</v>
+      </c>
       <c r="H15" s="87">
-        <v>40</v>
-      </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="89"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
+      <c r="C16" s="85">
+        <v>5</v>
+      </c>
+      <c r="D16" s="176" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="86" t="s">
+        <v>91</v>
+      </c>
       <c r="H16" s="87">
         <v>8</v>
       </c>
-      <c r="I16" s="88"/>
-      <c r="J16" s="89"/>
+      <c r="I16" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="89"/>
+      <c r="C17" s="85">
+        <v>5</v>
+      </c>
+      <c r="D17" s="178"/>
+      <c r="E17" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="87">
+        <v>8</v>
+      </c>
+      <c r="I17" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="89"/>
+      <c r="C18" s="85">
+        <v>5</v>
+      </c>
+      <c r="D18" s="177"/>
+      <c r="E18" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="87">
+        <v>4</v>
+      </c>
+      <c r="I18" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="89"/>
+      <c r="C19" s="85">
+        <v>5</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="87">
+        <v>2</v>
+      </c>
+      <c r="I19" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
+      <c r="C20" s="85">
+        <v>3</v>
+      </c>
+      <c r="D20" s="176" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="87">
+        <v>4</v>
+      </c>
+      <c r="I20" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="89"/>
+      <c r="C21" s="85">
+        <v>3</v>
+      </c>
+      <c r="D21" s="178"/>
+      <c r="E21" s="85" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="87">
+        <v>4</v>
+      </c>
+      <c r="I21" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="89"/>
+      <c r="C22" s="85">
+        <v>5</v>
+      </c>
+      <c r="D22" s="177"/>
+      <c r="E22" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="87">
+        <v>4</v>
+      </c>
+      <c r="I22" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="89"/>
+      <c r="C23" s="85">
+        <v>3</v>
+      </c>
+      <c r="D23" s="176" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="87">
+        <v>2</v>
+      </c>
+      <c r="I23" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="89"/>
+      <c r="C24" s="85">
+        <v>3</v>
+      </c>
+      <c r="D24" s="178"/>
+      <c r="E24" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="87">
+        <v>4</v>
+      </c>
+      <c r="I24" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="89"/>
+      <c r="C25" s="85">
+        <v>5</v>
+      </c>
+      <c r="D25" s="177"/>
+      <c r="E25" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="87">
+        <v>4</v>
+      </c>
+      <c r="I25" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="89"/>
+      <c r="C26" s="85">
+        <v>5</v>
+      </c>
+      <c r="D26" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="87">
+        <v>8</v>
+      </c>
+      <c r="I26" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="89"/>
+      <c r="C27" s="85">
+        <v>4</v>
+      </c>
+      <c r="D27" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="87">
+        <v>16</v>
+      </c>
+      <c r="I27" s="88" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="84"/>
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
@@ -12574,9 +12908,8 @@
       <c r="G28" s="86"/>
       <c r="H28" s="87"/>
       <c r="I28" s="88"/>
-      <c r="J28" s="89"/>
     </row>
-    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="84"/>
       <c r="C29" s="85"/>
       <c r="D29" s="85"/>
@@ -12585,9 +12918,8 @@
       <c r="G29" s="86"/>
       <c r="H29" s="87"/>
       <c r="I29" s="88"/>
-      <c r="J29" s="89"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="84"/>
       <c r="C30" s="85"/>
       <c r="D30" s="85"/>
@@ -12596,9 +12928,8 @@
       <c r="G30" s="86"/>
       <c r="H30" s="87"/>
       <c r="I30" s="88"/>
-      <c r="J30" s="89"/>
     </row>
-    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="84"/>
       <c r="C31" s="85"/>
       <c r="D31" s="85"/>
@@ -12607,9 +12938,8 @@
       <c r="G31" s="86"/>
       <c r="H31" s="87"/>
       <c r="I31" s="88"/>
-      <c r="J31" s="89"/>
     </row>
-    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="84"/>
       <c r="C32" s="85"/>
       <c r="D32" s="85"/>
@@ -12618,9 +12948,8 @@
       <c r="G32" s="86"/>
       <c r="H32" s="87"/>
       <c r="I32" s="88"/>
-      <c r="J32" s="89"/>
     </row>
-    <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="84"/>
       <c r="C33" s="85"/>
       <c r="D33" s="85"/>
@@ -12629,9 +12958,8 @@
       <c r="G33" s="86"/>
       <c r="H33" s="87"/>
       <c r="I33" s="88"/>
-      <c r="J33" s="89"/>
     </row>
-    <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="84"/>
       <c r="C34" s="85"/>
       <c r="D34" s="85"/>
@@ -12640,9 +12968,8 @@
       <c r="G34" s="86"/>
       <c r="H34" s="87"/>
       <c r="I34" s="88"/>
-      <c r="J34" s="89"/>
     </row>
-    <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="84"/>
       <c r="C35" s="85"/>
       <c r="D35" s="85"/>
@@ -12651,9 +12978,8 @@
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
       <c r="I35" s="88"/>
-      <c r="J35" s="89"/>
     </row>
-    <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="84"/>
       <c r="C36" s="85"/>
       <c r="D36" s="85"/>
@@ -12662,9 +12988,8 @@
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
       <c r="I36" s="88"/>
-      <c r="J36" s="89"/>
     </row>
-    <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="84"/>
       <c r="C37" s="85"/>
       <c r="D37" s="85"/>
@@ -12673,9 +12998,8 @@
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
       <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
     </row>
-    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="84"/>
       <c r="C38" s="85"/>
       <c r="D38" s="85"/>
@@ -12684,9 +13008,8 @@
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
       <c r="I38" s="88"/>
-      <c r="J38" s="89"/>
     </row>
-    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="84"/>
       <c r="C39" s="85"/>
       <c r="D39" s="85"/>
@@ -12695,27 +13018,25 @@
       <c r="G39" s="86"/>
       <c r="H39" s="87"/>
       <c r="I39" s="88"/>
-      <c r="J39" s="89"/>
     </row>
-    <row r="40" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="96"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
+    <row r="40" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="94"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="97"/>
     </row>
-    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13669,6 +13990,16 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+  </mergeCells>
   <conditionalFormatting sqref="H4:H40">
     <cfRule type="colorScale" priority="11">
       <colorScale>
@@ -13681,54 +14012,54 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I40">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>$L$6</formula>
+      <formula>$K$6</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>$L$5</formula>
+      <formula>$K$5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>$L$4</formula>
+      <formula>$K$4</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH(("Not Started"),(I4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="formula" val="$L$4"/>
-        <cfvo type="formula" val="$L$5"/>
-        <cfvo type="formula" val="$L$6"/>
+        <cfvo type="formula" val="$K$4"/>
+        <cfvo type="formula" val="$K$5"/>
+        <cfvo type="formula" val="$K$6"/>
         <color rgb="FFF8E5DA"/>
         <color rgb="FFF7EFDE"/>
         <color rgb="FFE9E7E7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
+  <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
-      <formula>$L$4</formula>
+      <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L6">
+  <conditionalFormatting sqref="K4:K6">
     <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH(("In Progress"),(L4))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("In Progress"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="formula" val="$L$5"/>
-        <cfvo type="formula" val="$L$5"/>
-        <cfvo type="formula" val="$L$6"/>
+        <cfvo type="formula" val="$K$5"/>
+        <cfvo type="formula" val="$K$5"/>
+        <cfvo type="formula" val="$K$6"/>
         <color rgb="FFF8E5DA"/>
         <color rgb="FFF7EFDE"/>
         <color rgb="FFE9E7E7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
+  <conditionalFormatting sqref="K6">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
-      <formula>$L$6</formula>
+      <formula>$K$6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N11">
+  <conditionalFormatting sqref="M4:M11">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -13740,10 +14071,10 @@
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H40" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>$N$4:$N$11</formula1>
+      <formula1>$M$4:$M$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I40" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>$L$4:$L$6</formula1>
+      <formula1>$K$4:$K$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13775,7 +14106,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
@@ -13785,33 +14116,33 @@
     </row>
     <row r="2" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>63</v>
-      </c>
       <c r="E2" s="81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="82" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" s="88">
         <v>44847</v>
@@ -13819,16 +14150,16 @@
     </row>
     <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>69</v>
-      </c>
       <c r="E4" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" s="88">
         <v>44847</v>
@@ -13836,16 +14167,16 @@
     </row>
     <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="88">
         <v>44847</v>
@@ -13853,16 +14184,16 @@
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" s="88">
         <v>44847</v>
@@ -13870,16 +14201,16 @@
     </row>
     <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="88">
         <v>44847</v>
@@ -13887,16 +14218,16 @@
     </row>
     <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="88">
         <v>44847</v>
@@ -13904,16 +14235,16 @@
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="88">
         <v>44847</v>
@@ -13921,16 +14252,16 @@
     </row>
     <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="88">
         <v>44847</v>
@@ -13938,16 +14269,16 @@
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="88">
         <v>44847</v>
@@ -13955,16 +14286,16 @@
     </row>
     <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12" s="88">
         <v>44847</v>
@@ -13972,16 +14303,16 @@
     </row>
     <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="88">
         <v>44847</v>
@@ -13989,16 +14320,16 @@
     </row>
     <row r="14" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>99</v>
-      </c>
       <c r="E14" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14" s="88">
         <v>44847</v>
@@ -14006,16 +14337,16 @@
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F15" s="88">
         <v>44847</v>
@@ -14023,16 +14354,16 @@
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E16" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16" s="88">
         <v>44847</v>
@@ -14040,16 +14371,16 @@
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="85" t="s">
-        <v>104</v>
-      </c>
       <c r="E17" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="88">
         <v>44847</v>
@@ -14057,16 +14388,16 @@
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18" s="88">
         <v>44847</v>
@@ -14074,16 +14405,16 @@
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D19" s="85" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F19" s="88">
         <v>44847</v>
@@ -14091,16 +14422,16 @@
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E20" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F20" s="88">
         <v>44847</v>
@@ -14108,16 +14439,16 @@
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" s="85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="86" t="s">
         <v>91</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>93</v>
       </c>
       <c r="F21" s="88">
         <v>44847</v>
@@ -14125,16 +14456,16 @@
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D22" s="85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F22" s="88">
         <v>44847</v>
@@ -14295,11 +14626,11 @@
       <c r="F44" s="88"/>
     </row>
     <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="99"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="97"/>
     </row>
     <row r="46" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Documentation/Scrum-Project-Management.xlsx
+++ b/Documentation/Scrum-Project-Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroficorella/Developer/GitHub/LABAP/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4012FEB0-CA99-A849-A641-142E50059F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1339CECB-A248-1343-9FF0-59BBF69C7B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="213">
   <si>
     <t>SCRUM PROJECT MANAGEMENT GANTT CHART</t>
   </si>
@@ -665,6 +665,15 @@
   </si>
   <si>
     <t>As a logged user i want to visualize an image so that i can visualize its details and comments</t>
+  </si>
+  <si>
+    <t>1 - High</t>
+  </si>
+  <si>
+    <t>2 - Med</t>
+  </si>
+  <si>
+    <t>3 - Low</t>
   </si>
 </sst>
 </file>
@@ -2277,6 +2286,36 @@
     <xf numFmtId="0" fontId="10" fillId="48" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="49" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="50" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2334,43 +2373,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2434,6 +2443,24 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2476,24 +2503,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFEB9C"/>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
       <alignment wrapText="0" shrinkToFit="0"/>
@@ -4514,8 +4523,8 @@
   </sheetPr>
   <dimension ref="B1:BV1024"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AA75" sqref="AA75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4628,7 +4637,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="160" t="s">
+      <c r="K3" s="129" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -4705,7 +4714,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="161"/>
+      <c r="K4" s="130"/>
       <c r="L4" s="10" t="s">
         <v>4</v>
       </c>
@@ -4780,7 +4789,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="161"/>
+      <c r="K5" s="130"/>
       <c r="L5" s="14" t="s">
         <v>5</v>
       </c>
@@ -4855,7 +4864,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="161"/>
+      <c r="K6" s="130"/>
       <c r="L6" s="16" t="s">
         <v>6</v>
       </c>
@@ -4930,7 +4939,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="161"/>
+      <c r="K7" s="130"/>
       <c r="L7" s="18" t="s">
         <v>7</v>
       </c>
@@ -5005,7 +5014,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="162"/>
+      <c r="K8" s="131"/>
       <c r="L8" s="105" t="s">
         <v>7</v>
       </c>
@@ -5071,124 +5080,124 @@
       <c r="BT8" s="107"/>
     </row>
     <row r="9" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="165" t="s">
+      <c r="C9" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="169" t="s">
+      <c r="E9" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="170"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="172" t="s">
+      <c r="F9" s="139"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="174" t="s">
+      <c r="I9" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="136" t="s">
+      <c r="J9" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="138" t="s">
+      <c r="K9" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="139" t="s">
+      <c r="L9" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="141" t="s">
+      <c r="M9" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="144" t="s">
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="142"/>
-      <c r="T9" s="142"/>
-      <c r="U9" s="142"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="145" t="s">
+      <c r="S9" s="158"/>
+      <c r="T9" s="158"/>
+      <c r="U9" s="158"/>
+      <c r="V9" s="159"/>
+      <c r="W9" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="146"/>
-      <c r="Y9" s="146"/>
-      <c r="Z9" s="146"/>
-      <c r="AA9" s="147"/>
-      <c r="AB9" s="148" t="s">
+      <c r="X9" s="162"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="163"/>
+      <c r="AB9" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="AC9" s="146"/>
-      <c r="AD9" s="146"/>
-      <c r="AE9" s="146"/>
-      <c r="AF9" s="149"/>
-      <c r="AG9" s="150" t="s">
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="162"/>
+      <c r="AF9" s="165"/>
+      <c r="AG9" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="AH9" s="151"/>
-      <c r="AI9" s="151"/>
-      <c r="AJ9" s="151"/>
-      <c r="AK9" s="152"/>
-      <c r="AL9" s="150" t="s">
+      <c r="AH9" s="167"/>
+      <c r="AI9" s="167"/>
+      <c r="AJ9" s="167"/>
+      <c r="AK9" s="168"/>
+      <c r="AL9" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="AM9" s="151"/>
-      <c r="AN9" s="151"/>
-      <c r="AO9" s="151"/>
-      <c r="AP9" s="153"/>
-      <c r="AQ9" s="154" t="s">
+      <c r="AM9" s="167"/>
+      <c r="AN9" s="167"/>
+      <c r="AO9" s="167"/>
+      <c r="AP9" s="169"/>
+      <c r="AQ9" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="AR9" s="155"/>
-      <c r="AS9" s="155"/>
-      <c r="AT9" s="155"/>
-      <c r="AU9" s="156"/>
-      <c r="AV9" s="157" t="s">
+      <c r="AR9" s="171"/>
+      <c r="AS9" s="171"/>
+      <c r="AT9" s="171"/>
+      <c r="AU9" s="172"/>
+      <c r="AV9" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="AW9" s="155"/>
-      <c r="AX9" s="155"/>
-      <c r="AY9" s="155"/>
-      <c r="AZ9" s="156"/>
-      <c r="BA9" s="158" t="s">
+      <c r="AW9" s="171"/>
+      <c r="AX9" s="171"/>
+      <c r="AY9" s="171"/>
+      <c r="AZ9" s="172"/>
+      <c r="BA9" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="BB9" s="130"/>
-      <c r="BC9" s="130"/>
-      <c r="BD9" s="130"/>
-      <c r="BE9" s="159"/>
-      <c r="BF9" s="129" t="s">
+      <c r="BB9" s="146"/>
+      <c r="BC9" s="146"/>
+      <c r="BD9" s="146"/>
+      <c r="BE9" s="175"/>
+      <c r="BF9" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="BG9" s="130"/>
-      <c r="BH9" s="130"/>
-      <c r="BI9" s="130"/>
-      <c r="BJ9" s="131"/>
-      <c r="BK9" s="132" t="s">
+      <c r="BG9" s="146"/>
+      <c r="BH9" s="146"/>
+      <c r="BI9" s="146"/>
+      <c r="BJ9" s="147"/>
+      <c r="BK9" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="BL9" s="133"/>
-      <c r="BM9" s="133"/>
-      <c r="BN9" s="133"/>
-      <c r="BO9" s="134"/>
-      <c r="BP9" s="132" t="s">
+      <c r="BL9" s="149"/>
+      <c r="BM9" s="149"/>
+      <c r="BN9" s="149"/>
+      <c r="BO9" s="150"/>
+      <c r="BP9" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="BQ9" s="133"/>
-      <c r="BR9" s="133"/>
-      <c r="BS9" s="133"/>
-      <c r="BT9" s="135"/>
+      <c r="BQ9" s="149"/>
+      <c r="BR9" s="149"/>
+      <c r="BS9" s="149"/>
+      <c r="BT9" s="151"/>
     </row>
     <row r="10" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="164"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="168"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="137"/>
       <c r="E10" s="20" t="s">
         <v>29</v>
       </c>
@@ -5198,11 +5207,11 @@
       <c r="G10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="173"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="140"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="156"/>
       <c r="M10" s="23" t="s">
         <v>32</v>
       </c>
@@ -12196,13 +12205,6 @@
     <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
     <mergeCell ref="BF9:BJ9"/>
     <mergeCell ref="BK9:BO9"/>
     <mergeCell ref="BP9:BT9"/>
@@ -12218,6 +12220,13 @@
     <mergeCell ref="AQ9:AU9"/>
     <mergeCell ref="AV9:AZ9"/>
     <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12232,8 +12241,8 @@
   </sheetPr>
   <dimension ref="B1:M1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12313,7 +12322,9 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84"/>
+      <c r="B4" s="84" t="s">
+        <v>210</v>
+      </c>
       <c r="C4" s="85">
         <v>3</v>
       </c>
@@ -12343,11 +12354,13 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="84"/>
+      <c r="B5" s="84" t="s">
+        <v>210</v>
+      </c>
       <c r="C5" s="85">
         <v>3</v>
       </c>
-      <c r="D5" s="177"/>
+      <c r="D5" s="178"/>
       <c r="E5" s="85" t="s">
         <v>66</v>
       </c>
@@ -12371,7 +12384,9 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84"/>
+      <c r="B6" s="84" t="s">
+        <v>211</v>
+      </c>
       <c r="C6" s="85">
         <v>3</v>
       </c>
@@ -12401,7 +12416,9 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="84"/>
+      <c r="B7" s="84" t="s">
+        <v>212</v>
+      </c>
       <c r="C7" s="85">
         <v>3</v>
       </c>
@@ -12428,7 +12445,9 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="84"/>
+      <c r="B8" s="84" t="s">
+        <v>210</v>
+      </c>
       <c r="C8" s="85">
         <v>3</v>
       </c>
@@ -12455,11 +12474,13 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="84"/>
+      <c r="B9" s="84" t="s">
+        <v>210</v>
+      </c>
       <c r="C9" s="85">
         <v>3</v>
       </c>
-      <c r="D9" s="177"/>
+      <c r="D9" s="178"/>
       <c r="E9" s="85" t="s">
         <v>96</v>
       </c>
@@ -12480,7 +12501,9 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="84"/>
+      <c r="B10" s="84" t="s">
+        <v>210</v>
+      </c>
       <c r="C10" s="85">
         <v>4</v>
       </c>
@@ -12507,11 +12530,13 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="84"/>
+      <c r="B11" s="84" t="s">
+        <v>211</v>
+      </c>
       <c r="C11" s="85">
         <v>4</v>
       </c>
-      <c r="D11" s="177"/>
+      <c r="D11" s="178"/>
       <c r="E11" s="85" t="s">
         <v>73</v>
       </c>
@@ -12532,7 +12557,9 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="84"/>
+      <c r="B12" s="84" t="s">
+        <v>210</v>
+      </c>
       <c r="C12" s="85">
         <v>3</v>
       </c>
@@ -12556,11 +12583,13 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="84"/>
+      <c r="B13" s="84" t="s">
+        <v>210</v>
+      </c>
       <c r="C13" s="85">
         <v>3</v>
       </c>
-      <c r="D13" s="177"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="85" t="s">
         <v>171</v>
       </c>
@@ -12578,7 +12607,9 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="84"/>
+      <c r="B14" s="84" t="s">
+        <v>211</v>
+      </c>
       <c r="C14" s="85">
         <v>4</v>
       </c>
@@ -12602,11 +12633,13 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="84"/>
+      <c r="B15" s="84" t="s">
+        <v>212</v>
+      </c>
       <c r="C15" s="85">
         <v>4</v>
       </c>
-      <c r="D15" s="177"/>
+      <c r="D15" s="178"/>
       <c r="E15" s="85" t="s">
         <v>80</v>
       </c>
@@ -12624,7 +12657,9 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="84"/>
+      <c r="B16" s="84" t="s">
+        <v>212</v>
+      </c>
       <c r="C16" s="85">
         <v>5</v>
       </c>
@@ -12648,11 +12683,13 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="84"/>
+      <c r="B17" s="84" t="s">
+        <v>212</v>
+      </c>
       <c r="C17" s="85">
         <v>5</v>
       </c>
-      <c r="D17" s="178"/>
+      <c r="D17" s="177"/>
       <c r="E17" s="85" t="s">
         <v>175</v>
       </c>
@@ -12670,11 +12707,13 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="84"/>
+      <c r="B18" s="84" t="s">
+        <v>212</v>
+      </c>
       <c r="C18" s="85">
         <v>5</v>
       </c>
-      <c r="D18" s="177"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="85" t="s">
         <v>176</v>
       </c>
@@ -12692,7 +12731,9 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="84"/>
+      <c r="B19" s="84" t="s">
+        <v>211</v>
+      </c>
       <c r="C19" s="85">
         <v>5</v>
       </c>
@@ -12716,7 +12757,9 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="84"/>
+      <c r="B20" s="84" t="s">
+        <v>210</v>
+      </c>
       <c r="C20" s="85">
         <v>3</v>
       </c>
@@ -12740,11 +12783,13 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="84"/>
+      <c r="B21" s="84" t="s">
+        <v>211</v>
+      </c>
       <c r="C21" s="85">
         <v>3</v>
       </c>
-      <c r="D21" s="178"/>
+      <c r="D21" s="177"/>
       <c r="E21" s="85" t="s">
         <v>180</v>
       </c>
@@ -12762,11 +12807,13 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="84"/>
+      <c r="B22" s="84" t="s">
+        <v>212</v>
+      </c>
       <c r="C22" s="85">
         <v>5</v>
       </c>
-      <c r="D22" s="177"/>
+      <c r="D22" s="178"/>
       <c r="E22" s="85" t="s">
         <v>104</v>
       </c>
@@ -12784,7 +12831,9 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="84"/>
+      <c r="B23" s="84" t="s">
+        <v>211</v>
+      </c>
       <c r="C23" s="85">
         <v>3</v>
       </c>
@@ -12808,11 +12857,13 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="84"/>
+      <c r="B24" s="84" t="s">
+        <v>210</v>
+      </c>
       <c r="C24" s="85">
         <v>3</v>
       </c>
-      <c r="D24" s="178"/>
+      <c r="D24" s="177"/>
       <c r="E24" s="85" t="s">
         <v>179</v>
       </c>
@@ -12830,11 +12881,13 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="84"/>
+      <c r="B25" s="84" t="s">
+        <v>212</v>
+      </c>
       <c r="C25" s="85">
         <v>5</v>
       </c>
-      <c r="D25" s="177"/>
+      <c r="D25" s="178"/>
       <c r="E25" s="85" t="s">
         <v>104</v>
       </c>
@@ -12852,7 +12905,9 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="84"/>
+      <c r="B26" s="84" t="s">
+        <v>211</v>
+      </c>
       <c r="C26" s="85">
         <v>5</v>
       </c>
@@ -12876,7 +12931,9 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="84"/>
+      <c r="B27" s="84" t="s">
+        <v>210</v>
+      </c>
       <c r="C27" s="85">
         <v>4</v>
       </c>
@@ -14011,16 +14068,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I40">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>$K$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>$K$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH(("Not Started"),(I4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -14033,6 +14087,9 @@
         <color rgb="FFE9E7E7"/>
       </colorScale>
     </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>$K$6</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
@@ -14040,9 +14097,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6">
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH(("In Progress"),(K4))))</formula>
-    </cfRule>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="formula" val="$K$5"/>
@@ -14052,6 +14106,9 @@
         <color rgb="FFF7EFDE"/>
         <color rgb="FFE9E7E7"/>
       </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH(("In Progress"),(K4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">

--- a/Documentation/Scrum-Project-Management.xlsx
+++ b/Documentation/Scrum-Project-Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroficorella/Developer/GitHub/LABAP/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1339CECB-A248-1343-9FF0-59BBF69C7B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA53C5-6D36-2142-B988-A46CE1315971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2286,36 +2286,6 @@
     <xf numFmtId="0" fontId="10" fillId="48" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="49" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="50" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2373,6 +2343,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3875,6 +3875,408 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7A08-5A45-A3FE-1236FE08E914}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BLANK Gantt Chart &amp; Burndown'!$L$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRS REMAINING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BLANK Gantt Chart &amp; Burndown'!$M$61:$BT$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BLANK Gantt Chart &amp; Burndown'!$M$65:$BT$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DDF-3F40-9015-F09198122FA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4523,8 +4925,8 @@
   </sheetPr>
   <dimension ref="B1:BV1024"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BZ66" sqref="BZ66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4637,7 +5039,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="129" t="s">
+      <c r="K3" s="160" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -4714,7 +5116,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="130"/>
+      <c r="K4" s="161"/>
       <c r="L4" s="10" t="s">
         <v>4</v>
       </c>
@@ -4789,7 +5191,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="130"/>
+      <c r="K5" s="161"/>
       <c r="L5" s="14" t="s">
         <v>5</v>
       </c>
@@ -4864,7 +5266,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="130"/>
+      <c r="K6" s="161"/>
       <c r="L6" s="16" t="s">
         <v>6</v>
       </c>
@@ -4939,7 +5341,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="130"/>
+      <c r="K7" s="161"/>
       <c r="L7" s="18" t="s">
         <v>7</v>
       </c>
@@ -5014,7 +5416,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="131"/>
+      <c r="K8" s="162"/>
       <c r="L8" s="105" t="s">
         <v>7</v>
       </c>
@@ -5080,124 +5482,124 @@
       <c r="BT8" s="107"/>
     </row>
     <row r="9" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="138" t="s">
+      <c r="E9" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="139"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="141" t="s">
+      <c r="F9" s="170"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="143" t="s">
+      <c r="I9" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="152" t="s">
+      <c r="J9" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="154" t="s">
+      <c r="K9" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="155" t="s">
+      <c r="L9" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="157" t="s">
+      <c r="M9" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="160" t="s">
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="158"/>
-      <c r="T9" s="158"/>
-      <c r="U9" s="158"/>
-      <c r="V9" s="159"/>
-      <c r="W9" s="161" t="s">
+      <c r="S9" s="142"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="142"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="162"/>
-      <c r="Y9" s="162"/>
-      <c r="Z9" s="162"/>
-      <c r="AA9" s="163"/>
-      <c r="AB9" s="164" t="s">
+      <c r="X9" s="146"/>
+      <c r="Y9" s="146"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="147"/>
+      <c r="AB9" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="AC9" s="162"/>
-      <c r="AD9" s="162"/>
-      <c r="AE9" s="162"/>
-      <c r="AF9" s="165"/>
-      <c r="AG9" s="166" t="s">
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="146"/>
+      <c r="AE9" s="146"/>
+      <c r="AF9" s="149"/>
+      <c r="AG9" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="167"/>
-      <c r="AK9" s="168"/>
-      <c r="AL9" s="166" t="s">
+      <c r="AH9" s="151"/>
+      <c r="AI9" s="151"/>
+      <c r="AJ9" s="151"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="AM9" s="167"/>
-      <c r="AN9" s="167"/>
-      <c r="AO9" s="167"/>
-      <c r="AP9" s="169"/>
-      <c r="AQ9" s="170" t="s">
+      <c r="AM9" s="151"/>
+      <c r="AN9" s="151"/>
+      <c r="AO9" s="151"/>
+      <c r="AP9" s="153"/>
+      <c r="AQ9" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="AR9" s="171"/>
-      <c r="AS9" s="171"/>
-      <c r="AT9" s="171"/>
-      <c r="AU9" s="172"/>
-      <c r="AV9" s="173" t="s">
+      <c r="AR9" s="155"/>
+      <c r="AS9" s="155"/>
+      <c r="AT9" s="155"/>
+      <c r="AU9" s="156"/>
+      <c r="AV9" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="AW9" s="171"/>
-      <c r="AX9" s="171"/>
-      <c r="AY9" s="171"/>
-      <c r="AZ9" s="172"/>
-      <c r="BA9" s="174" t="s">
+      <c r="AW9" s="155"/>
+      <c r="AX9" s="155"/>
+      <c r="AY9" s="155"/>
+      <c r="AZ9" s="156"/>
+      <c r="BA9" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="BB9" s="146"/>
-      <c r="BC9" s="146"/>
-      <c r="BD9" s="146"/>
-      <c r="BE9" s="175"/>
-      <c r="BF9" s="145" t="s">
+      <c r="BB9" s="130"/>
+      <c r="BC9" s="130"/>
+      <c r="BD9" s="130"/>
+      <c r="BE9" s="159"/>
+      <c r="BF9" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="BG9" s="146"/>
-      <c r="BH9" s="146"/>
-      <c r="BI9" s="146"/>
-      <c r="BJ9" s="147"/>
-      <c r="BK9" s="148" t="s">
+      <c r="BG9" s="130"/>
+      <c r="BH9" s="130"/>
+      <c r="BI9" s="130"/>
+      <c r="BJ9" s="131"/>
+      <c r="BK9" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="BL9" s="149"/>
-      <c r="BM9" s="149"/>
-      <c r="BN9" s="149"/>
-      <c r="BO9" s="150"/>
-      <c r="BP9" s="148" t="s">
+      <c r="BL9" s="133"/>
+      <c r="BM9" s="133"/>
+      <c r="BN9" s="133"/>
+      <c r="BO9" s="134"/>
+      <c r="BP9" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="BQ9" s="149"/>
-      <c r="BR9" s="149"/>
-      <c r="BS9" s="149"/>
-      <c r="BT9" s="151"/>
+      <c r="BQ9" s="133"/>
+      <c r="BR9" s="133"/>
+      <c r="BS9" s="133"/>
+      <c r="BT9" s="135"/>
     </row>
     <row r="10" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="133"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="137"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="168"/>
       <c r="E10" s="20" t="s">
         <v>29</v>
       </c>
@@ -5207,11 +5609,11 @@
       <c r="G10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="142"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="156"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="140"/>
       <c r="M10" s="23" t="s">
         <v>32</v>
       </c>
@@ -12205,6 +12607,13 @@
     <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="BF9:BJ9"/>
     <mergeCell ref="BK9:BO9"/>
     <mergeCell ref="BP9:BT9"/>
@@ -12220,13 +12629,6 @@
     <mergeCell ref="AQ9:AU9"/>
     <mergeCell ref="AV9:AZ9"/>
     <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
